--- a/s_and_p.xlsx
+++ b/s_and_p.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88593C4D-E443-404C-86B0-0D7A614D978E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4DAC1B6-34BF-43D1-B8E6-EEE1CEFA53C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{2EC8B45E-6F76-4F0C-A106-9714FE14DE5A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{A13E5144-8C8F-4AC6-A10A-0E95A307107B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -111,6 +111,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -426,11 +429,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5B496F-C46C-45E7-9DF0-228C13555407}">
-  <dimension ref="A1:G62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F4474E-FFD9-46DD-992B-07912B5F4174}">
+  <dimension ref="A1:G461"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:G461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1861,6 +1864,9183 @@
         <v>70194700000</v>
       </c>
     </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A63" s="4">
+        <v>43160</v>
+      </c>
+      <c r="B63" s="5">
+        <v>2715.22</v>
+      </c>
+      <c r="C63" s="5">
+        <v>2801.9</v>
+      </c>
+      <c r="D63" s="5">
+        <v>2585.89</v>
+      </c>
+      <c r="E63" s="5">
+        <v>2640.87</v>
+      </c>
+      <c r="F63" s="5">
+        <v>2640.87</v>
+      </c>
+      <c r="G63" s="6">
+        <v>76803890000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A64" s="4">
+        <v>43132</v>
+      </c>
+      <c r="B64" s="5">
+        <v>2816.45</v>
+      </c>
+      <c r="C64" s="5">
+        <v>2835.96</v>
+      </c>
+      <c r="D64" s="5">
+        <v>2532.69</v>
+      </c>
+      <c r="E64" s="5">
+        <v>2713.83</v>
+      </c>
+      <c r="F64" s="5">
+        <v>2713.83</v>
+      </c>
+      <c r="G64" s="6">
+        <v>79933970000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A65" s="4">
+        <v>43101</v>
+      </c>
+      <c r="B65" s="5">
+        <v>2683.73</v>
+      </c>
+      <c r="C65" s="5">
+        <v>2872.87</v>
+      </c>
+      <c r="D65" s="5">
+        <v>2682.36</v>
+      </c>
+      <c r="E65" s="5">
+        <v>2823.81</v>
+      </c>
+      <c r="F65" s="5">
+        <v>2823.81</v>
+      </c>
+      <c r="G65" s="6">
+        <v>77318690000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A66" s="4">
+        <v>43070</v>
+      </c>
+      <c r="B66" s="5">
+        <v>2645.1</v>
+      </c>
+      <c r="C66" s="5">
+        <v>2694.97</v>
+      </c>
+      <c r="D66" s="5">
+        <v>2605.52</v>
+      </c>
+      <c r="E66" s="5">
+        <v>2673.61</v>
+      </c>
+      <c r="F66" s="5">
+        <v>2673.61</v>
+      </c>
+      <c r="G66" s="6">
+        <v>65531700000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A67" s="4">
+        <v>43039</v>
+      </c>
+      <c r="B67" s="5">
+        <v>2583.21</v>
+      </c>
+      <c r="C67" s="5">
+        <v>2657.74</v>
+      </c>
+      <c r="D67" s="5">
+        <v>2557.4499999999998</v>
+      </c>
+      <c r="E67" s="5">
+        <v>2647.58</v>
+      </c>
+      <c r="F67" s="5">
+        <v>2647.58</v>
+      </c>
+      <c r="G67" s="6">
+        <v>73416960000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A68" s="4">
+        <v>43008</v>
+      </c>
+      <c r="B68" s="5">
+        <v>2521.1999999999998</v>
+      </c>
+      <c r="C68" s="5">
+        <v>2582.98</v>
+      </c>
+      <c r="D68" s="5">
+        <v>2520.4</v>
+      </c>
+      <c r="E68" s="5">
+        <v>2575.2600000000002</v>
+      </c>
+      <c r="F68" s="5">
+        <v>2575.2600000000002</v>
+      </c>
+      <c r="G68" s="6">
+        <v>71088550000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A69" s="4">
+        <v>42978</v>
+      </c>
+      <c r="B69" s="5">
+        <v>2474.42</v>
+      </c>
+      <c r="C69" s="5">
+        <v>2519.44</v>
+      </c>
+      <c r="D69" s="5">
+        <v>2446.5500000000002</v>
+      </c>
+      <c r="E69" s="5">
+        <v>2519.36</v>
+      </c>
+      <c r="F69" s="5">
+        <v>2519.36</v>
+      </c>
+      <c r="G69" s="6">
+        <v>66624120000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A70" s="4">
+        <v>42947</v>
+      </c>
+      <c r="B70" s="5">
+        <v>2477.1</v>
+      </c>
+      <c r="C70" s="5">
+        <v>2490.87</v>
+      </c>
+      <c r="D70" s="5">
+        <v>2417.35</v>
+      </c>
+      <c r="E70" s="5">
+        <v>2471.65</v>
+      </c>
+      <c r="F70" s="5">
+        <v>2471.65</v>
+      </c>
+      <c r="G70" s="6">
+        <v>70784900000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A71" s="4">
+        <v>42916</v>
+      </c>
+      <c r="B71" s="5">
+        <v>2431.39</v>
+      </c>
+      <c r="C71" s="5">
+        <v>2484.04</v>
+      </c>
+      <c r="D71" s="5">
+        <v>2407.6999999999998</v>
+      </c>
+      <c r="E71" s="5">
+        <v>2470.3000000000002</v>
+      </c>
+      <c r="F71" s="5">
+        <v>2470.3000000000002</v>
+      </c>
+      <c r="G71" s="6">
+        <v>63348090000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A72" s="4">
+        <v>42886</v>
+      </c>
+      <c r="B72" s="5">
+        <v>2415.65</v>
+      </c>
+      <c r="C72" s="5">
+        <v>2453.8200000000002</v>
+      </c>
+      <c r="D72" s="5">
+        <v>2405.6999999999998</v>
+      </c>
+      <c r="E72" s="5">
+        <v>2423.41</v>
+      </c>
+      <c r="F72" s="5">
+        <v>2423.41</v>
+      </c>
+      <c r="G72" s="6">
+        <v>81078810000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A73" s="4">
+        <v>42855</v>
+      </c>
+      <c r="B73" s="5">
+        <v>2388.5</v>
+      </c>
+      <c r="C73" s="5">
+        <v>2418.71</v>
+      </c>
+      <c r="D73" s="5">
+        <v>2352.7199999999998</v>
+      </c>
+      <c r="E73" s="5">
+        <v>2411.8000000000002</v>
+      </c>
+      <c r="F73" s="5">
+        <v>2411.8000000000002</v>
+      </c>
+      <c r="G73" s="6">
+        <v>79719460000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A74" s="4">
+        <v>42825</v>
+      </c>
+      <c r="B74" s="5">
+        <v>2362.34</v>
+      </c>
+      <c r="C74" s="5">
+        <v>2398.16</v>
+      </c>
+      <c r="D74" s="5">
+        <v>2328.9499999999998</v>
+      </c>
+      <c r="E74" s="5">
+        <v>2384.1999999999998</v>
+      </c>
+      <c r="F74" s="5">
+        <v>2384.1999999999998</v>
+      </c>
+      <c r="G74" s="6">
+        <v>65369860000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A75" s="4">
+        <v>42795</v>
+      </c>
+      <c r="B75" s="5">
+        <v>2380.13</v>
+      </c>
+      <c r="C75" s="5">
+        <v>2400.98</v>
+      </c>
+      <c r="D75" s="5">
+        <v>2322.25</v>
+      </c>
+      <c r="E75" s="5">
+        <v>2362.7199999999998</v>
+      </c>
+      <c r="F75" s="5">
+        <v>2362.7199999999998</v>
+      </c>
+      <c r="G75" s="6">
+        <v>81664010000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A76" s="4">
+        <v>42767</v>
+      </c>
+      <c r="B76" s="5">
+        <v>2285.59</v>
+      </c>
+      <c r="C76" s="5">
+        <v>2371.54</v>
+      </c>
+      <c r="D76" s="5">
+        <v>2271.65</v>
+      </c>
+      <c r="E76" s="5">
+        <v>2363.64</v>
+      </c>
+      <c r="F76" s="5">
+        <v>2363.64</v>
+      </c>
+      <c r="G76" s="6">
+        <v>69260940000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A77" s="4">
+        <v>42736</v>
+      </c>
+      <c r="B77" s="5">
+        <v>2251.5700000000002</v>
+      </c>
+      <c r="C77" s="5">
+        <v>2300.9899999999998</v>
+      </c>
+      <c r="D77" s="5">
+        <v>2245.13</v>
+      </c>
+      <c r="E77" s="5">
+        <v>2278.87</v>
+      </c>
+      <c r="F77" s="5">
+        <v>2278.87</v>
+      </c>
+      <c r="G77" s="6">
+        <v>70576420000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A78" s="4">
+        <v>42705</v>
+      </c>
+      <c r="B78" s="5">
+        <v>2200.17</v>
+      </c>
+      <c r="C78" s="5">
+        <v>2277.5300000000002</v>
+      </c>
+      <c r="D78" s="5">
+        <v>2187.44</v>
+      </c>
+      <c r="E78" s="5">
+        <v>2238.83</v>
+      </c>
+      <c r="F78" s="5">
+        <v>2238.83</v>
+      </c>
+      <c r="G78" s="6">
+        <v>75344550000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A79" s="4">
+        <v>42674</v>
+      </c>
+      <c r="B79" s="5">
+        <v>2128.6799999999998</v>
+      </c>
+      <c r="C79" s="5">
+        <v>2214.1</v>
+      </c>
+      <c r="D79" s="5">
+        <v>2083.79</v>
+      </c>
+      <c r="E79" s="5">
+        <v>2198.81</v>
+      </c>
+      <c r="F79" s="5">
+        <v>2198.81</v>
+      </c>
+      <c r="G79" s="6">
+        <v>88445380000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A80" s="4">
+        <v>42643</v>
+      </c>
+      <c r="B80" s="5">
+        <v>2164.33</v>
+      </c>
+      <c r="C80" s="5">
+        <v>2169.6</v>
+      </c>
+      <c r="D80" s="5">
+        <v>2114.7199999999998</v>
+      </c>
+      <c r="E80" s="5">
+        <v>2126.15</v>
+      </c>
+      <c r="F80" s="5">
+        <v>2126.15</v>
+      </c>
+      <c r="G80" s="6">
+        <v>72915530000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A81" s="4">
+        <v>42613</v>
+      </c>
+      <c r="B81" s="5">
+        <v>2171.33</v>
+      </c>
+      <c r="C81" s="5">
+        <v>2187.87</v>
+      </c>
+      <c r="D81" s="5">
+        <v>2119.12</v>
+      </c>
+      <c r="E81" s="5">
+        <v>2168.27</v>
+      </c>
+      <c r="F81" s="5">
+        <v>2168.27</v>
+      </c>
+      <c r="G81" s="6">
+        <v>77023620000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A82" s="4">
+        <v>42582</v>
+      </c>
+      <c r="B82" s="5">
+        <v>2173.15</v>
+      </c>
+      <c r="C82" s="5">
+        <v>2193.81</v>
+      </c>
+      <c r="D82" s="5">
+        <v>2147.58</v>
+      </c>
+      <c r="E82" s="5">
+        <v>2170.9499999999998</v>
+      </c>
+      <c r="F82" s="5">
+        <v>2170.9499999999998</v>
+      </c>
+      <c r="G82" s="6">
+        <v>75610310000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A83" s="4">
+        <v>42551</v>
+      </c>
+      <c r="B83" s="5">
+        <v>2099.34</v>
+      </c>
+      <c r="C83" s="5">
+        <v>2177.09</v>
+      </c>
+      <c r="D83" s="5">
+        <v>2074.02</v>
+      </c>
+      <c r="E83" s="5">
+        <v>2173.6</v>
+      </c>
+      <c r="F83" s="5">
+        <v>2173.6</v>
+      </c>
+      <c r="G83" s="6">
+        <v>69530250000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A84" s="4">
+        <v>42521</v>
+      </c>
+      <c r="B84" s="5">
+        <v>2093.94</v>
+      </c>
+      <c r="C84" s="5">
+        <v>2120.5500000000002</v>
+      </c>
+      <c r="D84" s="5">
+        <v>1991.68</v>
+      </c>
+      <c r="E84" s="5">
+        <v>2098.86</v>
+      </c>
+      <c r="F84" s="5">
+        <v>2098.86</v>
+      </c>
+      <c r="G84" s="6">
+        <v>86852700000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A85" s="4">
+        <v>42490</v>
+      </c>
+      <c r="B85" s="5">
+        <v>2067.17</v>
+      </c>
+      <c r="C85" s="5">
+        <v>2103.48</v>
+      </c>
+      <c r="D85" s="5">
+        <v>2025.91</v>
+      </c>
+      <c r="E85" s="5">
+        <v>2096.9499999999998</v>
+      </c>
+      <c r="F85" s="5">
+        <v>2096.9499999999998</v>
+      </c>
+      <c r="G85" s="6">
+        <v>78883600000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A86" s="4">
+        <v>42460</v>
+      </c>
+      <c r="B86" s="5">
+        <v>2056.62</v>
+      </c>
+      <c r="C86" s="5">
+        <v>2111.0500000000002</v>
+      </c>
+      <c r="D86" s="5">
+        <v>2033.8</v>
+      </c>
+      <c r="E86" s="5">
+        <v>2065.3000000000002</v>
+      </c>
+      <c r="F86" s="5">
+        <v>2065.3000000000002</v>
+      </c>
+      <c r="G86" s="6">
+        <v>81124990000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A87" s="4">
+        <v>42430</v>
+      </c>
+      <c r="B87" s="5">
+        <v>1937.09</v>
+      </c>
+      <c r="C87" s="5">
+        <v>2072.21</v>
+      </c>
+      <c r="D87" s="5">
+        <v>1937.09</v>
+      </c>
+      <c r="E87" s="5">
+        <v>2059.7399999999998</v>
+      </c>
+      <c r="F87" s="5">
+        <v>2059.7399999999998</v>
+      </c>
+      <c r="G87" s="6">
+        <v>92639420000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A88" s="4">
+        <v>42401</v>
+      </c>
+      <c r="B88" s="5">
+        <v>1936.94</v>
+      </c>
+      <c r="C88" s="5">
+        <v>1962.96</v>
+      </c>
+      <c r="D88" s="5">
+        <v>1810.1</v>
+      </c>
+      <c r="E88" s="5">
+        <v>1932.23</v>
+      </c>
+      <c r="F88" s="5">
+        <v>1932.23</v>
+      </c>
+      <c r="G88" s="6">
+        <v>93049560000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A89" s="4">
+        <v>42370</v>
+      </c>
+      <c r="B89" s="5">
+        <v>2038.2</v>
+      </c>
+      <c r="C89" s="5">
+        <v>2038.2</v>
+      </c>
+      <c r="D89" s="5">
+        <v>1812.29</v>
+      </c>
+      <c r="E89" s="5">
+        <v>1940.24</v>
+      </c>
+      <c r="F89" s="5">
+        <v>1940.24</v>
+      </c>
+      <c r="G89" s="6">
+        <v>92409770000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A90" s="4">
+        <v>42339</v>
+      </c>
+      <c r="B90" s="5">
+        <v>2082.9299999999998</v>
+      </c>
+      <c r="C90" s="5">
+        <v>2104.27</v>
+      </c>
+      <c r="D90" s="5">
+        <v>1993.26</v>
+      </c>
+      <c r="E90" s="5">
+        <v>2043.94</v>
+      </c>
+      <c r="F90" s="5">
+        <v>2043.94</v>
+      </c>
+      <c r="G90" s="6">
+        <v>83649260000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A91" s="4">
+        <v>42308</v>
+      </c>
+      <c r="B91" s="5">
+        <v>2080.7600000000002</v>
+      </c>
+      <c r="C91" s="5">
+        <v>2116.48</v>
+      </c>
+      <c r="D91" s="5">
+        <v>2019.39</v>
+      </c>
+      <c r="E91" s="5">
+        <v>2080.41</v>
+      </c>
+      <c r="F91" s="5">
+        <v>2080.41</v>
+      </c>
+      <c r="G91" s="6">
+        <v>75943590000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A92" s="4">
+        <v>42277</v>
+      </c>
+      <c r="B92" s="5">
+        <v>1919.65</v>
+      </c>
+      <c r="C92" s="5">
+        <v>2094.3200000000002</v>
+      </c>
+      <c r="D92" s="5">
+        <v>1893.7</v>
+      </c>
+      <c r="E92" s="5">
+        <v>2079.36</v>
+      </c>
+      <c r="F92" s="5">
+        <v>2079.36</v>
+      </c>
+      <c r="G92" s="6">
+        <v>85844900000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A93" s="4">
+        <v>42247</v>
+      </c>
+      <c r="B93" s="5">
+        <v>1970.09</v>
+      </c>
+      <c r="C93" s="5">
+        <v>2020.86</v>
+      </c>
+      <c r="D93" s="5">
+        <v>1871.91</v>
+      </c>
+      <c r="E93" s="5">
+        <v>1920.03</v>
+      </c>
+      <c r="F93" s="5">
+        <v>1920.03</v>
+      </c>
+      <c r="G93" s="6">
+        <v>79989370000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A94" s="4">
+        <v>42216</v>
+      </c>
+      <c r="B94" s="5">
+        <v>2104.4899999999998</v>
+      </c>
+      <c r="C94" s="5">
+        <v>2112.66</v>
+      </c>
+      <c r="D94" s="5">
+        <v>1867.01</v>
+      </c>
+      <c r="E94" s="5">
+        <v>1972.18</v>
+      </c>
+      <c r="F94" s="5">
+        <v>1972.18</v>
+      </c>
+      <c r="G94" s="6">
+        <v>84626790000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A95" s="4">
+        <v>42185</v>
+      </c>
+      <c r="B95" s="5">
+        <v>2067</v>
+      </c>
+      <c r="C95" s="5">
+        <v>2132.8200000000002</v>
+      </c>
+      <c r="D95" s="5">
+        <v>2044.02</v>
+      </c>
+      <c r="E95" s="5">
+        <v>2103.84</v>
+      </c>
+      <c r="F95" s="5">
+        <v>2103.84</v>
+      </c>
+      <c r="G95" s="6">
+        <v>77920590000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A96" s="4">
+        <v>42155</v>
+      </c>
+      <c r="B96" s="5">
+        <v>2108.64</v>
+      </c>
+      <c r="C96" s="5">
+        <v>2129.87</v>
+      </c>
+      <c r="D96" s="5">
+        <v>2056.3200000000002</v>
+      </c>
+      <c r="E96" s="5">
+        <v>2063.11</v>
+      </c>
+      <c r="F96" s="5">
+        <v>2063.11</v>
+      </c>
+      <c r="G96" s="6">
+        <v>73213980000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A97" s="4">
+        <v>42124</v>
+      </c>
+      <c r="B97" s="5">
+        <v>2087.38</v>
+      </c>
+      <c r="C97" s="5">
+        <v>2134.7199999999998</v>
+      </c>
+      <c r="D97" s="5">
+        <v>2067.9299999999998</v>
+      </c>
+      <c r="E97" s="5">
+        <v>2107.39</v>
+      </c>
+      <c r="F97" s="5">
+        <v>2107.39</v>
+      </c>
+      <c r="G97" s="6">
+        <v>65187730000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A98" s="4">
+        <v>42094</v>
+      </c>
+      <c r="B98" s="5">
+        <v>2067.63</v>
+      </c>
+      <c r="C98" s="5">
+        <v>2125.92</v>
+      </c>
+      <c r="D98" s="5">
+        <v>2048.38</v>
+      </c>
+      <c r="E98" s="5">
+        <v>2085.5100000000002</v>
+      </c>
+      <c r="F98" s="5">
+        <v>2085.5100000000002</v>
+      </c>
+      <c r="G98" s="6">
+        <v>72060940000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A99" s="4">
+        <v>42064</v>
+      </c>
+      <c r="B99" s="5">
+        <v>2105.23</v>
+      </c>
+      <c r="C99" s="5">
+        <v>2117.52</v>
+      </c>
+      <c r="D99" s="5">
+        <v>2039.69</v>
+      </c>
+      <c r="E99" s="5">
+        <v>2067.89</v>
+      </c>
+      <c r="F99" s="5">
+        <v>2067.89</v>
+      </c>
+      <c r="G99" s="6">
+        <v>76675850000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A100" s="4">
+        <v>42036</v>
+      </c>
+      <c r="B100" s="5">
+        <v>1996.67</v>
+      </c>
+      <c r="C100" s="5">
+        <v>2119.59</v>
+      </c>
+      <c r="D100" s="5">
+        <v>1980.9</v>
+      </c>
+      <c r="E100" s="5">
+        <v>2104.5</v>
+      </c>
+      <c r="F100" s="5">
+        <v>2104.5</v>
+      </c>
+      <c r="G100" s="6">
+        <v>68775560000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A101" s="4">
+        <v>42005</v>
+      </c>
+      <c r="B101" s="5">
+        <v>2058.9</v>
+      </c>
+      <c r="C101" s="5">
+        <v>2072.36</v>
+      </c>
+      <c r="D101" s="5">
+        <v>1988.12</v>
+      </c>
+      <c r="E101" s="5">
+        <v>1994.99</v>
+      </c>
+      <c r="F101" s="5">
+        <v>1994.99</v>
+      </c>
+      <c r="G101" s="6">
+        <v>77330040000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A102" s="4">
+        <v>41974</v>
+      </c>
+      <c r="B102" s="5">
+        <v>2065.7800000000002</v>
+      </c>
+      <c r="C102" s="5">
+        <v>2093.5500000000002</v>
+      </c>
+      <c r="D102" s="5">
+        <v>1972.56</v>
+      </c>
+      <c r="E102" s="5">
+        <v>2058.9</v>
+      </c>
+      <c r="F102" s="5">
+        <v>2058.9</v>
+      </c>
+      <c r="G102" s="6">
+        <v>80743820000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A103" s="4">
+        <v>41943</v>
+      </c>
+      <c r="B103" s="5">
+        <v>2018.21</v>
+      </c>
+      <c r="C103" s="5">
+        <v>2075.7600000000002</v>
+      </c>
+      <c r="D103" s="5">
+        <v>2001.01</v>
+      </c>
+      <c r="E103" s="5">
+        <v>2067.56</v>
+      </c>
+      <c r="F103" s="5">
+        <v>2067.56</v>
+      </c>
+      <c r="G103" s="6">
+        <v>63600190000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A104" s="4">
+        <v>41912</v>
+      </c>
+      <c r="B104" s="5">
+        <v>1971.44</v>
+      </c>
+      <c r="C104" s="5">
+        <v>2018.19</v>
+      </c>
+      <c r="D104" s="5">
+        <v>1820.66</v>
+      </c>
+      <c r="E104" s="5">
+        <v>2018.05</v>
+      </c>
+      <c r="F104" s="5">
+        <v>2018.05</v>
+      </c>
+      <c r="G104" s="6">
+        <v>93714040000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A105" s="4">
+        <v>41882</v>
+      </c>
+      <c r="B105" s="5">
+        <v>2004.07</v>
+      </c>
+      <c r="C105" s="5">
+        <v>2019.26</v>
+      </c>
+      <c r="D105" s="5">
+        <v>1964.04</v>
+      </c>
+      <c r="E105" s="5">
+        <v>1972.29</v>
+      </c>
+      <c r="F105" s="5">
+        <v>1972.29</v>
+      </c>
+      <c r="G105" s="6">
+        <v>66706000000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A106" s="4">
+        <v>41851</v>
+      </c>
+      <c r="B106" s="5">
+        <v>1929.8</v>
+      </c>
+      <c r="C106" s="5">
+        <v>2005.04</v>
+      </c>
+      <c r="D106" s="5">
+        <v>1904.78</v>
+      </c>
+      <c r="E106" s="5">
+        <v>2003.37</v>
+      </c>
+      <c r="F106" s="5">
+        <v>2003.37</v>
+      </c>
+      <c r="G106" s="6">
+        <v>58131140000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A107" s="4">
+        <v>41820</v>
+      </c>
+      <c r="B107" s="5">
+        <v>1962.29</v>
+      </c>
+      <c r="C107" s="5">
+        <v>1991.39</v>
+      </c>
+      <c r="D107" s="5">
+        <v>1930.67</v>
+      </c>
+      <c r="E107" s="5">
+        <v>1930.67</v>
+      </c>
+      <c r="F107" s="5">
+        <v>1930.67</v>
+      </c>
+      <c r="G107" s="6">
+        <v>66524690000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A108" s="4">
+        <v>41790</v>
+      </c>
+      <c r="B108" s="5">
+        <v>1923.87</v>
+      </c>
+      <c r="C108" s="5">
+        <v>1968.17</v>
+      </c>
+      <c r="D108" s="5">
+        <v>1915.98</v>
+      </c>
+      <c r="E108" s="5">
+        <v>1960.23</v>
+      </c>
+      <c r="F108" s="5">
+        <v>1960.23</v>
+      </c>
+      <c r="G108" s="6">
+        <v>63283380000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A109" s="4">
+        <v>41759</v>
+      </c>
+      <c r="B109" s="5">
+        <v>1884.39</v>
+      </c>
+      <c r="C109" s="5">
+        <v>1924.03</v>
+      </c>
+      <c r="D109" s="5">
+        <v>1859.79</v>
+      </c>
+      <c r="E109" s="5">
+        <v>1923.57</v>
+      </c>
+      <c r="F109" s="5">
+        <v>1923.57</v>
+      </c>
+      <c r="G109" s="6">
+        <v>63623630000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A110" s="4">
+        <v>41729</v>
+      </c>
+      <c r="B110" s="5">
+        <v>1873.96</v>
+      </c>
+      <c r="C110" s="5">
+        <v>1897.28</v>
+      </c>
+      <c r="D110" s="5">
+        <v>1814.36</v>
+      </c>
+      <c r="E110" s="5">
+        <v>1883.95</v>
+      </c>
+      <c r="F110" s="5">
+        <v>1883.95</v>
+      </c>
+      <c r="G110" s="6">
+        <v>71595810000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A111" s="4">
+        <v>41699</v>
+      </c>
+      <c r="B111" s="5">
+        <v>1857.68</v>
+      </c>
+      <c r="C111" s="5">
+        <v>1883.97</v>
+      </c>
+      <c r="D111" s="5">
+        <v>1834.44</v>
+      </c>
+      <c r="E111" s="5">
+        <v>1872.34</v>
+      </c>
+      <c r="F111" s="5">
+        <v>1872.34</v>
+      </c>
+      <c r="G111" s="6">
+        <v>71885030000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A112" s="4">
+        <v>41671</v>
+      </c>
+      <c r="B112" s="5">
+        <v>1782.68</v>
+      </c>
+      <c r="C112" s="5">
+        <v>1867.92</v>
+      </c>
+      <c r="D112" s="5">
+        <v>1737.92</v>
+      </c>
+      <c r="E112" s="5">
+        <v>1859.45</v>
+      </c>
+      <c r="F112" s="5">
+        <v>1859.45</v>
+      </c>
+      <c r="G112" s="6">
+        <v>69725590000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A113" s="4">
+        <v>41640</v>
+      </c>
+      <c r="B113" s="5">
+        <v>1845.86</v>
+      </c>
+      <c r="C113" s="5">
+        <v>1850.84</v>
+      </c>
+      <c r="D113" s="5">
+        <v>1770.45</v>
+      </c>
+      <c r="E113" s="5">
+        <v>1782.59</v>
+      </c>
+      <c r="F113" s="5">
+        <v>1782.59</v>
+      </c>
+      <c r="G113" s="6">
+        <v>75871910000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A114" s="4">
+        <v>41609</v>
+      </c>
+      <c r="B114" s="5">
+        <v>1806.55</v>
+      </c>
+      <c r="C114" s="5">
+        <v>1849.44</v>
+      </c>
+      <c r="D114" s="5">
+        <v>1767.99</v>
+      </c>
+      <c r="E114" s="5">
+        <v>1848.36</v>
+      </c>
+      <c r="F114" s="5">
+        <v>1848.36</v>
+      </c>
+      <c r="G114" s="6">
+        <v>64958820000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A115" s="4">
+        <v>41578</v>
+      </c>
+      <c r="B115" s="5">
+        <v>1758.7</v>
+      </c>
+      <c r="C115" s="5">
+        <v>1813.55</v>
+      </c>
+      <c r="D115" s="5">
+        <v>1746.2</v>
+      </c>
+      <c r="E115" s="5">
+        <v>1805.81</v>
+      </c>
+      <c r="F115" s="5">
+        <v>1805.81</v>
+      </c>
+      <c r="G115" s="6">
+        <v>63628190000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A116" s="4">
+        <v>41547</v>
+      </c>
+      <c r="B116" s="5">
+        <v>1682.41</v>
+      </c>
+      <c r="C116" s="5">
+        <v>1775.22</v>
+      </c>
+      <c r="D116" s="5">
+        <v>1646.47</v>
+      </c>
+      <c r="E116" s="5">
+        <v>1756.54</v>
+      </c>
+      <c r="F116" s="5">
+        <v>1756.54</v>
+      </c>
+      <c r="G116" s="6">
+        <v>76647400000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A117" s="4">
+        <v>41517</v>
+      </c>
+      <c r="B117" s="5">
+        <v>1635.95</v>
+      </c>
+      <c r="C117" s="5">
+        <v>1729.86</v>
+      </c>
+      <c r="D117" s="5">
+        <v>1633.41</v>
+      </c>
+      <c r="E117" s="5">
+        <v>1681.55</v>
+      </c>
+      <c r="F117" s="5">
+        <v>1681.55</v>
+      </c>
+      <c r="G117" s="6">
+        <v>66174410000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A118" s="4">
+        <v>41486</v>
+      </c>
+      <c r="B118" s="5">
+        <v>1689.42</v>
+      </c>
+      <c r="C118" s="5">
+        <v>1709.67</v>
+      </c>
+      <c r="D118" s="5">
+        <v>1627.47</v>
+      </c>
+      <c r="E118" s="5">
+        <v>1632.97</v>
+      </c>
+      <c r="F118" s="5">
+        <v>1632.97</v>
+      </c>
+      <c r="G118" s="6">
+        <v>64802810000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A119" s="4">
+        <v>41455</v>
+      </c>
+      <c r="B119" s="5">
+        <v>1609.78</v>
+      </c>
+      <c r="C119" s="5">
+        <v>1698.78</v>
+      </c>
+      <c r="D119" s="5">
+        <v>1604.57</v>
+      </c>
+      <c r="E119" s="5">
+        <v>1685.73</v>
+      </c>
+      <c r="F119" s="5">
+        <v>1685.73</v>
+      </c>
+      <c r="G119" s="6">
+        <v>68106820000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A120" s="4">
+        <v>41425</v>
+      </c>
+      <c r="B120" s="5">
+        <v>1631.71</v>
+      </c>
+      <c r="C120" s="5">
+        <v>1654.19</v>
+      </c>
+      <c r="D120" s="5">
+        <v>1560.33</v>
+      </c>
+      <c r="E120" s="5">
+        <v>1606.28</v>
+      </c>
+      <c r="F120" s="5">
+        <v>1606.28</v>
+      </c>
+      <c r="G120" s="6">
+        <v>74946790000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A121" s="4">
+        <v>41394</v>
+      </c>
+      <c r="B121" s="5">
+        <v>1597.55</v>
+      </c>
+      <c r="C121" s="5">
+        <v>1687.18</v>
+      </c>
+      <c r="D121" s="5">
+        <v>1581.28</v>
+      </c>
+      <c r="E121" s="5">
+        <v>1630.74</v>
+      </c>
+      <c r="F121" s="5">
+        <v>1630.74</v>
+      </c>
+      <c r="G121" s="6">
+        <v>76447250000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A122" s="4">
+        <v>41364</v>
+      </c>
+      <c r="B122" s="5">
+        <v>1569.18</v>
+      </c>
+      <c r="C122" s="5">
+        <v>1597.57</v>
+      </c>
+      <c r="D122" s="5">
+        <v>1536.03</v>
+      </c>
+      <c r="E122" s="5">
+        <v>1597.57</v>
+      </c>
+      <c r="F122" s="5">
+        <v>1597.57</v>
+      </c>
+      <c r="G122" s="6">
+        <v>77098000000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A123" s="4">
+        <v>41334</v>
+      </c>
+      <c r="B123" s="5">
+        <v>1514.68</v>
+      </c>
+      <c r="C123" s="5">
+        <v>1570.28</v>
+      </c>
+      <c r="D123" s="5">
+        <v>1501.48</v>
+      </c>
+      <c r="E123" s="5">
+        <v>1569.19</v>
+      </c>
+      <c r="F123" s="5">
+        <v>1569.19</v>
+      </c>
+      <c r="G123" s="6">
+        <v>68527110000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A124" s="4">
+        <v>41306</v>
+      </c>
+      <c r="B124" s="5">
+        <v>1498.11</v>
+      </c>
+      <c r="C124" s="5">
+        <v>1530.94</v>
+      </c>
+      <c r="D124" s="5">
+        <v>1485.01</v>
+      </c>
+      <c r="E124" s="5">
+        <v>1514.68</v>
+      </c>
+      <c r="F124" s="5">
+        <v>1514.68</v>
+      </c>
+      <c r="G124" s="6">
+        <v>69273480000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A125" s="4">
+        <v>41275</v>
+      </c>
+      <c r="B125" s="5">
+        <v>1426.19</v>
+      </c>
+      <c r="C125" s="5">
+        <v>1509.94</v>
+      </c>
+      <c r="D125" s="5">
+        <v>1426.19</v>
+      </c>
+      <c r="E125" s="5">
+        <v>1498.11</v>
+      </c>
+      <c r="F125" s="5">
+        <v>1498.11</v>
+      </c>
+      <c r="G125" s="6">
+        <v>75848510000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A126" s="4">
+        <v>41244</v>
+      </c>
+      <c r="B126" s="5">
+        <v>1416.34</v>
+      </c>
+      <c r="C126" s="5">
+        <v>1448</v>
+      </c>
+      <c r="D126" s="5">
+        <v>1398.11</v>
+      </c>
+      <c r="E126" s="5">
+        <v>1426.19</v>
+      </c>
+      <c r="F126" s="5">
+        <v>1426.19</v>
+      </c>
+      <c r="G126" s="6">
+        <v>66388180000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A127" s="4">
+        <v>41213</v>
+      </c>
+      <c r="B127" s="5">
+        <v>1412.2</v>
+      </c>
+      <c r="C127" s="5">
+        <v>1434.27</v>
+      </c>
+      <c r="D127" s="5">
+        <v>1343.35</v>
+      </c>
+      <c r="E127" s="5">
+        <v>1416.18</v>
+      </c>
+      <c r="F127" s="5">
+        <v>1416.18</v>
+      </c>
+      <c r="G127" s="6">
+        <v>71489310000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A128" s="4">
+        <v>41182</v>
+      </c>
+      <c r="B128" s="5">
+        <v>1440.9</v>
+      </c>
+      <c r="C128" s="5">
+        <v>1470.96</v>
+      </c>
+      <c r="D128" s="5">
+        <v>1403.28</v>
+      </c>
+      <c r="E128" s="5">
+        <v>1412.16</v>
+      </c>
+      <c r="F128" s="5">
+        <v>1412.16</v>
+      </c>
+      <c r="G128" s="6">
+        <v>71752320000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A129" s="4">
+        <v>41152</v>
+      </c>
+      <c r="B129" s="5">
+        <v>1406.54</v>
+      </c>
+      <c r="C129" s="5">
+        <v>1474.51</v>
+      </c>
+      <c r="D129" s="5">
+        <v>1396.56</v>
+      </c>
+      <c r="E129" s="5">
+        <v>1440.67</v>
+      </c>
+      <c r="F129" s="5">
+        <v>1440.67</v>
+      </c>
+      <c r="G129" s="6">
+        <v>69784280000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A130" s="4">
+        <v>41121</v>
+      </c>
+      <c r="B130" s="5">
+        <v>1379.32</v>
+      </c>
+      <c r="C130" s="5">
+        <v>1426.68</v>
+      </c>
+      <c r="D130" s="5">
+        <v>1354.65</v>
+      </c>
+      <c r="E130" s="5">
+        <v>1406.58</v>
+      </c>
+      <c r="F130" s="5">
+        <v>1406.58</v>
+      </c>
+      <c r="G130" s="6">
+        <v>70283810000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A131" s="4">
+        <v>41090</v>
+      </c>
+      <c r="B131" s="5">
+        <v>1362.33</v>
+      </c>
+      <c r="C131" s="5">
+        <v>1391.74</v>
+      </c>
+      <c r="D131" s="5">
+        <v>1325.41</v>
+      </c>
+      <c r="E131" s="5">
+        <v>1379.32</v>
+      </c>
+      <c r="F131" s="5">
+        <v>1379.32</v>
+      </c>
+      <c r="G131" s="6">
+        <v>73103810000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A132" s="4">
+        <v>41060</v>
+      </c>
+      <c r="B132" s="5">
+        <v>1309.8699999999999</v>
+      </c>
+      <c r="C132" s="5">
+        <v>1363.46</v>
+      </c>
+      <c r="D132" s="5">
+        <v>1266.74</v>
+      </c>
+      <c r="E132" s="5">
+        <v>1362.16</v>
+      </c>
+      <c r="F132" s="5">
+        <v>1362.16</v>
+      </c>
+      <c r="G132" s="6">
+        <v>81582440000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A133" s="4">
+        <v>41029</v>
+      </c>
+      <c r="B133" s="5">
+        <v>1397.86</v>
+      </c>
+      <c r="C133" s="5">
+        <v>1415.32</v>
+      </c>
+      <c r="D133" s="5">
+        <v>1291.98</v>
+      </c>
+      <c r="E133" s="5">
+        <v>1310.33</v>
+      </c>
+      <c r="F133" s="5">
+        <v>1310.33</v>
+      </c>
+      <c r="G133" s="6">
+        <v>86920490000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A134" s="4">
+        <v>40999</v>
+      </c>
+      <c r="B134" s="5">
+        <v>1408.47</v>
+      </c>
+      <c r="C134" s="5">
+        <v>1422.38</v>
+      </c>
+      <c r="D134" s="5">
+        <v>1357.38</v>
+      </c>
+      <c r="E134" s="5">
+        <v>1397.91</v>
+      </c>
+      <c r="F134" s="5">
+        <v>1397.91</v>
+      </c>
+      <c r="G134" s="6">
+        <v>74761710000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A135" s="4">
+        <v>40969</v>
+      </c>
+      <c r="B135" s="5">
+        <v>1365.9</v>
+      </c>
+      <c r="C135" s="5">
+        <v>1419.15</v>
+      </c>
+      <c r="D135" s="5">
+        <v>1340.03</v>
+      </c>
+      <c r="E135" s="5">
+        <v>1408.47</v>
+      </c>
+      <c r="F135" s="5">
+        <v>1408.47</v>
+      </c>
+      <c r="G135" s="6">
+        <v>83899660000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A136" s="4">
+        <v>40940</v>
+      </c>
+      <c r="B136" s="5">
+        <v>1312.45</v>
+      </c>
+      <c r="C136" s="5">
+        <v>1378.04</v>
+      </c>
+      <c r="D136" s="5">
+        <v>1312.45</v>
+      </c>
+      <c r="E136" s="5">
+        <v>1365.68</v>
+      </c>
+      <c r="F136" s="5">
+        <v>1365.68</v>
+      </c>
+      <c r="G136" s="6">
+        <v>78385710000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A137" s="4">
+        <v>40909</v>
+      </c>
+      <c r="B137" s="5">
+        <v>1258.8599999999999</v>
+      </c>
+      <c r="C137" s="5">
+        <v>1333.47</v>
+      </c>
+      <c r="D137" s="5">
+        <v>1258.8599999999999</v>
+      </c>
+      <c r="E137" s="5">
+        <v>1312.41</v>
+      </c>
+      <c r="F137" s="5">
+        <v>1312.41</v>
+      </c>
+      <c r="G137" s="6">
+        <v>79567560000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A138" s="4">
+        <v>40878</v>
+      </c>
+      <c r="B138" s="5">
+        <v>1246.9100000000001</v>
+      </c>
+      <c r="C138" s="5">
+        <v>1269.3699999999999</v>
+      </c>
+      <c r="D138" s="5">
+        <v>1202.3699999999999</v>
+      </c>
+      <c r="E138" s="5">
+        <v>1257.5999999999999</v>
+      </c>
+      <c r="F138" s="5">
+        <v>1257.5999999999999</v>
+      </c>
+      <c r="G138" s="6">
+        <v>74742430000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A139" s="4">
+        <v>40847</v>
+      </c>
+      <c r="B139" s="5">
+        <v>1251</v>
+      </c>
+      <c r="C139" s="5">
+        <v>1277.55</v>
+      </c>
+      <c r="D139" s="5">
+        <v>1158.6600000000001</v>
+      </c>
+      <c r="E139" s="5">
+        <v>1246.96</v>
+      </c>
+      <c r="F139" s="5">
+        <v>1246.96</v>
+      </c>
+      <c r="G139" s="6">
+        <v>84275050000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A140" s="4">
+        <v>40816</v>
+      </c>
+      <c r="B140" s="5">
+        <v>1131.21</v>
+      </c>
+      <c r="C140" s="5">
+        <v>1292.6600000000001</v>
+      </c>
+      <c r="D140" s="5">
+        <v>1074.77</v>
+      </c>
+      <c r="E140" s="5">
+        <v>1253.3</v>
+      </c>
+      <c r="F140" s="5">
+        <v>1253.3</v>
+      </c>
+      <c r="G140" s="6">
+        <v>98063670000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A141" s="4">
+        <v>40786</v>
+      </c>
+      <c r="B141" s="5">
+        <v>1219.1199999999999</v>
+      </c>
+      <c r="C141" s="5">
+        <v>1229.29</v>
+      </c>
+      <c r="D141" s="5">
+        <v>1114.22</v>
+      </c>
+      <c r="E141" s="5">
+        <v>1131.42</v>
+      </c>
+      <c r="F141" s="5">
+        <v>1131.42</v>
+      </c>
+      <c r="G141" s="6">
+        <v>102786820000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A142" s="4">
+        <v>40755</v>
+      </c>
+      <c r="B142" s="5">
+        <v>1292.5899999999999</v>
+      </c>
+      <c r="C142" s="5">
+        <v>1307.3800000000001</v>
+      </c>
+      <c r="D142" s="5">
+        <v>1101.54</v>
+      </c>
+      <c r="E142" s="5">
+        <v>1218.8900000000001</v>
+      </c>
+      <c r="F142" s="5">
+        <v>1218.8900000000001</v>
+      </c>
+      <c r="G142" s="6">
+        <v>108419170000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A143" s="4">
+        <v>40724</v>
+      </c>
+      <c r="B143" s="5">
+        <v>1320.64</v>
+      </c>
+      <c r="C143" s="5">
+        <v>1356.48</v>
+      </c>
+      <c r="D143" s="5">
+        <v>1282.8599999999999</v>
+      </c>
+      <c r="E143" s="5">
+        <v>1292.28</v>
+      </c>
+      <c r="F143" s="5">
+        <v>1292.28</v>
+      </c>
+      <c r="G143" s="6">
+        <v>81102170000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A144" s="4">
+        <v>40694</v>
+      </c>
+      <c r="B144" s="5">
+        <v>1345.2</v>
+      </c>
+      <c r="C144" s="5">
+        <v>1345.2</v>
+      </c>
+      <c r="D144" s="5">
+        <v>1258.07</v>
+      </c>
+      <c r="E144" s="5">
+        <v>1320.64</v>
+      </c>
+      <c r="F144" s="5">
+        <v>1320.64</v>
+      </c>
+      <c r="G144" s="6">
+        <v>86122730000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A145" s="4">
+        <v>40663</v>
+      </c>
+      <c r="B145" s="5">
+        <v>1365.21</v>
+      </c>
+      <c r="C145" s="5">
+        <v>1370.58</v>
+      </c>
+      <c r="D145" s="5">
+        <v>1311.8</v>
+      </c>
+      <c r="E145" s="5">
+        <v>1345.2</v>
+      </c>
+      <c r="F145" s="5">
+        <v>1345.2</v>
+      </c>
+      <c r="G145" s="6">
+        <v>81708980000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A146" s="4">
+        <v>40633</v>
+      </c>
+      <c r="B146" s="5">
+        <v>1329.48</v>
+      </c>
+      <c r="C146" s="5">
+        <v>1364.56</v>
+      </c>
+      <c r="D146" s="5">
+        <v>1294.7</v>
+      </c>
+      <c r="E146" s="5">
+        <v>1363.61</v>
+      </c>
+      <c r="F146" s="5">
+        <v>1363.61</v>
+      </c>
+      <c r="G146" s="6">
+        <v>77364810000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A147" s="4">
+        <v>40603</v>
+      </c>
+      <c r="B147" s="5">
+        <v>1328.64</v>
+      </c>
+      <c r="C147" s="5">
+        <v>1332.28</v>
+      </c>
+      <c r="D147" s="5">
+        <v>1249.05</v>
+      </c>
+      <c r="E147" s="5">
+        <v>1325.83</v>
+      </c>
+      <c r="F147" s="5">
+        <v>1325.83</v>
+      </c>
+      <c r="G147" s="6">
+        <v>89507640000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A148" s="4">
+        <v>40575</v>
+      </c>
+      <c r="B148" s="5">
+        <v>1289.1400000000001</v>
+      </c>
+      <c r="C148" s="5">
+        <v>1344.07</v>
+      </c>
+      <c r="D148" s="5">
+        <v>1289.1400000000001</v>
+      </c>
+      <c r="E148" s="5">
+        <v>1327.22</v>
+      </c>
+      <c r="F148" s="5">
+        <v>1327.22</v>
+      </c>
+      <c r="G148" s="6">
+        <v>59223660000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A149" s="4">
+        <v>40544</v>
+      </c>
+      <c r="B149" s="5">
+        <v>1257.6199999999999</v>
+      </c>
+      <c r="C149" s="5">
+        <v>1302.67</v>
+      </c>
+      <c r="D149" s="5">
+        <v>1257.6199999999999</v>
+      </c>
+      <c r="E149" s="5">
+        <v>1286.1199999999999</v>
+      </c>
+      <c r="F149" s="5">
+        <v>1286.1199999999999</v>
+      </c>
+      <c r="G149" s="6">
+        <v>92164940000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A150" s="4">
+        <v>40513</v>
+      </c>
+      <c r="B150" s="5">
+        <v>1186.5999999999999</v>
+      </c>
+      <c r="C150" s="5">
+        <v>1262.5999999999999</v>
+      </c>
+      <c r="D150" s="5">
+        <v>1186.5999999999999</v>
+      </c>
+      <c r="E150" s="5">
+        <v>1257.6400000000001</v>
+      </c>
+      <c r="F150" s="5">
+        <v>1257.6400000000001</v>
+      </c>
+      <c r="G150" s="6">
+        <v>80984530000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A151" s="4">
+        <v>40482</v>
+      </c>
+      <c r="B151" s="5">
+        <v>1185.71</v>
+      </c>
+      <c r="C151" s="5">
+        <v>1227.08</v>
+      </c>
+      <c r="D151" s="5">
+        <v>1173</v>
+      </c>
+      <c r="E151" s="5">
+        <v>1180.55</v>
+      </c>
+      <c r="F151" s="5">
+        <v>1180.55</v>
+      </c>
+      <c r="G151" s="6">
+        <v>87151070000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A152" s="4">
+        <v>40451</v>
+      </c>
+      <c r="B152" s="5">
+        <v>1143.49</v>
+      </c>
+      <c r="C152" s="5">
+        <v>1196.1400000000001</v>
+      </c>
+      <c r="D152" s="5">
+        <v>1131.8699999999999</v>
+      </c>
+      <c r="E152" s="5">
+        <v>1183.26</v>
+      </c>
+      <c r="F152" s="5">
+        <v>1183.26</v>
+      </c>
+      <c r="G152" s="6">
+        <v>89536270000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A153" s="4">
+        <v>40421</v>
+      </c>
+      <c r="B153" s="5">
+        <v>1049.72</v>
+      </c>
+      <c r="C153" s="5">
+        <v>1157.1600000000001</v>
+      </c>
+      <c r="D153" s="5">
+        <v>1049.72</v>
+      </c>
+      <c r="E153" s="5">
+        <v>1141.2</v>
+      </c>
+      <c r="F153" s="5">
+        <v>1141.2</v>
+      </c>
+      <c r="G153" s="6">
+        <v>79589450000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A154" s="4">
+        <v>40390</v>
+      </c>
+      <c r="B154" s="5">
+        <v>1107.53</v>
+      </c>
+      <c r="C154" s="5">
+        <v>1129.24</v>
+      </c>
+      <c r="D154" s="5">
+        <v>1039.7</v>
+      </c>
+      <c r="E154" s="5">
+        <v>1049.33</v>
+      </c>
+      <c r="F154" s="5">
+        <v>1049.33</v>
+      </c>
+      <c r="G154" s="6">
+        <v>85738250000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A155" s="4">
+        <v>40359</v>
+      </c>
+      <c r="B155" s="5">
+        <v>1031.0999999999999</v>
+      </c>
+      <c r="C155" s="5">
+        <v>1120.95</v>
+      </c>
+      <c r="D155" s="5">
+        <v>1010.91</v>
+      </c>
+      <c r="E155" s="5">
+        <v>1101.5999999999999</v>
+      </c>
+      <c r="F155" s="5">
+        <v>1101.5999999999999</v>
+      </c>
+      <c r="G155" s="6">
+        <v>94778110000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A156" s="4">
+        <v>40329</v>
+      </c>
+      <c r="B156" s="5">
+        <v>1087.3</v>
+      </c>
+      <c r="C156" s="5">
+        <v>1131.23</v>
+      </c>
+      <c r="D156" s="5">
+        <v>1028.33</v>
+      </c>
+      <c r="E156" s="5">
+        <v>1030.71</v>
+      </c>
+      <c r="F156" s="5">
+        <v>1030.71</v>
+      </c>
+      <c r="G156" s="6">
+        <v>110106750000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A157" s="4">
+        <v>40298</v>
+      </c>
+      <c r="B157" s="5">
+        <v>1188.58</v>
+      </c>
+      <c r="C157" s="5">
+        <v>1205.1300000000001</v>
+      </c>
+      <c r="D157" s="5">
+        <v>1040.78</v>
+      </c>
+      <c r="E157" s="5">
+        <v>1089.4100000000001</v>
+      </c>
+      <c r="F157" s="5">
+        <v>1089.4100000000001</v>
+      </c>
+      <c r="G157" s="6">
+        <v>127662780000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A158" s="4">
+        <v>40268</v>
+      </c>
+      <c r="B158" s="5">
+        <v>1171.23</v>
+      </c>
+      <c r="C158" s="5">
+        <v>1219.8</v>
+      </c>
+      <c r="D158" s="5">
+        <v>1170.69</v>
+      </c>
+      <c r="E158" s="5">
+        <v>1186.69</v>
+      </c>
+      <c r="F158" s="5">
+        <v>1186.69</v>
+      </c>
+      <c r="G158" s="6">
+        <v>116741910000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A159" s="4">
+        <v>40238</v>
+      </c>
+      <c r="B159" s="5">
+        <v>1105.3599999999999</v>
+      </c>
+      <c r="C159" s="5">
+        <v>1180.69</v>
+      </c>
+      <c r="D159" s="5">
+        <v>1105.3599999999999</v>
+      </c>
+      <c r="E159" s="5">
+        <v>1169.43</v>
+      </c>
+      <c r="F159" s="5">
+        <v>1169.43</v>
+      </c>
+      <c r="G159" s="6">
+        <v>103683550000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A160" s="4">
+        <v>40210</v>
+      </c>
+      <c r="B160" s="5">
+        <v>1073.8900000000001</v>
+      </c>
+      <c r="C160" s="5">
+        <v>1112.42</v>
+      </c>
+      <c r="D160" s="5">
+        <v>1044.5</v>
+      </c>
+      <c r="E160" s="5">
+        <v>1104.49</v>
+      </c>
+      <c r="F160" s="5">
+        <v>1104.49</v>
+      </c>
+      <c r="G160" s="6">
+        <v>84561340000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A161" s="4">
+        <v>40179</v>
+      </c>
+      <c r="B161" s="5">
+        <v>1116.56</v>
+      </c>
+      <c r="C161" s="5">
+        <v>1150.45</v>
+      </c>
+      <c r="D161" s="5">
+        <v>1071.5899999999999</v>
+      </c>
+      <c r="E161" s="5">
+        <v>1073.8699999999999</v>
+      </c>
+      <c r="F161" s="5">
+        <v>1073.8699999999999</v>
+      </c>
+      <c r="G161" s="6">
+        <v>90947580000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A162" s="4">
+        <v>40148</v>
+      </c>
+      <c r="B162" s="5">
+        <v>1098.8900000000001</v>
+      </c>
+      <c r="C162" s="5">
+        <v>1130.3800000000001</v>
+      </c>
+      <c r="D162" s="5">
+        <v>1085.8900000000001</v>
+      </c>
+      <c r="E162" s="5">
+        <v>1115.0999999999999</v>
+      </c>
+      <c r="F162" s="5">
+        <v>1115.0999999999999</v>
+      </c>
+      <c r="G162" s="6">
+        <v>89515330000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A163" s="4">
+        <v>40117</v>
+      </c>
+      <c r="B163" s="5">
+        <v>1036.18</v>
+      </c>
+      <c r="C163" s="5">
+        <v>1113.69</v>
+      </c>
+      <c r="D163" s="5">
+        <v>1029.3800000000001</v>
+      </c>
+      <c r="E163" s="5">
+        <v>1095.6300000000001</v>
+      </c>
+      <c r="F163" s="5">
+        <v>1095.6300000000001</v>
+      </c>
+      <c r="G163" s="6">
+        <v>84981530000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A164" s="4">
+        <v>40086</v>
+      </c>
+      <c r="B164" s="5">
+        <v>1054.9100000000001</v>
+      </c>
+      <c r="C164" s="5">
+        <v>1101.3599999999999</v>
+      </c>
+      <c r="D164" s="5">
+        <v>1019.95</v>
+      </c>
+      <c r="E164" s="5">
+        <v>1036.19</v>
+      </c>
+      <c r="F164" s="5">
+        <v>1036.19</v>
+      </c>
+      <c r="G164" s="6">
+        <v>113410990000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A165" s="4">
+        <v>40056</v>
+      </c>
+      <c r="B165" s="5">
+        <v>1019.52</v>
+      </c>
+      <c r="C165" s="5">
+        <v>1080.1500000000001</v>
+      </c>
+      <c r="D165" s="7">
+        <v>991.97</v>
+      </c>
+      <c r="E165" s="5">
+        <v>1057.08</v>
+      </c>
+      <c r="F165" s="5">
+        <v>1057.08</v>
+      </c>
+      <c r="G165" s="6">
+        <v>112295490000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A166" s="4">
+        <v>40025</v>
+      </c>
+      <c r="B166" s="7">
+        <v>990.22</v>
+      </c>
+      <c r="C166" s="5">
+        <v>1039.47</v>
+      </c>
+      <c r="D166" s="7">
+        <v>978.51</v>
+      </c>
+      <c r="E166" s="5">
+        <v>1020.62</v>
+      </c>
+      <c r="F166" s="5">
+        <v>1020.62</v>
+      </c>
+      <c r="G166" s="6">
+        <v>116059270000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A167" s="4">
+        <v>39994</v>
+      </c>
+      <c r="B167" s="7">
+        <v>920.82</v>
+      </c>
+      <c r="C167" s="7">
+        <v>996.68</v>
+      </c>
+      <c r="D167" s="7">
+        <v>869.32</v>
+      </c>
+      <c r="E167" s="7">
+        <v>987.48</v>
+      </c>
+      <c r="F167" s="7">
+        <v>987.48</v>
+      </c>
+      <c r="G167" s="6">
+        <v>106635790000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A168" s="4">
+        <v>39964</v>
+      </c>
+      <c r="B168" s="7">
+        <v>923.26</v>
+      </c>
+      <c r="C168" s="7">
+        <v>956.23</v>
+      </c>
+      <c r="D168" s="7">
+        <v>888.86</v>
+      </c>
+      <c r="E168" s="7">
+        <v>919.32</v>
+      </c>
+      <c r="F168" s="7">
+        <v>919.32</v>
+      </c>
+      <c r="G168" s="6">
+        <v>112653150000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A169" s="4">
+        <v>39933</v>
+      </c>
+      <c r="B169" s="7">
+        <v>872.74</v>
+      </c>
+      <c r="C169" s="7">
+        <v>930.17</v>
+      </c>
+      <c r="D169" s="7">
+        <v>866.1</v>
+      </c>
+      <c r="E169" s="7">
+        <v>919.14</v>
+      </c>
+      <c r="F169" s="7">
+        <v>919.14</v>
+      </c>
+      <c r="G169" s="6">
+        <v>131614940000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A170" s="4">
+        <v>39903</v>
+      </c>
+      <c r="B170" s="7">
+        <v>793.59</v>
+      </c>
+      <c r="C170" s="7">
+        <v>888.7</v>
+      </c>
+      <c r="D170" s="7">
+        <v>783.32</v>
+      </c>
+      <c r="E170" s="7">
+        <v>872.81</v>
+      </c>
+      <c r="F170" s="7">
+        <v>872.81</v>
+      </c>
+      <c r="G170" s="6">
+        <v>138855320000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A171" s="4">
+        <v>39873</v>
+      </c>
+      <c r="B171" s="7">
+        <v>729.57</v>
+      </c>
+      <c r="C171" s="7">
+        <v>832.98</v>
+      </c>
+      <c r="D171" s="7">
+        <v>666.79</v>
+      </c>
+      <c r="E171" s="7">
+        <v>797.87</v>
+      </c>
+      <c r="F171" s="7">
+        <v>797.87</v>
+      </c>
+      <c r="G171" s="6">
+        <v>161843640000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A172" s="4">
+        <v>39845</v>
+      </c>
+      <c r="B172" s="7">
+        <v>823.09</v>
+      </c>
+      <c r="C172" s="7">
+        <v>875.01</v>
+      </c>
+      <c r="D172" s="7">
+        <v>734.52</v>
+      </c>
+      <c r="E172" s="7">
+        <v>735.09</v>
+      </c>
+      <c r="F172" s="7">
+        <v>735.09</v>
+      </c>
+      <c r="G172" s="6">
+        <v>124492210000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A173" s="4">
+        <v>39814</v>
+      </c>
+      <c r="B173" s="7">
+        <v>902.99</v>
+      </c>
+      <c r="C173" s="7">
+        <v>943.85</v>
+      </c>
+      <c r="D173" s="7">
+        <v>804.3</v>
+      </c>
+      <c r="E173" s="7">
+        <v>825.88</v>
+      </c>
+      <c r="F173" s="7">
+        <v>825.88</v>
+      </c>
+      <c r="G173" s="6">
+        <v>112090640000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A174" s="4">
+        <v>39783</v>
+      </c>
+      <c r="B174" s="7">
+        <v>888.61</v>
+      </c>
+      <c r="C174" s="7">
+        <v>918.85</v>
+      </c>
+      <c r="D174" s="7">
+        <v>815.69</v>
+      </c>
+      <c r="E174" s="7">
+        <v>903.25</v>
+      </c>
+      <c r="F174" s="7">
+        <v>903.25</v>
+      </c>
+      <c r="G174" s="6">
+        <v>112884470000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A175" s="4">
+        <v>39752</v>
+      </c>
+      <c r="B175" s="7">
+        <v>968.67</v>
+      </c>
+      <c r="C175" s="5">
+        <v>1007.51</v>
+      </c>
+      <c r="D175" s="7">
+        <v>741.02</v>
+      </c>
+      <c r="E175" s="7">
+        <v>896.24</v>
+      </c>
+      <c r="F175" s="7">
+        <v>896.24</v>
+      </c>
+      <c r="G175" s="6">
+        <v>115660210000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A176" s="4">
+        <v>39721</v>
+      </c>
+      <c r="B176" s="5">
+        <v>1164.17</v>
+      </c>
+      <c r="C176" s="5">
+        <v>1167.03</v>
+      </c>
+      <c r="D176" s="7">
+        <v>839.8</v>
+      </c>
+      <c r="E176" s="7">
+        <v>968.75</v>
+      </c>
+      <c r="F176" s="7">
+        <v>968.75</v>
+      </c>
+      <c r="G176" s="6">
+        <v>159823030000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A177" s="4">
+        <v>39691</v>
+      </c>
+      <c r="B177" s="5">
+        <v>1287.83</v>
+      </c>
+      <c r="C177" s="5">
+        <v>1303.04</v>
+      </c>
+      <c r="D177" s="5">
+        <v>1106.42</v>
+      </c>
+      <c r="E177" s="5">
+        <v>1166.3599999999999</v>
+      </c>
+      <c r="F177" s="5">
+        <v>1166.3599999999999</v>
+      </c>
+      <c r="G177" s="6">
+        <v>140007320000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A178" s="4">
+        <v>39660</v>
+      </c>
+      <c r="B178" s="5">
+        <v>1269.42</v>
+      </c>
+      <c r="C178" s="5">
+        <v>1313.15</v>
+      </c>
+      <c r="D178" s="5">
+        <v>1247.45</v>
+      </c>
+      <c r="E178" s="5">
+        <v>1282.83</v>
+      </c>
+      <c r="F178" s="5">
+        <v>1282.83</v>
+      </c>
+      <c r="G178" s="6">
+        <v>86266010000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A179" s="4">
+        <v>39629</v>
+      </c>
+      <c r="B179" s="5">
+        <v>1276.69</v>
+      </c>
+      <c r="C179" s="5">
+        <v>1292.17</v>
+      </c>
+      <c r="D179" s="5">
+        <v>1200.44</v>
+      </c>
+      <c r="E179" s="5">
+        <v>1267.3800000000001</v>
+      </c>
+      <c r="F179" s="5">
+        <v>1267.3800000000001</v>
+      </c>
+      <c r="G179" s="6">
+        <v>124980570000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A180" s="4">
+        <v>39599</v>
+      </c>
+      <c r="B180" s="5">
+        <v>1399.62</v>
+      </c>
+      <c r="C180" s="5">
+        <v>1404.05</v>
+      </c>
+      <c r="D180" s="5">
+        <v>1272</v>
+      </c>
+      <c r="E180" s="5">
+        <v>1280</v>
+      </c>
+      <c r="F180" s="5">
+        <v>1280</v>
+      </c>
+      <c r="G180" s="6">
+        <v>96614040000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A181" s="4">
+        <v>39568</v>
+      </c>
+      <c r="B181" s="5">
+        <v>1385.97</v>
+      </c>
+      <c r="C181" s="5">
+        <v>1440.24</v>
+      </c>
+      <c r="D181" s="5">
+        <v>1373.07</v>
+      </c>
+      <c r="E181" s="5">
+        <v>1400.38</v>
+      </c>
+      <c r="F181" s="5">
+        <v>1400.38</v>
+      </c>
+      <c r="G181" s="6">
+        <v>80990480000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A182" s="4">
+        <v>39538</v>
+      </c>
+      <c r="B182" s="5">
+        <v>1326.41</v>
+      </c>
+      <c r="C182" s="5">
+        <v>1404.57</v>
+      </c>
+      <c r="D182" s="5">
+        <v>1324.35</v>
+      </c>
+      <c r="E182" s="5">
+        <v>1385.59</v>
+      </c>
+      <c r="F182" s="5">
+        <v>1385.59</v>
+      </c>
+      <c r="G182" s="6">
+        <v>85978630000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A183" s="4">
+        <v>39508</v>
+      </c>
+      <c r="B183" s="5">
+        <v>1330.45</v>
+      </c>
+      <c r="C183" s="5">
+        <v>1359.68</v>
+      </c>
+      <c r="D183" s="5">
+        <v>1256.98</v>
+      </c>
+      <c r="E183" s="5">
+        <v>1322.7</v>
+      </c>
+      <c r="F183" s="5">
+        <v>1322.7</v>
+      </c>
+      <c r="G183" s="6">
+        <v>93189170000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A184" s="4">
+        <v>39479</v>
+      </c>
+      <c r="B184" s="5">
+        <v>1378.6</v>
+      </c>
+      <c r="C184" s="5">
+        <v>1396.02</v>
+      </c>
+      <c r="D184" s="5">
+        <v>1316.75</v>
+      </c>
+      <c r="E184" s="5">
+        <v>1330.63</v>
+      </c>
+      <c r="F184" s="5">
+        <v>1330.63</v>
+      </c>
+      <c r="G184" s="6">
+        <v>78536130000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A185" s="4">
+        <v>39448</v>
+      </c>
+      <c r="B185" s="5">
+        <v>1467.97</v>
+      </c>
+      <c r="C185" s="5">
+        <v>1471.77</v>
+      </c>
+      <c r="D185" s="5">
+        <v>1270.05</v>
+      </c>
+      <c r="E185" s="5">
+        <v>1378.55</v>
+      </c>
+      <c r="F185" s="5">
+        <v>1378.55</v>
+      </c>
+      <c r="G185" s="6">
+        <v>98475340000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A186" s="4">
+        <v>39417</v>
+      </c>
+      <c r="B186" s="5">
+        <v>1479.63</v>
+      </c>
+      <c r="C186" s="5">
+        <v>1523.57</v>
+      </c>
+      <c r="D186" s="5">
+        <v>1435.65</v>
+      </c>
+      <c r="E186" s="5">
+        <v>1468.36</v>
+      </c>
+      <c r="F186" s="5">
+        <v>1468.36</v>
+      </c>
+      <c r="G186" s="6">
+        <v>64821670000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A187" s="4">
+        <v>39386</v>
+      </c>
+      <c r="B187" s="5">
+        <v>1545.79</v>
+      </c>
+      <c r="C187" s="5">
+        <v>1545.79</v>
+      </c>
+      <c r="D187" s="5">
+        <v>1406.1</v>
+      </c>
+      <c r="E187" s="5">
+        <v>1481.14</v>
+      </c>
+      <c r="F187" s="5">
+        <v>1481.14</v>
+      </c>
+      <c r="G187" s="6">
+        <v>86246950000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A188" s="4">
+        <v>39355</v>
+      </c>
+      <c r="B188" s="5">
+        <v>1527.29</v>
+      </c>
+      <c r="C188" s="5">
+        <v>1576.09</v>
+      </c>
+      <c r="D188" s="5">
+        <v>1489.56</v>
+      </c>
+      <c r="E188" s="5">
+        <v>1549.38</v>
+      </c>
+      <c r="F188" s="5">
+        <v>1549.38</v>
+      </c>
+      <c r="G188" s="6">
+        <v>76022580000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A189" s="4">
+        <v>39325</v>
+      </c>
+      <c r="B189" s="5">
+        <v>1473.96</v>
+      </c>
+      <c r="C189" s="5">
+        <v>1538.74</v>
+      </c>
+      <c r="D189" s="5">
+        <v>1439.29</v>
+      </c>
+      <c r="E189" s="5">
+        <v>1526.75</v>
+      </c>
+      <c r="F189" s="5">
+        <v>1526.75</v>
+      </c>
+      <c r="G189" s="6">
+        <v>57809700000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A190" s="4">
+        <v>39294</v>
+      </c>
+      <c r="B190" s="5">
+        <v>1455.18</v>
+      </c>
+      <c r="C190" s="5">
+        <v>1503.89</v>
+      </c>
+      <c r="D190" s="5">
+        <v>1370.6</v>
+      </c>
+      <c r="E190" s="5">
+        <v>1473.99</v>
+      </c>
+      <c r="F190" s="5">
+        <v>1473.99</v>
+      </c>
+      <c r="G190" s="6">
+        <v>91381760000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A191" s="4">
+        <v>39263</v>
+      </c>
+      <c r="B191" s="5">
+        <v>1504.66</v>
+      </c>
+      <c r="C191" s="5">
+        <v>1555.9</v>
+      </c>
+      <c r="D191" s="5">
+        <v>1454.25</v>
+      </c>
+      <c r="E191" s="5">
+        <v>1455.27</v>
+      </c>
+      <c r="F191" s="5">
+        <v>1455.27</v>
+      </c>
+      <c r="G191" s="6">
+        <v>70337430000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A192" s="4">
+        <v>39233</v>
+      </c>
+      <c r="B192" s="5">
+        <v>1530.62</v>
+      </c>
+      <c r="C192" s="5">
+        <v>1540.56</v>
+      </c>
+      <c r="D192" s="5">
+        <v>1484.18</v>
+      </c>
+      <c r="E192" s="5">
+        <v>1503.35</v>
+      </c>
+      <c r="F192" s="5">
+        <v>1503.35</v>
+      </c>
+      <c r="G192" s="6">
+        <v>65322800000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A193" s="4">
+        <v>39202</v>
+      </c>
+      <c r="B193" s="5">
+        <v>1482.37</v>
+      </c>
+      <c r="C193" s="5">
+        <v>1535.56</v>
+      </c>
+      <c r="D193" s="5">
+        <v>1476.7</v>
+      </c>
+      <c r="E193" s="5">
+        <v>1530.62</v>
+      </c>
+      <c r="F193" s="5">
+        <v>1530.62</v>
+      </c>
+      <c r="G193" s="6">
+        <v>64958050000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A194" s="4">
+        <v>39172</v>
+      </c>
+      <c r="B194" s="5">
+        <v>1420.83</v>
+      </c>
+      <c r="C194" s="5">
+        <v>1498.02</v>
+      </c>
+      <c r="D194" s="5">
+        <v>1416.37</v>
+      </c>
+      <c r="E194" s="5">
+        <v>1482.37</v>
+      </c>
+      <c r="F194" s="5">
+        <v>1482.37</v>
+      </c>
+      <c r="G194" s="6">
+        <v>57032470000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A195" s="4">
+        <v>39142</v>
+      </c>
+      <c r="B195" s="5">
+        <v>1406.8</v>
+      </c>
+      <c r="C195" s="5">
+        <v>1438.89</v>
+      </c>
+      <c r="D195" s="5">
+        <v>1363.98</v>
+      </c>
+      <c r="E195" s="5">
+        <v>1420.86</v>
+      </c>
+      <c r="F195" s="5">
+        <v>1420.86</v>
+      </c>
+      <c r="G195" s="6">
+        <v>67622250000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A196" s="4">
+        <v>39114</v>
+      </c>
+      <c r="B196" s="5">
+        <v>1437.9</v>
+      </c>
+      <c r="C196" s="5">
+        <v>1461.57</v>
+      </c>
+      <c r="D196" s="5">
+        <v>1389.42</v>
+      </c>
+      <c r="E196" s="5">
+        <v>1406.82</v>
+      </c>
+      <c r="F196" s="5">
+        <v>1406.82</v>
+      </c>
+      <c r="G196" s="6">
+        <v>51844990000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A197" s="4">
+        <v>39083</v>
+      </c>
+      <c r="B197" s="5">
+        <v>1418.03</v>
+      </c>
+      <c r="C197" s="5">
+        <v>1441.61</v>
+      </c>
+      <c r="D197" s="5">
+        <v>1403.97</v>
+      </c>
+      <c r="E197" s="5">
+        <v>1438.24</v>
+      </c>
+      <c r="F197" s="5">
+        <v>1438.24</v>
+      </c>
+      <c r="G197" s="6">
+        <v>56686200000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A198" s="4">
+        <v>39052</v>
+      </c>
+      <c r="B198" s="5">
+        <v>1400.63</v>
+      </c>
+      <c r="C198" s="5">
+        <v>1431.81</v>
+      </c>
+      <c r="D198" s="5">
+        <v>1385.93</v>
+      </c>
+      <c r="E198" s="5">
+        <v>1418.3</v>
+      </c>
+      <c r="F198" s="5">
+        <v>1418.3</v>
+      </c>
+      <c r="G198" s="6">
+        <v>47578780000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A199" s="4">
+        <v>39022</v>
+      </c>
+      <c r="B199" s="5">
+        <v>1377.76</v>
+      </c>
+      <c r="C199" s="5">
+        <v>1407.89</v>
+      </c>
+      <c r="D199" s="5">
+        <v>1360.98</v>
+      </c>
+      <c r="E199" s="5">
+        <v>1400.63</v>
+      </c>
+      <c r="F199" s="5">
+        <v>1400.63</v>
+      </c>
+      <c r="G199" s="6">
+        <v>55343930000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A200" s="4">
+        <v>38990</v>
+      </c>
+      <c r="B200" s="5">
+        <v>1335.82</v>
+      </c>
+      <c r="C200" s="5">
+        <v>1389.45</v>
+      </c>
+      <c r="D200" s="5">
+        <v>1327.1</v>
+      </c>
+      <c r="E200" s="5">
+        <v>1377.94</v>
+      </c>
+      <c r="F200" s="5">
+        <v>1377.94</v>
+      </c>
+      <c r="G200" s="6">
+        <v>56793620000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A201" s="4">
+        <v>38960</v>
+      </c>
+      <c r="B201" s="5">
+        <v>1303.8</v>
+      </c>
+      <c r="C201" s="5">
+        <v>1340.28</v>
+      </c>
+      <c r="D201" s="5">
+        <v>1290.93</v>
+      </c>
+      <c r="E201" s="5">
+        <v>1335.85</v>
+      </c>
+      <c r="F201" s="5">
+        <v>1335.85</v>
+      </c>
+      <c r="G201" s="6">
+        <v>49001440000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A202" s="4">
+        <v>38929</v>
+      </c>
+      <c r="B202" s="5">
+        <v>1278.53</v>
+      </c>
+      <c r="C202" s="5">
+        <v>1306.74</v>
+      </c>
+      <c r="D202" s="5">
+        <v>1261.3</v>
+      </c>
+      <c r="E202" s="5">
+        <v>1303.82</v>
+      </c>
+      <c r="F202" s="5">
+        <v>1303.82</v>
+      </c>
+      <c r="G202" s="6">
+        <v>50485620000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A203" s="4">
+        <v>38898</v>
+      </c>
+      <c r="B203" s="5">
+        <v>1270.06</v>
+      </c>
+      <c r="C203" s="5">
+        <v>1280.42</v>
+      </c>
+      <c r="D203" s="5">
+        <v>1224.54</v>
+      </c>
+      <c r="E203" s="5">
+        <v>1276.6600000000001</v>
+      </c>
+      <c r="F203" s="5">
+        <v>1276.6600000000001</v>
+      </c>
+      <c r="G203" s="6">
+        <v>46348220000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A204" s="4">
+        <v>38868</v>
+      </c>
+      <c r="B204" s="5">
+        <v>1270.05</v>
+      </c>
+      <c r="C204" s="5">
+        <v>1290.68</v>
+      </c>
+      <c r="D204" s="5">
+        <v>1219.29</v>
+      </c>
+      <c r="E204" s="5">
+        <v>1270.2</v>
+      </c>
+      <c r="F204" s="5">
+        <v>1270.2</v>
+      </c>
+      <c r="G204" s="6">
+        <v>54873260000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A205" s="4">
+        <v>38837</v>
+      </c>
+      <c r="B205" s="5">
+        <v>1310.6099999999999</v>
+      </c>
+      <c r="C205" s="5">
+        <v>1326.7</v>
+      </c>
+      <c r="D205" s="5">
+        <v>1245.3399999999999</v>
+      </c>
+      <c r="E205" s="5">
+        <v>1270.0899999999999</v>
+      </c>
+      <c r="F205" s="5">
+        <v>1270.0899999999999</v>
+      </c>
+      <c r="G205" s="6">
+        <v>54312830000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A206" s="4">
+        <v>38808</v>
+      </c>
+      <c r="B206" s="5">
+        <v>1302.8800000000001</v>
+      </c>
+      <c r="C206" s="5">
+        <v>1318.16</v>
+      </c>
+      <c r="D206" s="5">
+        <v>1280.74</v>
+      </c>
+      <c r="E206" s="5">
+        <v>1310.6099999999999</v>
+      </c>
+      <c r="F206" s="5">
+        <v>1310.6099999999999</v>
+      </c>
+      <c r="G206" s="6">
+        <v>43308430000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A207" s="4">
+        <v>38777</v>
+      </c>
+      <c r="B207" s="5">
+        <v>1280.6600000000001</v>
+      </c>
+      <c r="C207" s="5">
+        <v>1310.88</v>
+      </c>
+      <c r="D207" s="5">
+        <v>1268.42</v>
+      </c>
+      <c r="E207" s="5">
+        <v>1294.8699999999999</v>
+      </c>
+      <c r="F207" s="5">
+        <v>1294.8699999999999</v>
+      </c>
+      <c r="G207" s="6">
+        <v>50905040000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A208" s="4">
+        <v>38749</v>
+      </c>
+      <c r="B208" s="5">
+        <v>1280.08</v>
+      </c>
+      <c r="C208" s="5">
+        <v>1297.57</v>
+      </c>
+      <c r="D208" s="5">
+        <v>1253.6099999999999</v>
+      </c>
+      <c r="E208" s="5">
+        <v>1280.6600000000001</v>
+      </c>
+      <c r="F208" s="5">
+        <v>1280.6600000000001</v>
+      </c>
+      <c r="G208" s="6">
+        <v>42859940000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A209" s="4">
+        <v>38718</v>
+      </c>
+      <c r="B209" s="5">
+        <v>1248.29</v>
+      </c>
+      <c r="C209" s="5">
+        <v>1294.9000000000001</v>
+      </c>
+      <c r="D209" s="5">
+        <v>1245.74</v>
+      </c>
+      <c r="E209" s="5">
+        <v>1280.08</v>
+      </c>
+      <c r="F209" s="5">
+        <v>1280.08</v>
+      </c>
+      <c r="G209" s="6">
+        <v>49211650000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A210" s="4">
+        <v>38687</v>
+      </c>
+      <c r="B210" s="5">
+        <v>1249.48</v>
+      </c>
+      <c r="C210" s="5">
+        <v>1275.8</v>
+      </c>
+      <c r="D210" s="5">
+        <v>1246.5899999999999</v>
+      </c>
+      <c r="E210" s="5">
+        <v>1248.29</v>
+      </c>
+      <c r="F210" s="5">
+        <v>1248.29</v>
+      </c>
+      <c r="G210" s="6">
+        <v>41756130000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A211" s="4">
+        <v>38657</v>
+      </c>
+      <c r="B211" s="5">
+        <v>1207.01</v>
+      </c>
+      <c r="C211" s="5">
+        <v>1270.6400000000001</v>
+      </c>
+      <c r="D211" s="5">
+        <v>1201.07</v>
+      </c>
+      <c r="E211" s="5">
+        <v>1249.48</v>
+      </c>
+      <c r="F211" s="5">
+        <v>1249.48</v>
+      </c>
+      <c r="G211" s="6">
+        <v>45102870000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A212" s="4">
+        <v>38625</v>
+      </c>
+      <c r="B212" s="5">
+        <v>1228.81</v>
+      </c>
+      <c r="C212" s="5">
+        <v>1233.3399999999999</v>
+      </c>
+      <c r="D212" s="5">
+        <v>1168.2</v>
+      </c>
+      <c r="E212" s="5">
+        <v>1207.01</v>
+      </c>
+      <c r="F212" s="5">
+        <v>1207.01</v>
+      </c>
+      <c r="G212" s="6">
+        <v>49793790000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A213" s="4">
+        <v>38595</v>
+      </c>
+      <c r="B213" s="5">
+        <v>1220.33</v>
+      </c>
+      <c r="C213" s="5">
+        <v>1243.1300000000001</v>
+      </c>
+      <c r="D213" s="5">
+        <v>1205.3499999999999</v>
+      </c>
+      <c r="E213" s="5">
+        <v>1228.81</v>
+      </c>
+      <c r="F213" s="5">
+        <v>1228.81</v>
+      </c>
+      <c r="G213" s="6">
+        <v>44777510000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A214" s="4">
+        <v>38564</v>
+      </c>
+      <c r="B214" s="5">
+        <v>1234.18</v>
+      </c>
+      <c r="C214" s="5">
+        <v>1245.8599999999999</v>
+      </c>
+      <c r="D214" s="5">
+        <v>1201.07</v>
+      </c>
+      <c r="E214" s="5">
+        <v>1220.33</v>
+      </c>
+      <c r="F214" s="5">
+        <v>1220.33</v>
+      </c>
+      <c r="G214" s="6">
+        <v>42030090000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A215" s="4">
+        <v>38533</v>
+      </c>
+      <c r="B215" s="5">
+        <v>1191.33</v>
+      </c>
+      <c r="C215" s="5">
+        <v>1245.1500000000001</v>
+      </c>
+      <c r="D215" s="5">
+        <v>1183.55</v>
+      </c>
+      <c r="E215" s="5">
+        <v>1234.18</v>
+      </c>
+      <c r="F215" s="5">
+        <v>1234.18</v>
+      </c>
+      <c r="G215" s="6">
+        <v>37464670000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A216" s="4">
+        <v>38503</v>
+      </c>
+      <c r="B216" s="5">
+        <v>1191.5</v>
+      </c>
+      <c r="C216" s="5">
+        <v>1219.5899999999999</v>
+      </c>
+      <c r="D216" s="5">
+        <v>1188.3</v>
+      </c>
+      <c r="E216" s="5">
+        <v>1191.33</v>
+      </c>
+      <c r="F216" s="5">
+        <v>1191.33</v>
+      </c>
+      <c r="G216" s="6">
+        <v>40334040000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A217" s="4">
+        <v>38472</v>
+      </c>
+      <c r="B217" s="5">
+        <v>1156.8499999999999</v>
+      </c>
+      <c r="C217" s="5">
+        <v>1199.56</v>
+      </c>
+      <c r="D217" s="5">
+        <v>1146.18</v>
+      </c>
+      <c r="E217" s="5">
+        <v>1191.5</v>
+      </c>
+      <c r="F217" s="5">
+        <v>1191.5</v>
+      </c>
+      <c r="G217" s="6">
+        <v>39321990000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A218" s="4">
+        <v>38443</v>
+      </c>
+      <c r="B218" s="5">
+        <v>1180.5899999999999</v>
+      </c>
+      <c r="C218" s="5">
+        <v>1191.8800000000001</v>
+      </c>
+      <c r="D218" s="5">
+        <v>1136.1500000000001</v>
+      </c>
+      <c r="E218" s="5">
+        <v>1156.8499999999999</v>
+      </c>
+      <c r="F218" s="5">
+        <v>1156.8499999999999</v>
+      </c>
+      <c r="G218" s="6">
+        <v>43424270000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A219" s="4">
+        <v>38412</v>
+      </c>
+      <c r="B219" s="5">
+        <v>1203.5999999999999</v>
+      </c>
+      <c r="C219" s="5">
+        <v>1229.1099999999999</v>
+      </c>
+      <c r="D219" s="5">
+        <v>1163.69</v>
+      </c>
+      <c r="E219" s="5">
+        <v>1180.5899999999999</v>
+      </c>
+      <c r="F219" s="5">
+        <v>1180.5899999999999</v>
+      </c>
+      <c r="G219" s="6">
+        <v>39014150000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A220" s="4">
+        <v>38384</v>
+      </c>
+      <c r="B220" s="5">
+        <v>1181.27</v>
+      </c>
+      <c r="C220" s="5">
+        <v>1212.44</v>
+      </c>
+      <c r="D220" s="5">
+        <v>1180.95</v>
+      </c>
+      <c r="E220" s="5">
+        <v>1203.5999999999999</v>
+      </c>
+      <c r="F220" s="5">
+        <v>1203.5999999999999</v>
+      </c>
+      <c r="G220" s="6">
+        <v>29297410000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A221" s="4">
+        <v>38353</v>
+      </c>
+      <c r="B221" s="5">
+        <v>1211.92</v>
+      </c>
+      <c r="C221" s="5">
+        <v>1217.8</v>
+      </c>
+      <c r="D221" s="5">
+        <v>1163.75</v>
+      </c>
+      <c r="E221" s="5">
+        <v>1181.27</v>
+      </c>
+      <c r="F221" s="5">
+        <v>1181.27</v>
+      </c>
+      <c r="G221" s="6">
+        <v>31498800000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A222" s="4">
+        <v>38322</v>
+      </c>
+      <c r="B222" s="5">
+        <v>1173.78</v>
+      </c>
+      <c r="C222" s="5">
+        <v>1217.33</v>
+      </c>
+      <c r="D222" s="5">
+        <v>1173.78</v>
+      </c>
+      <c r="E222" s="5">
+        <v>1211.92</v>
+      </c>
+      <c r="F222" s="5">
+        <v>1211.92</v>
+      </c>
+      <c r="G222" s="6">
+        <v>31102500000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A223" s="4">
+        <v>38292</v>
+      </c>
+      <c r="B223" s="5">
+        <v>1130.2</v>
+      </c>
+      <c r="C223" s="5">
+        <v>1188.46</v>
+      </c>
+      <c r="D223" s="5">
+        <v>1127.5999999999999</v>
+      </c>
+      <c r="E223" s="5">
+        <v>1173.82</v>
+      </c>
+      <c r="F223" s="5">
+        <v>1173.82</v>
+      </c>
+      <c r="G223" s="6">
+        <v>30460280000</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A224" s="4">
+        <v>38260</v>
+      </c>
+      <c r="B224" s="5">
+        <v>1114.58</v>
+      </c>
+      <c r="C224" s="5">
+        <v>1142.05</v>
+      </c>
+      <c r="D224" s="5">
+        <v>1090.29</v>
+      </c>
+      <c r="E224" s="5">
+        <v>1130.2</v>
+      </c>
+      <c r="F224" s="5">
+        <v>1130.2</v>
+      </c>
+      <c r="G224" s="6">
+        <v>31511000000</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A225" s="4">
+        <v>38230</v>
+      </c>
+      <c r="B225" s="5">
+        <v>1104.24</v>
+      </c>
+      <c r="C225" s="5">
+        <v>1131.54</v>
+      </c>
+      <c r="D225" s="5">
+        <v>1099.18</v>
+      </c>
+      <c r="E225" s="5">
+        <v>1114.58</v>
+      </c>
+      <c r="F225" s="5">
+        <v>1114.58</v>
+      </c>
+      <c r="G225" s="6">
+        <v>26829870000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A226" s="4">
+        <v>38199</v>
+      </c>
+      <c r="B226" s="5">
+        <v>1101.72</v>
+      </c>
+      <c r="C226" s="5">
+        <v>1109.68</v>
+      </c>
+      <c r="D226" s="5">
+        <v>1060.72</v>
+      </c>
+      <c r="E226" s="5">
+        <v>1104.24</v>
+      </c>
+      <c r="F226" s="5">
+        <v>1104.24</v>
+      </c>
+      <c r="G226" s="6">
+        <v>26586800000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A227" s="4">
+        <v>38168</v>
+      </c>
+      <c r="B227" s="5">
+        <v>1140.8399999999999</v>
+      </c>
+      <c r="C227" s="5">
+        <v>1140.8399999999999</v>
+      </c>
+      <c r="D227" s="5">
+        <v>1078.78</v>
+      </c>
+      <c r="E227" s="5">
+        <v>1101.72</v>
+      </c>
+      <c r="F227" s="5">
+        <v>1101.72</v>
+      </c>
+      <c r="G227" s="6">
+        <v>29285600000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A228" s="4">
+        <v>38138</v>
+      </c>
+      <c r="B228" s="5">
+        <v>1120.68</v>
+      </c>
+      <c r="C228" s="5">
+        <v>1146.3399999999999</v>
+      </c>
+      <c r="D228" s="5">
+        <v>1113.32</v>
+      </c>
+      <c r="E228" s="5">
+        <v>1140.8399999999999</v>
+      </c>
+      <c r="F228" s="5">
+        <v>1140.8399999999999</v>
+      </c>
+      <c r="G228" s="6">
+        <v>27529500000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A229" s="4">
+        <v>38107</v>
+      </c>
+      <c r="B229" s="5">
+        <v>1107.3</v>
+      </c>
+      <c r="C229" s="5">
+        <v>1127.74</v>
+      </c>
+      <c r="D229" s="5">
+        <v>1076.32</v>
+      </c>
+      <c r="E229" s="5">
+        <v>1120.68</v>
+      </c>
+      <c r="F229" s="5">
+        <v>1120.68</v>
+      </c>
+      <c r="G229" s="6">
+        <v>29326400000</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A230" s="4">
+        <v>38078</v>
+      </c>
+      <c r="B230" s="5">
+        <v>1126.21</v>
+      </c>
+      <c r="C230" s="5">
+        <v>1150.57</v>
+      </c>
+      <c r="D230" s="5">
+        <v>1107.23</v>
+      </c>
+      <c r="E230" s="5">
+        <v>1107.3</v>
+      </c>
+      <c r="F230" s="5">
+        <v>1107.3</v>
+      </c>
+      <c r="G230" s="6">
+        <v>31611900000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A231" s="4">
+        <v>38047</v>
+      </c>
+      <c r="B231" s="5">
+        <v>1144.94</v>
+      </c>
+      <c r="C231" s="5">
+        <v>1163.23</v>
+      </c>
+      <c r="D231" s="5">
+        <v>1087.1600000000001</v>
+      </c>
+      <c r="E231" s="5">
+        <v>1126.21</v>
+      </c>
+      <c r="F231" s="5">
+        <v>1126.21</v>
+      </c>
+      <c r="G231" s="6">
+        <v>33597900000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A232" s="4">
+        <v>38018</v>
+      </c>
+      <c r="B232" s="5">
+        <v>1131.1300000000001</v>
+      </c>
+      <c r="C232" s="5">
+        <v>1158.98</v>
+      </c>
+      <c r="D232" s="5">
+        <v>1124.44</v>
+      </c>
+      <c r="E232" s="5">
+        <v>1144.94</v>
+      </c>
+      <c r="F232" s="5">
+        <v>1144.94</v>
+      </c>
+      <c r="G232" s="6">
+        <v>27985600000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A233" s="4">
+        <v>37987</v>
+      </c>
+      <c r="B233" s="5">
+        <v>1111.92</v>
+      </c>
+      <c r="C233" s="5">
+        <v>1155.3800000000001</v>
+      </c>
+      <c r="D233" s="5">
+        <v>1105.08</v>
+      </c>
+      <c r="E233" s="5">
+        <v>1131.1300000000001</v>
+      </c>
+      <c r="F233" s="5">
+        <v>1131.1300000000001</v>
+      </c>
+      <c r="G233" s="6">
+        <v>32820000000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A234" s="4">
+        <v>37956</v>
+      </c>
+      <c r="B234" s="5">
+        <v>1058.2</v>
+      </c>
+      <c r="C234" s="5">
+        <v>1112.56</v>
+      </c>
+      <c r="D234" s="5">
+        <v>1053.4100000000001</v>
+      </c>
+      <c r="E234" s="5">
+        <v>1111.92</v>
+      </c>
+      <c r="F234" s="5">
+        <v>1111.92</v>
+      </c>
+      <c r="G234" s="6">
+        <v>27839130000</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A235" s="4">
+        <v>37926</v>
+      </c>
+      <c r="B235" s="5">
+        <v>1050.71</v>
+      </c>
+      <c r="C235" s="5">
+        <v>1063.6500000000001</v>
+      </c>
+      <c r="D235" s="5">
+        <v>1031.2</v>
+      </c>
+      <c r="E235" s="5">
+        <v>1058.2</v>
+      </c>
+      <c r="F235" s="5">
+        <v>1058.2</v>
+      </c>
+      <c r="G235" s="6">
+        <v>24463220000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A236" s="4">
+        <v>37894</v>
+      </c>
+      <c r="B236" s="7">
+        <v>995.97</v>
+      </c>
+      <c r="C236" s="5">
+        <v>1053.79</v>
+      </c>
+      <c r="D236" s="7">
+        <v>995.97</v>
+      </c>
+      <c r="E236" s="5">
+        <v>1050.71</v>
+      </c>
+      <c r="F236" s="5">
+        <v>1050.71</v>
+      </c>
+      <c r="G236" s="6">
+        <v>32298500000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A237" s="4">
+        <v>37864</v>
+      </c>
+      <c r="B237" s="5">
+        <v>1008.01</v>
+      </c>
+      <c r="C237" s="5">
+        <v>1040.29</v>
+      </c>
+      <c r="D237" s="7">
+        <v>990.36</v>
+      </c>
+      <c r="E237" s="7">
+        <v>995.97</v>
+      </c>
+      <c r="F237" s="7">
+        <v>995.97</v>
+      </c>
+      <c r="G237" s="6">
+        <v>29940110000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A238" s="4">
+        <v>37833</v>
+      </c>
+      <c r="B238" s="7">
+        <v>990.31</v>
+      </c>
+      <c r="C238" s="5">
+        <v>1011.01</v>
+      </c>
+      <c r="D238" s="7">
+        <v>960.84</v>
+      </c>
+      <c r="E238" s="5">
+        <v>1008.01</v>
+      </c>
+      <c r="F238" s="5">
+        <v>1008.01</v>
+      </c>
+      <c r="G238" s="6">
+        <v>24881470000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A239" s="4">
+        <v>37802</v>
+      </c>
+      <c r="B239" s="7">
+        <v>974.5</v>
+      </c>
+      <c r="C239" s="5">
+        <v>1015.41</v>
+      </c>
+      <c r="D239" s="7">
+        <v>962.1</v>
+      </c>
+      <c r="E239" s="7">
+        <v>990.31</v>
+      </c>
+      <c r="F239" s="7">
+        <v>990.31</v>
+      </c>
+      <c r="G239" s="6">
+        <v>31553200000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A240" s="4">
+        <v>37772</v>
+      </c>
+      <c r="B240" s="7">
+        <v>963.59</v>
+      </c>
+      <c r="C240" s="5">
+        <v>1015.33</v>
+      </c>
+      <c r="D240" s="7">
+        <v>963.59</v>
+      </c>
+      <c r="E240" s="7">
+        <v>974.5</v>
+      </c>
+      <c r="F240" s="7">
+        <v>974.5</v>
+      </c>
+      <c r="G240" s="6">
+        <v>31219400000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A241" s="4">
+        <v>37741</v>
+      </c>
+      <c r="B241" s="7">
+        <v>916.92</v>
+      </c>
+      <c r="C241" s="7">
+        <v>965.38</v>
+      </c>
+      <c r="D241" s="7">
+        <v>902.83</v>
+      </c>
+      <c r="E241" s="7">
+        <v>963.59</v>
+      </c>
+      <c r="F241" s="7">
+        <v>963.59</v>
+      </c>
+      <c r="G241" s="6">
+        <v>30952100000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A242" s="4">
+        <v>37712</v>
+      </c>
+      <c r="B242" s="7">
+        <v>848.18</v>
+      </c>
+      <c r="C242" s="7">
+        <v>924.24</v>
+      </c>
+      <c r="D242" s="7">
+        <v>847.85</v>
+      </c>
+      <c r="E242" s="7">
+        <v>916.92</v>
+      </c>
+      <c r="F242" s="7">
+        <v>916.92</v>
+      </c>
+      <c r="G242" s="6">
+        <v>29669610000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A243" s="4">
+        <v>37681</v>
+      </c>
+      <c r="B243" s="7">
+        <v>841.15</v>
+      </c>
+      <c r="C243" s="7">
+        <v>895.9</v>
+      </c>
+      <c r="D243" s="7">
+        <v>788.9</v>
+      </c>
+      <c r="E243" s="7">
+        <v>848.18</v>
+      </c>
+      <c r="F243" s="7">
+        <v>848.18</v>
+      </c>
+      <c r="G243" s="6">
+        <v>30080030000</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A244" s="4">
+        <v>37653</v>
+      </c>
+      <c r="B244" s="7">
+        <v>855.7</v>
+      </c>
+      <c r="C244" s="7">
+        <v>864.64</v>
+      </c>
+      <c r="D244" s="7">
+        <v>806.29</v>
+      </c>
+      <c r="E244" s="7">
+        <v>841.15</v>
+      </c>
+      <c r="F244" s="7">
+        <v>841.15</v>
+      </c>
+      <c r="G244" s="6">
+        <v>25235300000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A245" s="4">
+        <v>37622</v>
+      </c>
+      <c r="B245" s="7">
+        <v>879.82</v>
+      </c>
+      <c r="C245" s="7">
+        <v>935.05</v>
+      </c>
+      <c r="D245" s="7">
+        <v>840.34</v>
+      </c>
+      <c r="E245" s="7">
+        <v>855.7</v>
+      </c>
+      <c r="F245" s="7">
+        <v>855.7</v>
+      </c>
+      <c r="G245" s="6">
+        <v>30749580000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A246" s="4">
+        <v>37591</v>
+      </c>
+      <c r="B246" s="7">
+        <v>936.31</v>
+      </c>
+      <c r="C246" s="7">
+        <v>954.28</v>
+      </c>
+      <c r="D246" s="7">
+        <v>869.45</v>
+      </c>
+      <c r="E246" s="7">
+        <v>879.82</v>
+      </c>
+      <c r="F246" s="7">
+        <v>879.82</v>
+      </c>
+      <c r="G246" s="6">
+        <v>25993640000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A247" s="4">
+        <v>37561</v>
+      </c>
+      <c r="B247" s="7">
+        <v>885.76</v>
+      </c>
+      <c r="C247" s="7">
+        <v>941.82</v>
+      </c>
+      <c r="D247" s="7">
+        <v>872.05</v>
+      </c>
+      <c r="E247" s="7">
+        <v>936.31</v>
+      </c>
+      <c r="F247" s="7">
+        <v>936.31</v>
+      </c>
+      <c r="G247" s="6">
+        <v>29200960000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A248" s="4">
+        <v>37529</v>
+      </c>
+      <c r="B248" s="7">
+        <v>815.28</v>
+      </c>
+      <c r="C248" s="7">
+        <v>907.44</v>
+      </c>
+      <c r="D248" s="7">
+        <v>768.63</v>
+      </c>
+      <c r="E248" s="7">
+        <v>885.76</v>
+      </c>
+      <c r="F248" s="7">
+        <v>885.76</v>
+      </c>
+      <c r="G248" s="6">
+        <v>37856310000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A249" s="4">
+        <v>37499</v>
+      </c>
+      <c r="B249" s="7">
+        <v>916.07</v>
+      </c>
+      <c r="C249" s="7">
+        <v>924.02</v>
+      </c>
+      <c r="D249" s="7">
+        <v>800.2</v>
+      </c>
+      <c r="E249" s="7">
+        <v>815.28</v>
+      </c>
+      <c r="F249" s="7">
+        <v>815.28</v>
+      </c>
+      <c r="G249" s="6">
+        <v>27723710000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A250" s="4">
+        <v>37468</v>
+      </c>
+      <c r="B250" s="7">
+        <v>911.62</v>
+      </c>
+      <c r="C250" s="7">
+        <v>965</v>
+      </c>
+      <c r="D250" s="7">
+        <v>833.44</v>
+      </c>
+      <c r="E250" s="7">
+        <v>916.07</v>
+      </c>
+      <c r="F250" s="7">
+        <v>916.07</v>
+      </c>
+      <c r="G250" s="6">
+        <v>29298400000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A251" s="4">
+        <v>37437</v>
+      </c>
+      <c r="B251" s="7">
+        <v>989.82</v>
+      </c>
+      <c r="C251" s="7">
+        <v>994.46</v>
+      </c>
+      <c r="D251" s="7">
+        <v>775.68</v>
+      </c>
+      <c r="E251" s="7">
+        <v>911.62</v>
+      </c>
+      <c r="F251" s="7">
+        <v>911.62</v>
+      </c>
+      <c r="G251" s="6">
+        <v>42228720000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A252" s="4">
+        <v>37407</v>
+      </c>
+      <c r="B252" s="5">
+        <v>1067.1400000000001</v>
+      </c>
+      <c r="C252" s="5">
+        <v>1070.74</v>
+      </c>
+      <c r="D252" s="7">
+        <v>952.92</v>
+      </c>
+      <c r="E252" s="7">
+        <v>989.82</v>
+      </c>
+      <c r="F252" s="7">
+        <v>989.82</v>
+      </c>
+      <c r="G252" s="6">
+        <v>29981510000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A253" s="4">
+        <v>37376</v>
+      </c>
+      <c r="B253" s="5">
+        <v>1076.92</v>
+      </c>
+      <c r="C253" s="5">
+        <v>1106.5899999999999</v>
+      </c>
+      <c r="D253" s="5">
+        <v>1048.96</v>
+      </c>
+      <c r="E253" s="5">
+        <v>1067.1400000000001</v>
+      </c>
+      <c r="F253" s="5">
+        <v>1067.1400000000001</v>
+      </c>
+      <c r="G253" s="6">
+        <v>26905500000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A254" s="4">
+        <v>37347</v>
+      </c>
+      <c r="B254" s="5">
+        <v>1147.3900000000001</v>
+      </c>
+      <c r="C254" s="5">
+        <v>1147.8399999999999</v>
+      </c>
+      <c r="D254" s="5">
+        <v>1063.46</v>
+      </c>
+      <c r="E254" s="5">
+        <v>1076.92</v>
+      </c>
+      <c r="F254" s="5">
+        <v>1076.92</v>
+      </c>
+      <c r="G254" s="6">
+        <v>28568900000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A255" s="4">
+        <v>37316</v>
+      </c>
+      <c r="B255" s="5">
+        <v>1106.73</v>
+      </c>
+      <c r="C255" s="5">
+        <v>1173.94</v>
+      </c>
+      <c r="D255" s="5">
+        <v>1106.73</v>
+      </c>
+      <c r="E255" s="5">
+        <v>1147.3900000000001</v>
+      </c>
+      <c r="F255" s="5">
+        <v>1147.3900000000001</v>
+      </c>
+      <c r="G255" s="6">
+        <v>26563200000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A256" s="4">
+        <v>37288</v>
+      </c>
+      <c r="B256" s="5">
+        <v>1130.2</v>
+      </c>
+      <c r="C256" s="5">
+        <v>1130.2</v>
+      </c>
+      <c r="D256" s="5">
+        <v>1074.3599999999999</v>
+      </c>
+      <c r="E256" s="5">
+        <v>1106.73</v>
+      </c>
+      <c r="F256" s="5">
+        <v>1106.73</v>
+      </c>
+      <c r="G256" s="6">
+        <v>26047600000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A257" s="4">
+        <v>37257</v>
+      </c>
+      <c r="B257" s="5">
+        <v>1148.08</v>
+      </c>
+      <c r="C257" s="5">
+        <v>1176.97</v>
+      </c>
+      <c r="D257" s="5">
+        <v>1081.6600000000001</v>
+      </c>
+      <c r="E257" s="5">
+        <v>1130.2</v>
+      </c>
+      <c r="F257" s="5">
+        <v>1130.2</v>
+      </c>
+      <c r="G257" s="6">
+        <v>29746200000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A258" s="4">
+        <v>37226</v>
+      </c>
+      <c r="B258" s="5">
+        <v>1139.45</v>
+      </c>
+      <c r="C258" s="5">
+        <v>1173.6199999999999</v>
+      </c>
+      <c r="D258" s="5">
+        <v>1114.53</v>
+      </c>
+      <c r="E258" s="5">
+        <v>1148.08</v>
+      </c>
+      <c r="F258" s="5">
+        <v>1148.08</v>
+      </c>
+      <c r="G258" s="6">
+        <v>25128570000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A259" s="4">
+        <v>37196</v>
+      </c>
+      <c r="B259" s="5">
+        <v>1059.78</v>
+      </c>
+      <c r="C259" s="5">
+        <v>1163.3800000000001</v>
+      </c>
+      <c r="D259" s="5">
+        <v>1054.31</v>
+      </c>
+      <c r="E259" s="5">
+        <v>1139.45</v>
+      </c>
+      <c r="F259" s="5">
+        <v>1139.45</v>
+      </c>
+      <c r="G259" s="6">
+        <v>26330000000</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A260" s="4">
+        <v>37164</v>
+      </c>
+      <c r="B260" s="5">
+        <v>1040.94</v>
+      </c>
+      <c r="C260" s="5">
+        <v>1110.6099999999999</v>
+      </c>
+      <c r="D260" s="5">
+        <v>1026.76</v>
+      </c>
+      <c r="E260" s="5">
+        <v>1059.78</v>
+      </c>
+      <c r="F260" s="5">
+        <v>1059.78</v>
+      </c>
+      <c r="G260" s="6">
+        <v>29951280000</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A261" s="4">
+        <v>37134</v>
+      </c>
+      <c r="B261" s="5">
+        <v>1133.58</v>
+      </c>
+      <c r="C261" s="5">
+        <v>1155.4000000000001</v>
+      </c>
+      <c r="D261" s="7">
+        <v>944.75</v>
+      </c>
+      <c r="E261" s="5">
+        <v>1040.94</v>
+      </c>
+      <c r="F261" s="5">
+        <v>1040.94</v>
+      </c>
+      <c r="G261" s="6">
+        <v>25025290000</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A262" s="4">
+        <v>37103</v>
+      </c>
+      <c r="B262" s="5">
+        <v>1211.23</v>
+      </c>
+      <c r="C262" s="5">
+        <v>1226.27</v>
+      </c>
+      <c r="D262" s="5">
+        <v>1124.8699999999999</v>
+      </c>
+      <c r="E262" s="5">
+        <v>1133.58</v>
+      </c>
+      <c r="F262" s="5">
+        <v>1133.58</v>
+      </c>
+      <c r="G262" s="6">
+        <v>23359200000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A263" s="4">
+        <v>37072</v>
+      </c>
+      <c r="B263" s="5">
+        <v>1224.42</v>
+      </c>
+      <c r="C263" s="5">
+        <v>1239.78</v>
+      </c>
+      <c r="D263" s="5">
+        <v>1165.54</v>
+      </c>
+      <c r="E263" s="5">
+        <v>1211.23</v>
+      </c>
+      <c r="F263" s="5">
+        <v>1211.23</v>
+      </c>
+      <c r="G263" s="6">
+        <v>23793710000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A264" s="4">
+        <v>37042</v>
+      </c>
+      <c r="B264" s="5">
+        <v>1255.82</v>
+      </c>
+      <c r="C264" s="5">
+        <v>1286.6199999999999</v>
+      </c>
+      <c r="D264" s="5">
+        <v>1203.03</v>
+      </c>
+      <c r="E264" s="5">
+        <v>1224.3800000000001</v>
+      </c>
+      <c r="F264" s="5">
+        <v>1224.3800000000001</v>
+      </c>
+      <c r="G264" s="6">
+        <v>24748030000</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A265" s="4">
+        <v>37011</v>
+      </c>
+      <c r="B265" s="5">
+        <v>1249.46</v>
+      </c>
+      <c r="C265" s="5">
+        <v>1315.93</v>
+      </c>
+      <c r="D265" s="5">
+        <v>1232</v>
+      </c>
+      <c r="E265" s="5">
+        <v>1255.82</v>
+      </c>
+      <c r="F265" s="5">
+        <v>1255.82</v>
+      </c>
+      <c r="G265" s="6">
+        <v>24525900000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A266" s="4">
+        <v>36982</v>
+      </c>
+      <c r="B266" s="5">
+        <v>1160.33</v>
+      </c>
+      <c r="C266" s="5">
+        <v>1269.3</v>
+      </c>
+      <c r="D266" s="5">
+        <v>1091.99</v>
+      </c>
+      <c r="E266" s="5">
+        <v>1249.46</v>
+      </c>
+      <c r="F266" s="5">
+        <v>1249.46</v>
+      </c>
+      <c r="G266" s="6">
+        <v>25409990000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A267" s="4">
+        <v>36951</v>
+      </c>
+      <c r="B267" s="5">
+        <v>1239.94</v>
+      </c>
+      <c r="C267" s="5">
+        <v>1267.42</v>
+      </c>
+      <c r="D267" s="5">
+        <v>1081.19</v>
+      </c>
+      <c r="E267" s="5">
+        <v>1160.33</v>
+      </c>
+      <c r="F267" s="5">
+        <v>1160.33</v>
+      </c>
+      <c r="G267" s="6">
+        <v>27806610000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A268" s="4">
+        <v>36923</v>
+      </c>
+      <c r="B268" s="5">
+        <v>1366.01</v>
+      </c>
+      <c r="C268" s="5">
+        <v>1376.38</v>
+      </c>
+      <c r="D268" s="5">
+        <v>1215.44</v>
+      </c>
+      <c r="E268" s="5">
+        <v>1239.94</v>
+      </c>
+      <c r="F268" s="5">
+        <v>1239.94</v>
+      </c>
+      <c r="G268" s="6">
+        <v>21644400000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A269" s="4">
+        <v>36892</v>
+      </c>
+      <c r="B269" s="5">
+        <v>1320.28</v>
+      </c>
+      <c r="C269" s="5">
+        <v>1383.37</v>
+      </c>
+      <c r="D269" s="5">
+        <v>1274.6199999999999</v>
+      </c>
+      <c r="E269" s="5">
+        <v>1366.01</v>
+      </c>
+      <c r="F269" s="5">
+        <v>1366.01</v>
+      </c>
+      <c r="G269" s="6">
+        <v>27829800000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A270" s="4">
+        <v>36861</v>
+      </c>
+      <c r="B270" s="5">
+        <v>1314.95</v>
+      </c>
+      <c r="C270" s="5">
+        <v>1389.05</v>
+      </c>
+      <c r="D270" s="5">
+        <v>1254.07</v>
+      </c>
+      <c r="E270" s="5">
+        <v>1320.28</v>
+      </c>
+      <c r="F270" s="5">
+        <v>1320.28</v>
+      </c>
+      <c r="G270" s="6">
+        <v>23610800000</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A271" s="4">
+        <v>36831</v>
+      </c>
+      <c r="B271" s="5">
+        <v>1429.4</v>
+      </c>
+      <c r="C271" s="5">
+        <v>1438.46</v>
+      </c>
+      <c r="D271" s="5">
+        <v>1294.9000000000001</v>
+      </c>
+      <c r="E271" s="5">
+        <v>1314.95</v>
+      </c>
+      <c r="F271" s="5">
+        <v>1314.95</v>
+      </c>
+      <c r="G271" s="6">
+        <v>20532300000</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A272" s="4">
+        <v>36799</v>
+      </c>
+      <c r="B272" s="5">
+        <v>1436.52</v>
+      </c>
+      <c r="C272" s="5">
+        <v>1454.82</v>
+      </c>
+      <c r="D272" s="5">
+        <v>1305.79</v>
+      </c>
+      <c r="E272" s="5">
+        <v>1429.4</v>
+      </c>
+      <c r="F272" s="5">
+        <v>1429.4</v>
+      </c>
+      <c r="G272" s="6">
+        <v>25951400000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A273" s="4">
+        <v>36769</v>
+      </c>
+      <c r="B273" s="5">
+        <v>1517.68</v>
+      </c>
+      <c r="C273" s="5">
+        <v>1530.09</v>
+      </c>
+      <c r="D273" s="5">
+        <v>1419.44</v>
+      </c>
+      <c r="E273" s="5">
+        <v>1436.51</v>
+      </c>
+      <c r="F273" s="5">
+        <v>1436.51</v>
+      </c>
+      <c r="G273" s="6">
+        <v>20838300000</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A274" s="4">
+        <v>36738</v>
+      </c>
+      <c r="B274" s="5">
+        <v>1430.83</v>
+      </c>
+      <c r="C274" s="5">
+        <v>1525.21</v>
+      </c>
+      <c r="D274" s="5">
+        <v>1425.43</v>
+      </c>
+      <c r="E274" s="5">
+        <v>1517.68</v>
+      </c>
+      <c r="F274" s="5">
+        <v>1517.68</v>
+      </c>
+      <c r="G274" s="6">
+        <v>20363700000</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A275" s="4">
+        <v>36707</v>
+      </c>
+      <c r="B275" s="5">
+        <v>1454.6</v>
+      </c>
+      <c r="C275" s="5">
+        <v>1517.32</v>
+      </c>
+      <c r="D275" s="5">
+        <v>1413.89</v>
+      </c>
+      <c r="E275" s="5">
+        <v>1430.83</v>
+      </c>
+      <c r="F275" s="5">
+        <v>1430.83</v>
+      </c>
+      <c r="G275" s="6">
+        <v>19089100000</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A276" s="4">
+        <v>36677</v>
+      </c>
+      <c r="B276" s="5">
+        <v>1420.6</v>
+      </c>
+      <c r="C276" s="5">
+        <v>1488.93</v>
+      </c>
+      <c r="D276" s="5">
+        <v>1420.6</v>
+      </c>
+      <c r="E276" s="5">
+        <v>1454.6</v>
+      </c>
+      <c r="F276" s="5">
+        <v>1454.6</v>
+      </c>
+      <c r="G276" s="6">
+        <v>21738300000</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A277" s="4">
+        <v>36646</v>
+      </c>
+      <c r="B277" s="5">
+        <v>1452.43</v>
+      </c>
+      <c r="C277" s="5">
+        <v>1481.51</v>
+      </c>
+      <c r="D277" s="5">
+        <v>1361.09</v>
+      </c>
+      <c r="E277" s="5">
+        <v>1420.6</v>
+      </c>
+      <c r="F277" s="5">
+        <v>1420.6</v>
+      </c>
+      <c r="G277" s="6">
+        <v>19898300000</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A278" s="4">
+        <v>36617</v>
+      </c>
+      <c r="B278" s="5">
+        <v>1498.58</v>
+      </c>
+      <c r="C278" s="5">
+        <v>1527.19</v>
+      </c>
+      <c r="D278" s="5">
+        <v>1339.4</v>
+      </c>
+      <c r="E278" s="5">
+        <v>1452.43</v>
+      </c>
+      <c r="F278" s="5">
+        <v>1452.43</v>
+      </c>
+      <c r="G278" s="6">
+        <v>20106460000</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A279" s="4">
+        <v>36586</v>
+      </c>
+      <c r="B279" s="5">
+        <v>1366.42</v>
+      </c>
+      <c r="C279" s="5">
+        <v>1552.87</v>
+      </c>
+      <c r="D279" s="5">
+        <v>1346.62</v>
+      </c>
+      <c r="E279" s="5">
+        <v>1498.58</v>
+      </c>
+      <c r="F279" s="5">
+        <v>1498.58</v>
+      </c>
+      <c r="G279" s="6">
+        <v>26156200000</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A280" s="4">
+        <v>36557</v>
+      </c>
+      <c r="B280" s="5">
+        <v>1394.46</v>
+      </c>
+      <c r="C280" s="5">
+        <v>1444.55</v>
+      </c>
+      <c r="D280" s="5">
+        <v>1325.07</v>
+      </c>
+      <c r="E280" s="5">
+        <v>1366.42</v>
+      </c>
+      <c r="F280" s="5">
+        <v>1366.42</v>
+      </c>
+      <c r="G280" s="6">
+        <v>20912000000</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A281" s="4">
+        <v>36526</v>
+      </c>
+      <c r="B281" s="5">
+        <v>1469.25</v>
+      </c>
+      <c r="C281" s="5">
+        <v>1478</v>
+      </c>
+      <c r="D281" s="5">
+        <v>1350.14</v>
+      </c>
+      <c r="E281" s="5">
+        <v>1394.46</v>
+      </c>
+      <c r="F281" s="5">
+        <v>1394.46</v>
+      </c>
+      <c r="G281" s="6">
+        <v>21494400000</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A282" s="4">
+        <v>36495</v>
+      </c>
+      <c r="B282" s="5">
+        <v>1388.91</v>
+      </c>
+      <c r="C282" s="5">
+        <v>1473.1</v>
+      </c>
+      <c r="D282" s="5">
+        <v>1387.38</v>
+      </c>
+      <c r="E282" s="5">
+        <v>1469.25</v>
+      </c>
+      <c r="F282" s="5">
+        <v>1469.25</v>
+      </c>
+      <c r="G282" s="6">
+        <v>19640690000</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A283" s="4">
+        <v>36465</v>
+      </c>
+      <c r="B283" s="5">
+        <v>1362.93</v>
+      </c>
+      <c r="C283" s="5">
+        <v>1425.31</v>
+      </c>
+      <c r="D283" s="5">
+        <v>1346.41</v>
+      </c>
+      <c r="E283" s="5">
+        <v>1388.91</v>
+      </c>
+      <c r="F283" s="5">
+        <v>1388.91</v>
+      </c>
+      <c r="G283" s="6">
+        <v>18384820000</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A284" s="4">
+        <v>36433</v>
+      </c>
+      <c r="B284" s="5">
+        <v>1282.71</v>
+      </c>
+      <c r="C284" s="5">
+        <v>1373.17</v>
+      </c>
+      <c r="D284" s="5">
+        <v>1233.7</v>
+      </c>
+      <c r="E284" s="5">
+        <v>1362.93</v>
+      </c>
+      <c r="F284" s="5">
+        <v>1362.93</v>
+      </c>
+      <c r="G284" s="6">
+        <v>18832000000</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A285" s="4">
+        <v>36403</v>
+      </c>
+      <c r="B285" s="5">
+        <v>1320.41</v>
+      </c>
+      <c r="C285" s="5">
+        <v>1361.39</v>
+      </c>
+      <c r="D285" s="5">
+        <v>1256.26</v>
+      </c>
+      <c r="E285" s="5">
+        <v>1282.71</v>
+      </c>
+      <c r="F285" s="5">
+        <v>1282.71</v>
+      </c>
+      <c r="G285" s="6">
+        <v>16438700000</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A286" s="4">
+        <v>36372</v>
+      </c>
+      <c r="B286" s="5">
+        <v>1328.72</v>
+      </c>
+      <c r="C286" s="5">
+        <v>1382.84</v>
+      </c>
+      <c r="D286" s="5">
+        <v>1267.73</v>
+      </c>
+      <c r="E286" s="5">
+        <v>1320.41</v>
+      </c>
+      <c r="F286" s="5">
+        <v>1320.41</v>
+      </c>
+      <c r="G286" s="6">
+        <v>15818550000</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A287" s="4">
+        <v>36341</v>
+      </c>
+      <c r="B287" s="5">
+        <v>1372.71</v>
+      </c>
+      <c r="C287" s="5">
+        <v>1420.33</v>
+      </c>
+      <c r="D287" s="5">
+        <v>1328.49</v>
+      </c>
+      <c r="E287" s="5">
+        <v>1328.72</v>
+      </c>
+      <c r="F287" s="5">
+        <v>1328.72</v>
+      </c>
+      <c r="G287" s="6">
+        <v>15332930000</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A288" s="4">
+        <v>36311</v>
+      </c>
+      <c r="B288" s="5">
+        <v>1301.8399999999999</v>
+      </c>
+      <c r="C288" s="5">
+        <v>1372.93</v>
+      </c>
+      <c r="D288" s="5">
+        <v>1277.47</v>
+      </c>
+      <c r="E288" s="5">
+        <v>1372.71</v>
+      </c>
+      <c r="F288" s="5">
+        <v>1372.71</v>
+      </c>
+      <c r="G288" s="6">
+        <v>16079170000</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A289" s="4">
+        <v>36280</v>
+      </c>
+      <c r="B289" s="5">
+        <v>1335.18</v>
+      </c>
+      <c r="C289" s="5">
+        <v>1375.98</v>
+      </c>
+      <c r="D289" s="5">
+        <v>1277.31</v>
+      </c>
+      <c r="E289" s="5">
+        <v>1301.8399999999999</v>
+      </c>
+      <c r="F289" s="5">
+        <v>1301.8399999999999</v>
+      </c>
+      <c r="G289" s="6">
+        <v>15880260000</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A290" s="4">
+        <v>36251</v>
+      </c>
+      <c r="B290" s="5">
+        <v>1286.3699999999999</v>
+      </c>
+      <c r="C290" s="5">
+        <v>1371.56</v>
+      </c>
+      <c r="D290" s="5">
+        <v>1282.56</v>
+      </c>
+      <c r="E290" s="5">
+        <v>1335.18</v>
+      </c>
+      <c r="F290" s="5">
+        <v>1335.18</v>
+      </c>
+      <c r="G290" s="6">
+        <v>18523200000</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A291" s="4">
+        <v>36220</v>
+      </c>
+      <c r="B291" s="5">
+        <v>1238.33</v>
+      </c>
+      <c r="C291" s="5">
+        <v>1323.82</v>
+      </c>
+      <c r="D291" s="5">
+        <v>1216.03</v>
+      </c>
+      <c r="E291" s="5">
+        <v>1286.3699999999999</v>
+      </c>
+      <c r="F291" s="5">
+        <v>1286.3699999999999</v>
+      </c>
+      <c r="G291" s="6">
+        <v>18002500000</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A292" s="4">
+        <v>36192</v>
+      </c>
+      <c r="B292" s="5">
+        <v>1279.6400000000001</v>
+      </c>
+      <c r="C292" s="5">
+        <v>1283.8399999999999</v>
+      </c>
+      <c r="D292" s="5">
+        <v>1211.8900000000001</v>
+      </c>
+      <c r="E292" s="5">
+        <v>1238.33</v>
+      </c>
+      <c r="F292" s="5">
+        <v>1238.33</v>
+      </c>
+      <c r="G292" s="6">
+        <v>14555860000</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A293" s="4">
+        <v>36161</v>
+      </c>
+      <c r="B293" s="5">
+        <v>1229.23</v>
+      </c>
+      <c r="C293" s="5">
+        <v>1280.3699999999999</v>
+      </c>
+      <c r="D293" s="5">
+        <v>1205.46</v>
+      </c>
+      <c r="E293" s="5">
+        <v>1279.6400000000001</v>
+      </c>
+      <c r="F293" s="5">
+        <v>1279.6400000000001</v>
+      </c>
+      <c r="G293" s="6">
+        <v>16213500000</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A294" s="4">
+        <v>36130</v>
+      </c>
+      <c r="B294" s="5">
+        <v>1163.6300000000001</v>
+      </c>
+      <c r="C294" s="5">
+        <v>1244.93</v>
+      </c>
+      <c r="D294" s="5">
+        <v>1136.8900000000001</v>
+      </c>
+      <c r="E294" s="5">
+        <v>1229.23</v>
+      </c>
+      <c r="F294" s="5">
+        <v>1229.23</v>
+      </c>
+      <c r="G294" s="6">
+        <v>15181450000</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A295" s="4">
+        <v>36100</v>
+      </c>
+      <c r="B295" s="5">
+        <v>1098.67</v>
+      </c>
+      <c r="C295" s="5">
+        <v>1192.97</v>
+      </c>
+      <c r="D295" s="5">
+        <v>1098.67</v>
+      </c>
+      <c r="E295" s="5">
+        <v>1163.6300000000001</v>
+      </c>
+      <c r="F295" s="5">
+        <v>1163.6300000000001</v>
+      </c>
+      <c r="G295" s="6">
+        <v>13451280000</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A296" s="4">
+        <v>36068</v>
+      </c>
+      <c r="B296" s="5">
+        <v>1017.01</v>
+      </c>
+      <c r="C296" s="5">
+        <v>1103.78</v>
+      </c>
+      <c r="D296" s="7">
+        <v>923.32</v>
+      </c>
+      <c r="E296" s="5">
+        <v>1098.67</v>
+      </c>
+      <c r="F296" s="5">
+        <v>1098.67</v>
+      </c>
+      <c r="G296" s="6">
+        <v>18001650000</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A297" s="4">
+        <v>36038</v>
+      </c>
+      <c r="B297" s="7">
+        <v>957.28</v>
+      </c>
+      <c r="C297" s="5">
+        <v>1066.1099999999999</v>
+      </c>
+      <c r="D297" s="7">
+        <v>939.98</v>
+      </c>
+      <c r="E297" s="5">
+        <v>1017.01</v>
+      </c>
+      <c r="F297" s="5">
+        <v>1017.01</v>
+      </c>
+      <c r="G297" s="6">
+        <v>16714080000</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A298" s="4">
+        <v>36007</v>
+      </c>
+      <c r="B298" s="5">
+        <v>1120.67</v>
+      </c>
+      <c r="C298" s="5">
+        <v>1121.79</v>
+      </c>
+      <c r="D298" s="7">
+        <v>957.28</v>
+      </c>
+      <c r="E298" s="7">
+        <v>957.28</v>
+      </c>
+      <c r="F298" s="7">
+        <v>957.28</v>
+      </c>
+      <c r="G298" s="6">
+        <v>15071550000</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A299" s="4">
+        <v>35976</v>
+      </c>
+      <c r="B299" s="5">
+        <v>1133.8399999999999</v>
+      </c>
+      <c r="C299" s="5">
+        <v>1190.58</v>
+      </c>
+      <c r="D299" s="5">
+        <v>1114.3</v>
+      </c>
+      <c r="E299" s="5">
+        <v>1120.67</v>
+      </c>
+      <c r="F299" s="5">
+        <v>1120.67</v>
+      </c>
+      <c r="G299" s="6">
+        <v>14194800000</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A300" s="4">
+        <v>35946</v>
+      </c>
+      <c r="B300" s="5">
+        <v>1090.82</v>
+      </c>
+      <c r="C300" s="5">
+        <v>1145.1500000000001</v>
+      </c>
+      <c r="D300" s="5">
+        <v>1074.67</v>
+      </c>
+      <c r="E300" s="5">
+        <v>1133.8399999999999</v>
+      </c>
+      <c r="F300" s="5">
+        <v>1133.8399999999999</v>
+      </c>
+      <c r="G300" s="6">
+        <v>13551970000</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A301" s="4">
+        <v>35915</v>
+      </c>
+      <c r="B301" s="5">
+        <v>1111.75</v>
+      </c>
+      <c r="C301" s="5">
+        <v>1130.52</v>
+      </c>
+      <c r="D301" s="5">
+        <v>1074.3900000000001</v>
+      </c>
+      <c r="E301" s="5">
+        <v>1090.82</v>
+      </c>
+      <c r="F301" s="5">
+        <v>1090.82</v>
+      </c>
+      <c r="G301" s="6">
+        <v>11477140000</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A302" s="4">
+        <v>35886</v>
+      </c>
+      <c r="B302" s="5">
+        <v>1101.75</v>
+      </c>
+      <c r="C302" s="5">
+        <v>1132.98</v>
+      </c>
+      <c r="D302" s="5">
+        <v>1076.7</v>
+      </c>
+      <c r="E302" s="5">
+        <v>1111.75</v>
+      </c>
+      <c r="F302" s="5">
+        <v>1111.75</v>
+      </c>
+      <c r="G302" s="6">
+        <v>13656060000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A303" s="4">
+        <v>35855</v>
+      </c>
+      <c r="B303" s="5">
+        <v>1049.3399999999999</v>
+      </c>
+      <c r="C303" s="5">
+        <v>1113.07</v>
+      </c>
+      <c r="D303" s="5">
+        <v>1030.8699999999999</v>
+      </c>
+      <c r="E303" s="5">
+        <v>1101.75</v>
+      </c>
+      <c r="F303" s="5">
+        <v>1101.75</v>
+      </c>
+      <c r="G303" s="6">
+        <v>13719590000</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A304" s="4">
+        <v>35827</v>
+      </c>
+      <c r="B304" s="7">
+        <v>980.28</v>
+      </c>
+      <c r="C304" s="5">
+        <v>1051.6600000000001</v>
+      </c>
+      <c r="D304" s="7">
+        <v>980.28</v>
+      </c>
+      <c r="E304" s="5">
+        <v>1049.3399999999999</v>
+      </c>
+      <c r="F304" s="5">
+        <v>1049.3399999999999</v>
+      </c>
+      <c r="G304" s="6">
+        <v>11656550000</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A305" s="4">
+        <v>35796</v>
+      </c>
+      <c r="B305" s="7">
+        <v>970.43</v>
+      </c>
+      <c r="C305" s="7">
+        <v>992.65</v>
+      </c>
+      <c r="D305" s="7">
+        <v>912.83</v>
+      </c>
+      <c r="E305" s="7">
+        <v>980.28</v>
+      </c>
+      <c r="F305" s="7">
+        <v>980.28</v>
+      </c>
+      <c r="G305" s="6">
+        <v>12733830000</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A306" s="4">
+        <v>35765</v>
+      </c>
+      <c r="B306" s="7">
+        <v>955.4</v>
+      </c>
+      <c r="C306" s="7">
+        <v>986.25</v>
+      </c>
+      <c r="D306" s="7">
+        <v>924.92</v>
+      </c>
+      <c r="E306" s="7">
+        <v>970.43</v>
+      </c>
+      <c r="F306" s="7">
+        <v>970.43</v>
+      </c>
+      <c r="G306" s="6">
+        <v>11958880000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A307" s="4">
+        <v>35735</v>
+      </c>
+      <c r="B307" s="7">
+        <v>914.62</v>
+      </c>
+      <c r="C307" s="7">
+        <v>964.55</v>
+      </c>
+      <c r="D307" s="7">
+        <v>900.61</v>
+      </c>
+      <c r="E307" s="7">
+        <v>955.4</v>
+      </c>
+      <c r="F307" s="7">
+        <v>955.4</v>
+      </c>
+      <c r="G307" s="6">
+        <v>10173620000</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A308" s="4">
+        <v>35703</v>
+      </c>
+      <c r="B308" s="7">
+        <v>947.28</v>
+      </c>
+      <c r="C308" s="7">
+        <v>983.12</v>
+      </c>
+      <c r="D308" s="7">
+        <v>855.27</v>
+      </c>
+      <c r="E308" s="7">
+        <v>914.62</v>
+      </c>
+      <c r="F308" s="7">
+        <v>914.62</v>
+      </c>
+      <c r="G308" s="6">
+        <v>14017260000</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A309" s="4">
+        <v>35673</v>
+      </c>
+      <c r="B309" s="7">
+        <v>899.47</v>
+      </c>
+      <c r="C309" s="7">
+        <v>960.59</v>
+      </c>
+      <c r="D309" s="7">
+        <v>899.47</v>
+      </c>
+      <c r="E309" s="7">
+        <v>947.28</v>
+      </c>
+      <c r="F309" s="7">
+        <v>947.28</v>
+      </c>
+      <c r="G309" s="6">
+        <v>11383000000</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A310" s="4">
+        <v>35642</v>
+      </c>
+      <c r="B310" s="7">
+        <v>954.29</v>
+      </c>
+      <c r="C310" s="7">
+        <v>964.17</v>
+      </c>
+      <c r="D310" s="7">
+        <v>893.34</v>
+      </c>
+      <c r="E310" s="7">
+        <v>899.47</v>
+      </c>
+      <c r="F310" s="7">
+        <v>899.47</v>
+      </c>
+      <c r="G310" s="6">
+        <v>10606100000</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A311" s="4">
+        <v>35611</v>
+      </c>
+      <c r="B311" s="7">
+        <v>885.14</v>
+      </c>
+      <c r="C311" s="7">
+        <v>957.73</v>
+      </c>
+      <c r="D311" s="7">
+        <v>884.54</v>
+      </c>
+      <c r="E311" s="7">
+        <v>954.31</v>
+      </c>
+      <c r="F311" s="7">
+        <v>954.31</v>
+      </c>
+      <c r="G311" s="6">
+        <v>11958120000</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A312" s="4">
+        <v>35581</v>
+      </c>
+      <c r="B312" s="7">
+        <v>848.28</v>
+      </c>
+      <c r="C312" s="7">
+        <v>902.09</v>
+      </c>
+      <c r="D312" s="7">
+        <v>838.82</v>
+      </c>
+      <c r="E312" s="7">
+        <v>885.14</v>
+      </c>
+      <c r="F312" s="7">
+        <v>885.14</v>
+      </c>
+      <c r="G312" s="6">
+        <v>10857950000</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A313" s="4">
+        <v>35550</v>
+      </c>
+      <c r="B313" s="7">
+        <v>801.34</v>
+      </c>
+      <c r="C313" s="7">
+        <v>851.87</v>
+      </c>
+      <c r="D313" s="7">
+        <v>793.21</v>
+      </c>
+      <c r="E313" s="7">
+        <v>848.28</v>
+      </c>
+      <c r="F313" s="7">
+        <v>848.28</v>
+      </c>
+      <c r="G313" s="6">
+        <v>10106650000</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A314" s="4">
+        <v>35521</v>
+      </c>
+      <c r="B314" s="7">
+        <v>757.12</v>
+      </c>
+      <c r="C314" s="7">
+        <v>804.13</v>
+      </c>
+      <c r="D314" s="7">
+        <v>733.54</v>
+      </c>
+      <c r="E314" s="7">
+        <v>801.34</v>
+      </c>
+      <c r="F314" s="7">
+        <v>801.34</v>
+      </c>
+      <c r="G314" s="6">
+        <v>10454880000</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A315" s="4">
+        <v>35490</v>
+      </c>
+      <c r="B315" s="7">
+        <v>790.82</v>
+      </c>
+      <c r="C315" s="7">
+        <v>814.9</v>
+      </c>
+      <c r="D315" s="7">
+        <v>756.13</v>
+      </c>
+      <c r="E315" s="7">
+        <v>757.12</v>
+      </c>
+      <c r="F315" s="7">
+        <v>757.12</v>
+      </c>
+      <c r="G315" s="6">
+        <v>10120760000</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A316" s="4">
+        <v>35462</v>
+      </c>
+      <c r="B316" s="7">
+        <v>786.16</v>
+      </c>
+      <c r="C316" s="7">
+        <v>817.68</v>
+      </c>
+      <c r="D316" s="7">
+        <v>773.43</v>
+      </c>
+      <c r="E316" s="7">
+        <v>790.82</v>
+      </c>
+      <c r="F316" s="7">
+        <v>790.82</v>
+      </c>
+      <c r="G316" s="6">
+        <v>9715930000</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A317" s="4">
+        <v>35431</v>
+      </c>
+      <c r="B317" s="7">
+        <v>740.74</v>
+      </c>
+      <c r="C317" s="7">
+        <v>794.67</v>
+      </c>
+      <c r="D317" s="7">
+        <v>729.55</v>
+      </c>
+      <c r="E317" s="7">
+        <v>786.16</v>
+      </c>
+      <c r="F317" s="7">
+        <v>786.16</v>
+      </c>
+      <c r="G317" s="6">
+        <v>11635830000</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A318" s="4">
+        <v>35400</v>
+      </c>
+      <c r="B318" s="7">
+        <v>757.02</v>
+      </c>
+      <c r="C318" s="7">
+        <v>761.75</v>
+      </c>
+      <c r="D318" s="7">
+        <v>716.69</v>
+      </c>
+      <c r="E318" s="7">
+        <v>740.74</v>
+      </c>
+      <c r="F318" s="7">
+        <v>740.74</v>
+      </c>
+      <c r="G318" s="6">
+        <v>9089170000</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A319" s="4">
+        <v>35370</v>
+      </c>
+      <c r="B319" s="7">
+        <v>705.27</v>
+      </c>
+      <c r="C319" s="7">
+        <v>762.12</v>
+      </c>
+      <c r="D319" s="7">
+        <v>701.3</v>
+      </c>
+      <c r="E319" s="7">
+        <v>757.02</v>
+      </c>
+      <c r="F319" s="7">
+        <v>757.02</v>
+      </c>
+      <c r="G319" s="6">
+        <v>8763850000</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A320" s="4">
+        <v>35338</v>
+      </c>
+      <c r="B320" s="7">
+        <v>687.31</v>
+      </c>
+      <c r="C320" s="7">
+        <v>714.1</v>
+      </c>
+      <c r="D320" s="7">
+        <v>684.44</v>
+      </c>
+      <c r="E320" s="7">
+        <v>705.27</v>
+      </c>
+      <c r="F320" s="7">
+        <v>705.27</v>
+      </c>
+      <c r="G320" s="6">
+        <v>9703670000</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A321" s="4">
+        <v>35308</v>
+      </c>
+      <c r="B321" s="7">
+        <v>651.99</v>
+      </c>
+      <c r="C321" s="7">
+        <v>690.88</v>
+      </c>
+      <c r="D321" s="7">
+        <v>643.97</v>
+      </c>
+      <c r="E321" s="7">
+        <v>687.33</v>
+      </c>
+      <c r="F321" s="7">
+        <v>687.33</v>
+      </c>
+      <c r="G321" s="6">
+        <v>8064070000</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A322" s="4">
+        <v>35277</v>
+      </c>
+      <c r="B322" s="7">
+        <v>639.95000000000005</v>
+      </c>
+      <c r="C322" s="7">
+        <v>670.68</v>
+      </c>
+      <c r="D322" s="7">
+        <v>639.49</v>
+      </c>
+      <c r="E322" s="7">
+        <v>651.99</v>
+      </c>
+      <c r="F322" s="7">
+        <v>651.99</v>
+      </c>
+      <c r="G322" s="6">
+        <v>7380320000</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A323" s="4">
+        <v>35246</v>
+      </c>
+      <c r="B323" s="7">
+        <v>670.63</v>
+      </c>
+      <c r="C323" s="7">
+        <v>675.88</v>
+      </c>
+      <c r="D323" s="7">
+        <v>605.88</v>
+      </c>
+      <c r="E323" s="7">
+        <v>639.95000000000005</v>
+      </c>
+      <c r="F323" s="7">
+        <v>639.95000000000005</v>
+      </c>
+      <c r="G323" s="6">
+        <v>8849860000</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A324" s="4">
+        <v>35216</v>
+      </c>
+      <c r="B324" s="7">
+        <v>669.12</v>
+      </c>
+      <c r="C324" s="7">
+        <v>680.32</v>
+      </c>
+      <c r="D324" s="7">
+        <v>658.75</v>
+      </c>
+      <c r="E324" s="7">
+        <v>670.63</v>
+      </c>
+      <c r="F324" s="7">
+        <v>670.63</v>
+      </c>
+      <c r="G324" s="6">
+        <v>7930840000</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A325" s="4">
+        <v>35185</v>
+      </c>
+      <c r="B325" s="7">
+        <v>654.16999999999996</v>
+      </c>
+      <c r="C325" s="7">
+        <v>681.1</v>
+      </c>
+      <c r="D325" s="7">
+        <v>630.07000000000005</v>
+      </c>
+      <c r="E325" s="7">
+        <v>669.12</v>
+      </c>
+      <c r="F325" s="7">
+        <v>669.12</v>
+      </c>
+      <c r="G325" s="6">
+        <v>8921140000</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A326" s="4">
+        <v>35156</v>
+      </c>
+      <c r="B326" s="7">
+        <v>645.5</v>
+      </c>
+      <c r="C326" s="7">
+        <v>656.68</v>
+      </c>
+      <c r="D326" s="7">
+        <v>624.14</v>
+      </c>
+      <c r="E326" s="7">
+        <v>654.16999999999996</v>
+      </c>
+      <c r="F326" s="7">
+        <v>654.16999999999996</v>
+      </c>
+      <c r="G326" s="6">
+        <v>8875580000</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A327" s="4">
+        <v>35125</v>
+      </c>
+      <c r="B327" s="7">
+        <v>640.42999999999995</v>
+      </c>
+      <c r="C327" s="7">
+        <v>656.97</v>
+      </c>
+      <c r="D327" s="7">
+        <v>627.63</v>
+      </c>
+      <c r="E327" s="7">
+        <v>645.5</v>
+      </c>
+      <c r="F327" s="7">
+        <v>645.5</v>
+      </c>
+      <c r="G327" s="6">
+        <v>8984200000</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A328" s="4">
+        <v>35096</v>
+      </c>
+      <c r="B328" s="7">
+        <v>636.02</v>
+      </c>
+      <c r="C328" s="7">
+        <v>664.23</v>
+      </c>
+      <c r="D328" s="7">
+        <v>633.71</v>
+      </c>
+      <c r="E328" s="7">
+        <v>640.42999999999995</v>
+      </c>
+      <c r="F328" s="7">
+        <v>640.42999999999995</v>
+      </c>
+      <c r="G328" s="6">
+        <v>8749960000</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A329" s="4">
+        <v>35065</v>
+      </c>
+      <c r="B329" s="7">
+        <v>615.92999999999995</v>
+      </c>
+      <c r="C329" s="7">
+        <v>636.17999999999995</v>
+      </c>
+      <c r="D329" s="7">
+        <v>597.29</v>
+      </c>
+      <c r="E329" s="7">
+        <v>636.02</v>
+      </c>
+      <c r="F329" s="7">
+        <v>636.02</v>
+      </c>
+      <c r="G329" s="6">
+        <v>9188050000</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A330" s="4">
+        <v>35034</v>
+      </c>
+      <c r="B330" s="7">
+        <v>605.37</v>
+      </c>
+      <c r="C330" s="7">
+        <v>622.88</v>
+      </c>
+      <c r="D330" s="7">
+        <v>605.04999999999995</v>
+      </c>
+      <c r="E330" s="7">
+        <v>615.92999999999995</v>
+      </c>
+      <c r="F330" s="7">
+        <v>615.92999999999995</v>
+      </c>
+      <c r="G330" s="6">
+        <v>7697540000</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A331" s="4">
+        <v>35004</v>
+      </c>
+      <c r="B331" s="7">
+        <v>581.5</v>
+      </c>
+      <c r="C331" s="7">
+        <v>608.69000000000005</v>
+      </c>
+      <c r="D331" s="7">
+        <v>581.04</v>
+      </c>
+      <c r="E331" s="7">
+        <v>605.37</v>
+      </c>
+      <c r="F331" s="7">
+        <v>605.37</v>
+      </c>
+      <c r="G331" s="6">
+        <v>7602150000</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A332" s="4">
+        <v>34972</v>
+      </c>
+      <c r="B332" s="7">
+        <v>584.41</v>
+      </c>
+      <c r="C332" s="7">
+        <v>590.66</v>
+      </c>
+      <c r="D332" s="7">
+        <v>571.54999999999995</v>
+      </c>
+      <c r="E332" s="7">
+        <v>581.5</v>
+      </c>
+      <c r="F332" s="7">
+        <v>581.5</v>
+      </c>
+      <c r="G332" s="6">
+        <v>8043320000</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A333" s="4">
+        <v>34942</v>
+      </c>
+      <c r="B333" s="7">
+        <v>561.88</v>
+      </c>
+      <c r="C333" s="7">
+        <v>587.61</v>
+      </c>
+      <c r="D333" s="7">
+        <v>561.01</v>
+      </c>
+      <c r="E333" s="7">
+        <v>584.41</v>
+      </c>
+      <c r="F333" s="7">
+        <v>584.41</v>
+      </c>
+      <c r="G333" s="6">
+        <v>7052830000</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A334" s="4">
+        <v>34911</v>
+      </c>
+      <c r="B334" s="7">
+        <v>562.05999999999995</v>
+      </c>
+      <c r="C334" s="7">
+        <v>565.62</v>
+      </c>
+      <c r="D334" s="7">
+        <v>553.04</v>
+      </c>
+      <c r="E334" s="7">
+        <v>561.88</v>
+      </c>
+      <c r="F334" s="7">
+        <v>561.88</v>
+      </c>
+      <c r="G334" s="6">
+        <v>7146620000</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A335" s="4">
+        <v>34880</v>
+      </c>
+      <c r="B335" s="7">
+        <v>544.75</v>
+      </c>
+      <c r="C335" s="7">
+        <v>565.4</v>
+      </c>
+      <c r="D335" s="7">
+        <v>542.51</v>
+      </c>
+      <c r="E335" s="7">
+        <v>562.05999999999995</v>
+      </c>
+      <c r="F335" s="7">
+        <v>562.05999999999995</v>
+      </c>
+      <c r="G335" s="6">
+        <v>7307960000</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A336" s="4">
+        <v>34850</v>
+      </c>
+      <c r="B336" s="7">
+        <v>533.4</v>
+      </c>
+      <c r="C336" s="7">
+        <v>551.07000000000005</v>
+      </c>
+      <c r="D336" s="7">
+        <v>526</v>
+      </c>
+      <c r="E336" s="7">
+        <v>544.75</v>
+      </c>
+      <c r="F336" s="7">
+        <v>544.75</v>
+      </c>
+      <c r="G336" s="6">
+        <v>7555650000</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A337" s="4">
+        <v>34819</v>
+      </c>
+      <c r="B337" s="7">
+        <v>514.76</v>
+      </c>
+      <c r="C337" s="7">
+        <v>533.41</v>
+      </c>
+      <c r="D337" s="7">
+        <v>513.03</v>
+      </c>
+      <c r="E337" s="7">
+        <v>533.4</v>
+      </c>
+      <c r="F337" s="7">
+        <v>533.4</v>
+      </c>
+      <c r="G337" s="6">
+        <v>7555690000</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A338" s="4">
+        <v>34790</v>
+      </c>
+      <c r="B338" s="7">
+        <v>500.7</v>
+      </c>
+      <c r="C338" s="7">
+        <v>515.29</v>
+      </c>
+      <c r="D338" s="7">
+        <v>500.2</v>
+      </c>
+      <c r="E338" s="7">
+        <v>514.71</v>
+      </c>
+      <c r="F338" s="7">
+        <v>514.71</v>
+      </c>
+      <c r="G338" s="6">
+        <v>6307030000</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A339" s="4">
+        <v>34759</v>
+      </c>
+      <c r="B339" s="7">
+        <v>487.39</v>
+      </c>
+      <c r="C339" s="7">
+        <v>508.15</v>
+      </c>
+      <c r="D339" s="7">
+        <v>479.7</v>
+      </c>
+      <c r="E339" s="7">
+        <v>500.71</v>
+      </c>
+      <c r="F339" s="7">
+        <v>500.71</v>
+      </c>
+      <c r="G339" s="6">
+        <v>7792400000</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A340" s="4">
+        <v>34731</v>
+      </c>
+      <c r="B340" s="7">
+        <v>470.42</v>
+      </c>
+      <c r="C340" s="7">
+        <v>489.19</v>
+      </c>
+      <c r="D340" s="7">
+        <v>469.29</v>
+      </c>
+      <c r="E340" s="7">
+        <v>487.39</v>
+      </c>
+      <c r="F340" s="7">
+        <v>487.39</v>
+      </c>
+      <c r="G340" s="6">
+        <v>6330100000</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A341" s="4">
+        <v>34700</v>
+      </c>
+      <c r="B341" s="7">
+        <v>459.21</v>
+      </c>
+      <c r="C341" s="7">
+        <v>471.36</v>
+      </c>
+      <c r="D341" s="7">
+        <v>457.2</v>
+      </c>
+      <c r="E341" s="7">
+        <v>470.42</v>
+      </c>
+      <c r="F341" s="7">
+        <v>470.42</v>
+      </c>
+      <c r="G341" s="6">
+        <v>6852060000</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A342" s="4">
+        <v>34669</v>
+      </c>
+      <c r="B342" s="7">
+        <v>453.55</v>
+      </c>
+      <c r="C342" s="7">
+        <v>462.73</v>
+      </c>
+      <c r="D342" s="7">
+        <v>442.88</v>
+      </c>
+      <c r="E342" s="7">
+        <v>459.27</v>
+      </c>
+      <c r="F342" s="7">
+        <v>459.27</v>
+      </c>
+      <c r="G342" s="6">
+        <v>6351530000</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A343" s="4">
+        <v>34639</v>
+      </c>
+      <c r="B343" s="7">
+        <v>472.26</v>
+      </c>
+      <c r="C343" s="7">
+        <v>472.26</v>
+      </c>
+      <c r="D343" s="7">
+        <v>444.18</v>
+      </c>
+      <c r="E343" s="7">
+        <v>453.69</v>
+      </c>
+      <c r="F343" s="7">
+        <v>453.69</v>
+      </c>
+      <c r="G343" s="6">
+        <v>6251240000</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A344" s="4">
+        <v>34607</v>
+      </c>
+      <c r="B344" s="7">
+        <v>462.69</v>
+      </c>
+      <c r="C344" s="7">
+        <v>474.74</v>
+      </c>
+      <c r="D344" s="7">
+        <v>449.27</v>
+      </c>
+      <c r="E344" s="7">
+        <v>472.35</v>
+      </c>
+      <c r="F344" s="7">
+        <v>472.35</v>
+      </c>
+      <c r="G344" s="6">
+        <v>6344700000</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A345" s="4">
+        <v>34577</v>
+      </c>
+      <c r="B345" s="7">
+        <v>475.49</v>
+      </c>
+      <c r="C345" s="7">
+        <v>475.49</v>
+      </c>
+      <c r="D345" s="7">
+        <v>458.47</v>
+      </c>
+      <c r="E345" s="7">
+        <v>462.71</v>
+      </c>
+      <c r="F345" s="7">
+        <v>462.71</v>
+      </c>
+      <c r="G345" s="6">
+        <v>6152870000</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A346" s="4">
+        <v>34546</v>
+      </c>
+      <c r="B346" s="7">
+        <v>458.28</v>
+      </c>
+      <c r="C346" s="7">
+        <v>477.59</v>
+      </c>
+      <c r="D346" s="7">
+        <v>456.08</v>
+      </c>
+      <c r="E346" s="7">
+        <v>475.49</v>
+      </c>
+      <c r="F346" s="7">
+        <v>475.49</v>
+      </c>
+      <c r="G346" s="6">
+        <v>6398750000</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A347" s="4">
+        <v>34515</v>
+      </c>
+      <c r="B347" s="7">
+        <v>444.27</v>
+      </c>
+      <c r="C347" s="7">
+        <v>459.33</v>
+      </c>
+      <c r="D347" s="7">
+        <v>443.58</v>
+      </c>
+      <c r="E347" s="7">
+        <v>458.26</v>
+      </c>
+      <c r="F347" s="7">
+        <v>458.26</v>
+      </c>
+      <c r="G347" s="6">
+        <v>4980100000</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A348" s="4">
+        <v>34485</v>
+      </c>
+      <c r="B348" s="7">
+        <v>456.5</v>
+      </c>
+      <c r="C348" s="7">
+        <v>463.23</v>
+      </c>
+      <c r="D348" s="7">
+        <v>439.83</v>
+      </c>
+      <c r="E348" s="7">
+        <v>444.27</v>
+      </c>
+      <c r="F348" s="7">
+        <v>444.27</v>
+      </c>
+      <c r="G348" s="6">
+        <v>5852670000</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A349" s="4">
+        <v>34454</v>
+      </c>
+      <c r="B349" s="7">
+        <v>450.91</v>
+      </c>
+      <c r="C349" s="7">
+        <v>457.77</v>
+      </c>
+      <c r="D349" s="7">
+        <v>440.78</v>
+      </c>
+      <c r="E349" s="7">
+        <v>456.5</v>
+      </c>
+      <c r="F349" s="7">
+        <v>456.5</v>
+      </c>
+      <c r="G349" s="6">
+        <v>5675970000</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A350" s="4">
+        <v>34425</v>
+      </c>
+      <c r="B350" s="7">
+        <v>445.66</v>
+      </c>
+      <c r="C350" s="7">
+        <v>452.79</v>
+      </c>
+      <c r="D350" s="7">
+        <v>435.86</v>
+      </c>
+      <c r="E350" s="7">
+        <v>450.91</v>
+      </c>
+      <c r="F350" s="7">
+        <v>450.91</v>
+      </c>
+      <c r="G350" s="6">
+        <v>5735010000</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A351" s="4">
+        <v>34394</v>
+      </c>
+      <c r="B351" s="7">
+        <v>467.19</v>
+      </c>
+      <c r="C351" s="7">
+        <v>471.09</v>
+      </c>
+      <c r="D351" s="7">
+        <v>436.16</v>
+      </c>
+      <c r="E351" s="7">
+        <v>445.77</v>
+      </c>
+      <c r="F351" s="7">
+        <v>445.77</v>
+      </c>
+      <c r="G351" s="6">
+        <v>7225010000</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A352" s="4">
+        <v>34366</v>
+      </c>
+      <c r="B352" s="7">
+        <v>481.6</v>
+      </c>
+      <c r="C352" s="7">
+        <v>482.23</v>
+      </c>
+      <c r="D352" s="7">
+        <v>464.26</v>
+      </c>
+      <c r="E352" s="7">
+        <v>467.14</v>
+      </c>
+      <c r="F352" s="7">
+        <v>467.14</v>
+      </c>
+      <c r="G352" s="6">
+        <v>5853100000</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A353" s="4">
+        <v>34335</v>
+      </c>
+      <c r="B353" s="7">
+        <v>466.51</v>
+      </c>
+      <c r="C353" s="7">
+        <v>482.85</v>
+      </c>
+      <c r="D353" s="7">
+        <v>464.36</v>
+      </c>
+      <c r="E353" s="7">
+        <v>481.61</v>
+      </c>
+      <c r="F353" s="7">
+        <v>481.61</v>
+      </c>
+      <c r="G353" s="6">
+        <v>6627390000</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A354" s="4">
+        <v>34304</v>
+      </c>
+      <c r="B354" s="7">
+        <v>461.93</v>
+      </c>
+      <c r="C354" s="7">
+        <v>471.29</v>
+      </c>
+      <c r="D354" s="7">
+        <v>461.45</v>
+      </c>
+      <c r="E354" s="7">
+        <v>466.45</v>
+      </c>
+      <c r="F354" s="7">
+        <v>466.45</v>
+      </c>
+      <c r="G354" s="6">
+        <v>5791210000</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A355" s="4">
+        <v>34274</v>
+      </c>
+      <c r="B355" s="7">
+        <v>467.83</v>
+      </c>
+      <c r="C355" s="7">
+        <v>469.11</v>
+      </c>
+      <c r="D355" s="7">
+        <v>454.36</v>
+      </c>
+      <c r="E355" s="7">
+        <v>461.79</v>
+      </c>
+      <c r="F355" s="7">
+        <v>461.79</v>
+      </c>
+      <c r="G355" s="6">
+        <v>5876610000</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A356" s="4">
+        <v>34242</v>
+      </c>
+      <c r="B356" s="7">
+        <v>458.93</v>
+      </c>
+      <c r="C356" s="7">
+        <v>471.1</v>
+      </c>
+      <c r="D356" s="7">
+        <v>456.4</v>
+      </c>
+      <c r="E356" s="7">
+        <v>467.83</v>
+      </c>
+      <c r="F356" s="7">
+        <v>467.83</v>
+      </c>
+      <c r="G356" s="6">
+        <v>5940460000</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A357" s="4">
+        <v>34212</v>
+      </c>
+      <c r="B357" s="7">
+        <v>463.55</v>
+      </c>
+      <c r="C357" s="7">
+        <v>463.8</v>
+      </c>
+      <c r="D357" s="7">
+        <v>449.64</v>
+      </c>
+      <c r="E357" s="7">
+        <v>458.93</v>
+      </c>
+      <c r="F357" s="7">
+        <v>458.93</v>
+      </c>
+      <c r="G357" s="6">
+        <v>5552720000</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A358" s="4">
+        <v>34181</v>
+      </c>
+      <c r="B358" s="7">
+        <v>448.13</v>
+      </c>
+      <c r="C358" s="7">
+        <v>463.56</v>
+      </c>
+      <c r="D358" s="7">
+        <v>446.94</v>
+      </c>
+      <c r="E358" s="7">
+        <v>463.56</v>
+      </c>
+      <c r="F358" s="7">
+        <v>463.56</v>
+      </c>
+      <c r="G358" s="6">
+        <v>5506200000</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A359" s="4">
+        <v>34150</v>
+      </c>
+      <c r="B359" s="7">
+        <v>450.54</v>
+      </c>
+      <c r="C359" s="7">
+        <v>451.15</v>
+      </c>
+      <c r="D359" s="7">
+        <v>441.4</v>
+      </c>
+      <c r="E359" s="7">
+        <v>448.13</v>
+      </c>
+      <c r="F359" s="7">
+        <v>448.13</v>
+      </c>
+      <c r="G359" s="6">
+        <v>5308530000</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A360" s="4">
+        <v>34120</v>
+      </c>
+      <c r="B360" s="7">
+        <v>450.23</v>
+      </c>
+      <c r="C360" s="7">
+        <v>455.63</v>
+      </c>
+      <c r="D360" s="7">
+        <v>442.5</v>
+      </c>
+      <c r="E360" s="7">
+        <v>450.53</v>
+      </c>
+      <c r="F360" s="7">
+        <v>450.53</v>
+      </c>
+      <c r="G360" s="6">
+        <v>5544400000</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A361" s="4">
+        <v>34089</v>
+      </c>
+      <c r="B361" s="7">
+        <v>440.19</v>
+      </c>
+      <c r="C361" s="7">
+        <v>454.55</v>
+      </c>
+      <c r="D361" s="7">
+        <v>436.86</v>
+      </c>
+      <c r="E361" s="7">
+        <v>450.19</v>
+      </c>
+      <c r="F361" s="7">
+        <v>450.19</v>
+      </c>
+      <c r="G361" s="6">
+        <v>5108640000</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A362" s="4">
+        <v>34060</v>
+      </c>
+      <c r="B362" s="7">
+        <v>451.67</v>
+      </c>
+      <c r="C362" s="7">
+        <v>452.63</v>
+      </c>
+      <c r="D362" s="7">
+        <v>432.3</v>
+      </c>
+      <c r="E362" s="7">
+        <v>440.19</v>
+      </c>
+      <c r="F362" s="7">
+        <v>440.19</v>
+      </c>
+      <c r="G362" s="6">
+        <v>5853170000</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A363" s="4">
+        <v>34029</v>
+      </c>
+      <c r="B363" s="7">
+        <v>443.38</v>
+      </c>
+      <c r="C363" s="7">
+        <v>456.76</v>
+      </c>
+      <c r="D363" s="7">
+        <v>441.07</v>
+      </c>
+      <c r="E363" s="7">
+        <v>451.67</v>
+      </c>
+      <c r="F363" s="7">
+        <v>451.67</v>
+      </c>
+      <c r="G363" s="6">
+        <v>5766950000</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A364" s="4">
+        <v>34001</v>
+      </c>
+      <c r="B364" s="7">
+        <v>438.78</v>
+      </c>
+      <c r="C364" s="7">
+        <v>450.04</v>
+      </c>
+      <c r="D364" s="7">
+        <v>428.25</v>
+      </c>
+      <c r="E364" s="7">
+        <v>443.38</v>
+      </c>
+      <c r="F364" s="7">
+        <v>443.38</v>
+      </c>
+      <c r="G364" s="6">
+        <v>5442450000</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A365" s="4">
+        <v>33970</v>
+      </c>
+      <c r="B365" s="7">
+        <v>435.7</v>
+      </c>
+      <c r="C365" s="7">
+        <v>442.66</v>
+      </c>
+      <c r="D365" s="7">
+        <v>426.88</v>
+      </c>
+      <c r="E365" s="7">
+        <v>438.78</v>
+      </c>
+      <c r="F365" s="7">
+        <v>438.78</v>
+      </c>
+      <c r="G365" s="6">
+        <v>5280850000</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A366" s="4">
+        <v>33939</v>
+      </c>
+      <c r="B366" s="7">
+        <v>431.35</v>
+      </c>
+      <c r="C366" s="7">
+        <v>442.65</v>
+      </c>
+      <c r="D366" s="7">
+        <v>428.61</v>
+      </c>
+      <c r="E366" s="7">
+        <v>435.71</v>
+      </c>
+      <c r="F366" s="7">
+        <v>435.71</v>
+      </c>
+      <c r="G366" s="6">
+        <v>4876150000</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A367" s="4">
+        <v>33909</v>
+      </c>
+      <c r="B367" s="7">
+        <v>418.66</v>
+      </c>
+      <c r="C367" s="7">
+        <v>431.93</v>
+      </c>
+      <c r="D367" s="7">
+        <v>415.58</v>
+      </c>
+      <c r="E367" s="7">
+        <v>431.35</v>
+      </c>
+      <c r="F367" s="7">
+        <v>431.35</v>
+      </c>
+      <c r="G367" s="6">
+        <v>4148770000</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A368" s="4">
+        <v>33877</v>
+      </c>
+      <c r="B368" s="7">
+        <v>417.8</v>
+      </c>
+      <c r="C368" s="7">
+        <v>421.16</v>
+      </c>
+      <c r="D368" s="7">
+        <v>396.8</v>
+      </c>
+      <c r="E368" s="7">
+        <v>418.68</v>
+      </c>
+      <c r="F368" s="7">
+        <v>418.68</v>
+      </c>
+      <c r="G368" s="6">
+        <v>4507010000</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A369" s="4">
+        <v>33847</v>
+      </c>
+      <c r="B369" s="7">
+        <v>414.03</v>
+      </c>
+      <c r="C369" s="7">
+        <v>425.27</v>
+      </c>
+      <c r="D369" s="7">
+        <v>412.71</v>
+      </c>
+      <c r="E369" s="7">
+        <v>417.8</v>
+      </c>
+      <c r="F369" s="7">
+        <v>417.8</v>
+      </c>
+      <c r="G369" s="6">
+        <v>4023850000</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A370" s="4">
+        <v>33816</v>
+      </c>
+      <c r="B370" s="7">
+        <v>424.19</v>
+      </c>
+      <c r="C370" s="7">
+        <v>425.14</v>
+      </c>
+      <c r="D370" s="7">
+        <v>408.3</v>
+      </c>
+      <c r="E370" s="7">
+        <v>414.03</v>
+      </c>
+      <c r="F370" s="7">
+        <v>414.03</v>
+      </c>
+      <c r="G370" s="6">
+        <v>3653820000</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A371" s="4">
+        <v>33785</v>
+      </c>
+      <c r="B371" s="7">
+        <v>408.2</v>
+      </c>
+      <c r="C371" s="7">
+        <v>424.8</v>
+      </c>
+      <c r="D371" s="7">
+        <v>407.2</v>
+      </c>
+      <c r="E371" s="7">
+        <v>424.21</v>
+      </c>
+      <c r="F371" s="7">
+        <v>424.21</v>
+      </c>
+      <c r="G371" s="6">
+        <v>4265220000</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A372" s="4">
+        <v>33755</v>
+      </c>
+      <c r="B372" s="7">
+        <v>415.35</v>
+      </c>
+      <c r="C372" s="7">
+        <v>417.3</v>
+      </c>
+      <c r="D372" s="7">
+        <v>399.92</v>
+      </c>
+      <c r="E372" s="7">
+        <v>408.14</v>
+      </c>
+      <c r="F372" s="7">
+        <v>408.14</v>
+      </c>
+      <c r="G372" s="6">
+        <v>4259830000</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A373" s="4">
+        <v>33724</v>
+      </c>
+      <c r="B373" s="7">
+        <v>414.95</v>
+      </c>
+      <c r="C373" s="7">
+        <v>418.75</v>
+      </c>
+      <c r="D373" s="7">
+        <v>409.85</v>
+      </c>
+      <c r="E373" s="7">
+        <v>415.35</v>
+      </c>
+      <c r="F373" s="7">
+        <v>415.35</v>
+      </c>
+      <c r="G373" s="6">
+        <v>3643980000</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A374" s="4">
+        <v>33695</v>
+      </c>
+      <c r="B374" s="7">
+        <v>403.67</v>
+      </c>
+      <c r="C374" s="7">
+        <v>416.28</v>
+      </c>
+      <c r="D374" s="7">
+        <v>392.41</v>
+      </c>
+      <c r="E374" s="7">
+        <v>414.95</v>
+      </c>
+      <c r="F374" s="7">
+        <v>414.95</v>
+      </c>
+      <c r="G374" s="6">
+        <v>4315840000</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A375" s="4">
+        <v>33664</v>
+      </c>
+      <c r="B375" s="7">
+        <v>412.68</v>
+      </c>
+      <c r="C375" s="7">
+        <v>413.78</v>
+      </c>
+      <c r="D375" s="7">
+        <v>401.94</v>
+      </c>
+      <c r="E375" s="7">
+        <v>403.69</v>
+      </c>
+      <c r="F375" s="7">
+        <v>403.69</v>
+      </c>
+      <c r="G375" s="6">
+        <v>4066240000</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A376" s="4">
+        <v>33635</v>
+      </c>
+      <c r="B376" s="7">
+        <v>408.79</v>
+      </c>
+      <c r="C376" s="7">
+        <v>418.08</v>
+      </c>
+      <c r="D376" s="7">
+        <v>406.34</v>
+      </c>
+      <c r="E376" s="7">
+        <v>412.7</v>
+      </c>
+      <c r="F376" s="7">
+        <v>412.7</v>
+      </c>
+      <c r="G376" s="6">
+        <v>4267610000</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A377" s="4">
+        <v>33604</v>
+      </c>
+      <c r="B377" s="7">
+        <v>417.03</v>
+      </c>
+      <c r="C377" s="7">
+        <v>421.18</v>
+      </c>
+      <c r="D377" s="7">
+        <v>408.64</v>
+      </c>
+      <c r="E377" s="7">
+        <v>408.78</v>
+      </c>
+      <c r="F377" s="7">
+        <v>408.78</v>
+      </c>
+      <c r="G377" s="6">
+        <v>5286280000</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A378" s="4">
+        <v>33573</v>
+      </c>
+      <c r="B378" s="7">
+        <v>375.11</v>
+      </c>
+      <c r="C378" s="7">
+        <v>418.32</v>
+      </c>
+      <c r="D378" s="7">
+        <v>371.36</v>
+      </c>
+      <c r="E378" s="7">
+        <v>417.09</v>
+      </c>
+      <c r="F378" s="7">
+        <v>417.09</v>
+      </c>
+      <c r="G378" s="6">
+        <v>4155310000</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A379" s="4">
+        <v>33543</v>
+      </c>
+      <c r="B379" s="7">
+        <v>392.46</v>
+      </c>
+      <c r="C379" s="7">
+        <v>398.22</v>
+      </c>
+      <c r="D379" s="7">
+        <v>371.63</v>
+      </c>
+      <c r="E379" s="7">
+        <v>375.22</v>
+      </c>
+      <c r="F379" s="7">
+        <v>375.22</v>
+      </c>
+      <c r="G379" s="6">
+        <v>3737620000</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A380" s="4">
+        <v>33511</v>
+      </c>
+      <c r="B380" s="7">
+        <v>387.86</v>
+      </c>
+      <c r="C380" s="7">
+        <v>393.81</v>
+      </c>
+      <c r="D380" s="7">
+        <v>376.11</v>
+      </c>
+      <c r="E380" s="7">
+        <v>392.45</v>
+      </c>
+      <c r="F380" s="7">
+        <v>392.45</v>
+      </c>
+      <c r="G380" s="6">
+        <v>4082380000</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A381" s="4">
+        <v>33481</v>
+      </c>
+      <c r="B381" s="7">
+        <v>395.43</v>
+      </c>
+      <c r="C381" s="7">
+        <v>397.62</v>
+      </c>
+      <c r="D381" s="7">
+        <v>382.77</v>
+      </c>
+      <c r="E381" s="7">
+        <v>387.86</v>
+      </c>
+      <c r="F381" s="7">
+        <v>387.86</v>
+      </c>
+      <c r="G381" s="6">
+        <v>3260990000</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A382" s="4">
+        <v>33450</v>
+      </c>
+      <c r="B382" s="7">
+        <v>387.81</v>
+      </c>
+      <c r="C382" s="7">
+        <v>396.82</v>
+      </c>
+      <c r="D382" s="7">
+        <v>374.09</v>
+      </c>
+      <c r="E382" s="7">
+        <v>395.43</v>
+      </c>
+      <c r="F382" s="7">
+        <v>395.43</v>
+      </c>
+      <c r="G382" s="6">
+        <v>3713820000</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A383" s="4">
+        <v>33419</v>
+      </c>
+      <c r="B383" s="7">
+        <v>371.18</v>
+      </c>
+      <c r="C383" s="7">
+        <v>387.81</v>
+      </c>
+      <c r="D383" s="7">
+        <v>370.92</v>
+      </c>
+      <c r="E383" s="7">
+        <v>387.81</v>
+      </c>
+      <c r="F383" s="7">
+        <v>387.81</v>
+      </c>
+      <c r="G383" s="6">
+        <v>3481570000</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A384" s="4">
+        <v>33389</v>
+      </c>
+      <c r="B384" s="7">
+        <v>389.81</v>
+      </c>
+      <c r="C384" s="7">
+        <v>389.81</v>
+      </c>
+      <c r="D384" s="7">
+        <v>367.98</v>
+      </c>
+      <c r="E384" s="7">
+        <v>371.16</v>
+      </c>
+      <c r="F384" s="7">
+        <v>371.16</v>
+      </c>
+      <c r="G384" s="6">
+        <v>3258730000</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A385" s="4">
+        <v>33358</v>
+      </c>
+      <c r="B385" s="7">
+        <v>375.35</v>
+      </c>
+      <c r="C385" s="7">
+        <v>389.85</v>
+      </c>
+      <c r="D385" s="7">
+        <v>365.83</v>
+      </c>
+      <c r="E385" s="7">
+        <v>389.83</v>
+      </c>
+      <c r="F385" s="7">
+        <v>389.83</v>
+      </c>
+      <c r="G385" s="6">
+        <v>3739700000</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A386" s="4">
+        <v>33329</v>
+      </c>
+      <c r="B386" s="7">
+        <v>375.22</v>
+      </c>
+      <c r="C386" s="7">
+        <v>391.26</v>
+      </c>
+      <c r="D386" s="7">
+        <v>370.27</v>
+      </c>
+      <c r="E386" s="7">
+        <v>375.34</v>
+      </c>
+      <c r="F386" s="7">
+        <v>375.34</v>
+      </c>
+      <c r="G386" s="6">
+        <v>4017200000</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A387" s="4">
+        <v>33298</v>
+      </c>
+      <c r="B387" s="7">
+        <v>367.07</v>
+      </c>
+      <c r="C387" s="7">
+        <v>379.66</v>
+      </c>
+      <c r="D387" s="7">
+        <v>363.73</v>
+      </c>
+      <c r="E387" s="7">
+        <v>375.22</v>
+      </c>
+      <c r="F387" s="7">
+        <v>375.22</v>
+      </c>
+      <c r="G387" s="6">
+        <v>3927920000</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A388" s="4">
+        <v>33270</v>
+      </c>
+      <c r="B388" s="7">
+        <v>343.91</v>
+      </c>
+      <c r="C388" s="7">
+        <v>370.96</v>
+      </c>
+      <c r="D388" s="7">
+        <v>340.37</v>
+      </c>
+      <c r="E388" s="7">
+        <v>367.07</v>
+      </c>
+      <c r="F388" s="7">
+        <v>367.07</v>
+      </c>
+      <c r="G388" s="6">
+        <v>4303170000</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A389" s="4">
+        <v>33239</v>
+      </c>
+      <c r="B389" s="7">
+        <v>330.2</v>
+      </c>
+      <c r="C389" s="7">
+        <v>343.93</v>
+      </c>
+      <c r="D389" s="7">
+        <v>309.35000000000002</v>
+      </c>
+      <c r="E389" s="7">
+        <v>343.93</v>
+      </c>
+      <c r="F389" s="7">
+        <v>343.93</v>
+      </c>
+      <c r="G389" s="6">
+        <v>3660240000</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A390" s="4">
+        <v>33208</v>
+      </c>
+      <c r="B390" s="7">
+        <v>322.23</v>
+      </c>
+      <c r="C390" s="7">
+        <v>333.98</v>
+      </c>
+      <c r="D390" s="7">
+        <v>321.97000000000003</v>
+      </c>
+      <c r="E390" s="7">
+        <v>330.22</v>
+      </c>
+      <c r="F390" s="7">
+        <v>330.22</v>
+      </c>
+      <c r="G390" s="6">
+        <v>3116830000</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A391" s="4">
+        <v>33178</v>
+      </c>
+      <c r="B391" s="7">
+        <v>303.99</v>
+      </c>
+      <c r="C391" s="7">
+        <v>323.02</v>
+      </c>
+      <c r="D391" s="7">
+        <v>301.61</v>
+      </c>
+      <c r="E391" s="7">
+        <v>322.22000000000003</v>
+      </c>
+      <c r="F391" s="7">
+        <v>322.22000000000003</v>
+      </c>
+      <c r="G391" s="6">
+        <v>3149770000</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A392" s="4">
+        <v>33146</v>
+      </c>
+      <c r="B392" s="7">
+        <v>306.10000000000002</v>
+      </c>
+      <c r="C392" s="7">
+        <v>319.69</v>
+      </c>
+      <c r="D392" s="7">
+        <v>294.51</v>
+      </c>
+      <c r="E392" s="7">
+        <v>304</v>
+      </c>
+      <c r="F392" s="7">
+        <v>304</v>
+      </c>
+      <c r="G392" s="6">
+        <v>3671900000</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A393" s="4">
+        <v>33116</v>
+      </c>
+      <c r="B393" s="7">
+        <v>322.56</v>
+      </c>
+      <c r="C393" s="7">
+        <v>326.52999999999997</v>
+      </c>
+      <c r="D393" s="7">
+        <v>295.98</v>
+      </c>
+      <c r="E393" s="7">
+        <v>306.05</v>
+      </c>
+      <c r="F393" s="7">
+        <v>306.05</v>
+      </c>
+      <c r="G393" s="6">
+        <v>2687280000</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A394" s="4">
+        <v>33085</v>
+      </c>
+      <c r="B394" s="7">
+        <v>356.15</v>
+      </c>
+      <c r="C394" s="7">
+        <v>357.35</v>
+      </c>
+      <c r="D394" s="7">
+        <v>306.18</v>
+      </c>
+      <c r="E394" s="7">
+        <v>322.56</v>
+      </c>
+      <c r="F394" s="7">
+        <v>322.56</v>
+      </c>
+      <c r="G394" s="6">
+        <v>4020730000</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A395" s="4">
+        <v>33054</v>
+      </c>
+      <c r="B395" s="7">
+        <v>358.02</v>
+      </c>
+      <c r="C395" s="7">
+        <v>369.78</v>
+      </c>
+      <c r="D395" s="7">
+        <v>350.09</v>
+      </c>
+      <c r="E395" s="7">
+        <v>356.15</v>
+      </c>
+      <c r="F395" s="7">
+        <v>356.15</v>
+      </c>
+      <c r="G395" s="6">
+        <v>3373540000</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A396" s="4">
+        <v>33024</v>
+      </c>
+      <c r="B396" s="7">
+        <v>361.26</v>
+      </c>
+      <c r="C396" s="7">
+        <v>368.78</v>
+      </c>
+      <c r="D396" s="7">
+        <v>351.23</v>
+      </c>
+      <c r="E396" s="7">
+        <v>358.02</v>
+      </c>
+      <c r="F396" s="7">
+        <v>358.02</v>
+      </c>
+      <c r="G396" s="6">
+        <v>3226280000</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A397" s="4">
+        <v>32993</v>
+      </c>
+      <c r="B397" s="7">
+        <v>330.8</v>
+      </c>
+      <c r="C397" s="7">
+        <v>362.26</v>
+      </c>
+      <c r="D397" s="7">
+        <v>330.8</v>
+      </c>
+      <c r="E397" s="7">
+        <v>361.23</v>
+      </c>
+      <c r="F397" s="7">
+        <v>361.23</v>
+      </c>
+      <c r="G397" s="6">
+        <v>3596680000</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A398" s="4">
+        <v>32964</v>
+      </c>
+      <c r="B398" s="7">
+        <v>339.94</v>
+      </c>
+      <c r="C398" s="7">
+        <v>347.3</v>
+      </c>
+      <c r="D398" s="7">
+        <v>327.76</v>
+      </c>
+      <c r="E398" s="7">
+        <v>330.8</v>
+      </c>
+      <c r="F398" s="7">
+        <v>330.8</v>
+      </c>
+      <c r="G398" s="6">
+        <v>2801220000</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A399" s="4">
+        <v>32933</v>
+      </c>
+      <c r="B399" s="7">
+        <v>331.89</v>
+      </c>
+      <c r="C399" s="7">
+        <v>344.49</v>
+      </c>
+      <c r="D399" s="7">
+        <v>331.08</v>
+      </c>
+      <c r="E399" s="7">
+        <v>339.94</v>
+      </c>
+      <c r="F399" s="7">
+        <v>339.94</v>
+      </c>
+      <c r="G399" s="6">
+        <v>3283280000</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A400" s="4">
+        <v>32905</v>
+      </c>
+      <c r="B400" s="7">
+        <v>329.08</v>
+      </c>
+      <c r="C400" s="7">
+        <v>336.09</v>
+      </c>
+      <c r="D400" s="7">
+        <v>322.10000000000002</v>
+      </c>
+      <c r="E400" s="7">
+        <v>331.89</v>
+      </c>
+      <c r="F400" s="7">
+        <v>331.89</v>
+      </c>
+      <c r="G400" s="6">
+        <v>2961970000</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A401" s="4">
+        <v>32874</v>
+      </c>
+      <c r="B401" s="7">
+        <v>353.4</v>
+      </c>
+      <c r="C401" s="7">
+        <v>360.59</v>
+      </c>
+      <c r="D401" s="7">
+        <v>319.83</v>
+      </c>
+      <c r="E401" s="7">
+        <v>329.08</v>
+      </c>
+      <c r="F401" s="7">
+        <v>329.08</v>
+      </c>
+      <c r="G401" s="6">
+        <v>3793250000</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A402" s="4">
+        <v>32843</v>
+      </c>
+      <c r="B402" s="7">
+        <v>346.01</v>
+      </c>
+      <c r="C402" s="7">
+        <v>354.1</v>
+      </c>
+      <c r="D402" s="7">
+        <v>339.63</v>
+      </c>
+      <c r="E402" s="7">
+        <v>353.4</v>
+      </c>
+      <c r="F402" s="7">
+        <v>353.4</v>
+      </c>
+      <c r="G402" s="6">
+        <v>3213420000</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A403" s="4">
+        <v>32813</v>
+      </c>
+      <c r="B403" s="7">
+        <v>340.36</v>
+      </c>
+      <c r="C403" s="7">
+        <v>346.5</v>
+      </c>
+      <c r="D403" s="7">
+        <v>330.91</v>
+      </c>
+      <c r="E403" s="7">
+        <v>345.99</v>
+      </c>
+      <c r="F403" s="7">
+        <v>345.99</v>
+      </c>
+      <c r="G403" s="6">
+        <v>3032160000</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A404" s="4">
+        <v>32781</v>
+      </c>
+      <c r="B404" s="7">
+        <v>349.15</v>
+      </c>
+      <c r="C404" s="7">
+        <v>360.44</v>
+      </c>
+      <c r="D404" s="7">
+        <v>327.12</v>
+      </c>
+      <c r="E404" s="7">
+        <v>340.36</v>
+      </c>
+      <c r="F404" s="7">
+        <v>340.36</v>
+      </c>
+      <c r="G404" s="6">
+        <v>4012670000</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A405" s="4">
+        <v>32751</v>
+      </c>
+      <c r="B405" s="7">
+        <v>351.45</v>
+      </c>
+      <c r="C405" s="7">
+        <v>354.13</v>
+      </c>
+      <c r="D405" s="7">
+        <v>341.37</v>
+      </c>
+      <c r="E405" s="7">
+        <v>349.15</v>
+      </c>
+      <c r="F405" s="7">
+        <v>349.15</v>
+      </c>
+      <c r="G405" s="6">
+        <v>3035020000</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A406" s="4">
+        <v>32720</v>
+      </c>
+      <c r="B406" s="7">
+        <v>346.08</v>
+      </c>
+      <c r="C406" s="7">
+        <v>352.73</v>
+      </c>
+      <c r="D406" s="7">
+        <v>339</v>
+      </c>
+      <c r="E406" s="7">
+        <v>351.45</v>
+      </c>
+      <c r="F406" s="7">
+        <v>351.45</v>
+      </c>
+      <c r="G406" s="6">
+        <v>3949100000</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A407" s="4">
+        <v>32689</v>
+      </c>
+      <c r="B407" s="7">
+        <v>317.98</v>
+      </c>
+      <c r="C407" s="7">
+        <v>346.08</v>
+      </c>
+      <c r="D407" s="7">
+        <v>317.26</v>
+      </c>
+      <c r="E407" s="7">
+        <v>346.08</v>
+      </c>
+      <c r="F407" s="7">
+        <v>346.08</v>
+      </c>
+      <c r="G407" s="6">
+        <v>3249030000</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A408" s="4">
+        <v>32659</v>
+      </c>
+      <c r="B408" s="7">
+        <v>320.51</v>
+      </c>
+      <c r="C408" s="7">
+        <v>329.19</v>
+      </c>
+      <c r="D408" s="7">
+        <v>314.38</v>
+      </c>
+      <c r="E408" s="7">
+        <v>317.98</v>
+      </c>
+      <c r="F408" s="7">
+        <v>317.98</v>
+      </c>
+      <c r="G408" s="6">
+        <v>3966590000</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A409" s="4">
+        <v>32628</v>
+      </c>
+      <c r="B409" s="7">
+        <v>309.64</v>
+      </c>
+      <c r="C409" s="7">
+        <v>323.06</v>
+      </c>
+      <c r="D409" s="7">
+        <v>304.06</v>
+      </c>
+      <c r="E409" s="7">
+        <v>320.52</v>
+      </c>
+      <c r="F409" s="7">
+        <v>320.52</v>
+      </c>
+      <c r="G409" s="6">
+        <v>3747320000</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A410" s="4">
+        <v>32599</v>
+      </c>
+      <c r="B410" s="7">
+        <v>294.87</v>
+      </c>
+      <c r="C410" s="7">
+        <v>310.45</v>
+      </c>
+      <c r="D410" s="7">
+        <v>294.35000000000002</v>
+      </c>
+      <c r="E410" s="7">
+        <v>309.64</v>
+      </c>
+      <c r="F410" s="7">
+        <v>309.64</v>
+      </c>
+      <c r="G410" s="6">
+        <v>3237250000</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A411" s="4">
+        <v>32568</v>
+      </c>
+      <c r="B411" s="7">
+        <v>288.86</v>
+      </c>
+      <c r="C411" s="7">
+        <v>299.99</v>
+      </c>
+      <c r="D411" s="7">
+        <v>286.45999999999998</v>
+      </c>
+      <c r="E411" s="7">
+        <v>294.87</v>
+      </c>
+      <c r="F411" s="7">
+        <v>294.87</v>
+      </c>
+      <c r="G411" s="6">
+        <v>3504530000</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A412" s="4">
+        <v>32540</v>
+      </c>
+      <c r="B412" s="7">
+        <v>297.47000000000003</v>
+      </c>
+      <c r="C412" s="7">
+        <v>300.57</v>
+      </c>
+      <c r="D412" s="7">
+        <v>286.26</v>
+      </c>
+      <c r="E412" s="7">
+        <v>288.86</v>
+      </c>
+      <c r="F412" s="7">
+        <v>288.86</v>
+      </c>
+      <c r="G412" s="6">
+        <v>3216280000</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A413" s="4">
+        <v>32509</v>
+      </c>
+      <c r="B413" s="7">
+        <v>277.72000000000003</v>
+      </c>
+      <c r="C413" s="7">
+        <v>297.51</v>
+      </c>
+      <c r="D413" s="7">
+        <v>273.81</v>
+      </c>
+      <c r="E413" s="7">
+        <v>297.47000000000003</v>
+      </c>
+      <c r="F413" s="7">
+        <v>297.47000000000003</v>
+      </c>
+      <c r="G413" s="6">
+        <v>3532220000</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A414" s="4">
+        <v>32478</v>
+      </c>
+      <c r="B414" s="7">
+        <v>273.68</v>
+      </c>
+      <c r="C414" s="7">
+        <v>280.45</v>
+      </c>
+      <c r="D414" s="7">
+        <v>270.47000000000003</v>
+      </c>
+      <c r="E414" s="7">
+        <v>277.72000000000003</v>
+      </c>
+      <c r="F414" s="7">
+        <v>277.72000000000003</v>
+      </c>
+      <c r="G414" s="6">
+        <v>2844900000</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A415" s="4">
+        <v>32448</v>
+      </c>
+      <c r="B415" s="7">
+        <v>278.97000000000003</v>
+      </c>
+      <c r="C415" s="7">
+        <v>280.37</v>
+      </c>
+      <c r="D415" s="7">
+        <v>262.85000000000002</v>
+      </c>
+      <c r="E415" s="7">
+        <v>273.7</v>
+      </c>
+      <c r="F415" s="7">
+        <v>273.7</v>
+      </c>
+      <c r="G415" s="6">
+        <v>2822820000</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A416" s="4">
+        <v>32416</v>
+      </c>
+      <c r="B416" s="7">
+        <v>271.89</v>
+      </c>
+      <c r="C416" s="7">
+        <v>283.95</v>
+      </c>
+      <c r="D416" s="7">
+        <v>268.83999999999997</v>
+      </c>
+      <c r="E416" s="7">
+        <v>278.97000000000003</v>
+      </c>
+      <c r="F416" s="7">
+        <v>278.97000000000003</v>
+      </c>
+      <c r="G416" s="6">
+        <v>3415160000</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A417" s="4">
+        <v>32386</v>
+      </c>
+      <c r="B417" s="7">
+        <v>261.52</v>
+      </c>
+      <c r="C417" s="7">
+        <v>274.87</v>
+      </c>
+      <c r="D417" s="7">
+        <v>256.98</v>
+      </c>
+      <c r="E417" s="7">
+        <v>271.91000000000003</v>
+      </c>
+      <c r="F417" s="7">
+        <v>271.91000000000003</v>
+      </c>
+      <c r="G417" s="6">
+        <v>3059450000</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A418" s="4">
+        <v>32355</v>
+      </c>
+      <c r="B418" s="7">
+        <v>272.02999999999997</v>
+      </c>
+      <c r="C418" s="7">
+        <v>274.2</v>
+      </c>
+      <c r="D418" s="7">
+        <v>256.52999999999997</v>
+      </c>
+      <c r="E418" s="7">
+        <v>261.52</v>
+      </c>
+      <c r="F418" s="7">
+        <v>261.52</v>
+      </c>
+      <c r="G418" s="6">
+        <v>3327470000</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A419" s="4">
+        <v>32324</v>
+      </c>
+      <c r="B419" s="7">
+        <v>273.5</v>
+      </c>
+      <c r="C419" s="7">
+        <v>276.36</v>
+      </c>
+      <c r="D419" s="7">
+        <v>262.48</v>
+      </c>
+      <c r="E419" s="7">
+        <v>272.02</v>
+      </c>
+      <c r="F419" s="7">
+        <v>272.02</v>
+      </c>
+      <c r="G419" s="6">
+        <v>3338470000</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A420" s="4">
+        <v>32294</v>
+      </c>
+      <c r="B420" s="7">
+        <v>262.16000000000003</v>
+      </c>
+      <c r="C420" s="7">
+        <v>276.88</v>
+      </c>
+      <c r="D420" s="7">
+        <v>262.10000000000002</v>
+      </c>
+      <c r="E420" s="7">
+        <v>273.5</v>
+      </c>
+      <c r="F420" s="7">
+        <v>273.5</v>
+      </c>
+      <c r="G420" s="6">
+        <v>4306710000</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A421" s="4">
+        <v>32263</v>
+      </c>
+      <c r="B421" s="7">
+        <v>261.36</v>
+      </c>
+      <c r="C421" s="7">
+        <v>263.7</v>
+      </c>
+      <c r="D421" s="7">
+        <v>248.85</v>
+      </c>
+      <c r="E421" s="7">
+        <v>262.16000000000003</v>
+      </c>
+      <c r="F421" s="7">
+        <v>262.16000000000003</v>
+      </c>
+      <c r="G421" s="6">
+        <v>3231370000</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A422" s="4">
+        <v>32234</v>
+      </c>
+      <c r="B422" s="7">
+        <v>258.89</v>
+      </c>
+      <c r="C422" s="7">
+        <v>272.05</v>
+      </c>
+      <c r="D422" s="7">
+        <v>254.71</v>
+      </c>
+      <c r="E422" s="7">
+        <v>261.33</v>
+      </c>
+      <c r="F422" s="7">
+        <v>261.33</v>
+      </c>
+      <c r="G422" s="6">
+        <v>3260760000</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A423" s="4">
+        <v>32203</v>
+      </c>
+      <c r="B423" s="7">
+        <v>267.82</v>
+      </c>
+      <c r="C423" s="7">
+        <v>272.64</v>
+      </c>
+      <c r="D423" s="7">
+        <v>256.07</v>
+      </c>
+      <c r="E423" s="7">
+        <v>258.89</v>
+      </c>
+      <c r="F423" s="7">
+        <v>258.89</v>
+      </c>
+      <c r="G423" s="6">
+        <v>4052970000</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A424" s="4">
+        <v>32174</v>
+      </c>
+      <c r="B424" s="7">
+        <v>257.05</v>
+      </c>
+      <c r="C424" s="7">
+        <v>267.82</v>
+      </c>
+      <c r="D424" s="7">
+        <v>247.82</v>
+      </c>
+      <c r="E424" s="7">
+        <v>267.82</v>
+      </c>
+      <c r="F424" s="7">
+        <v>267.82</v>
+      </c>
+      <c r="G424" s="6">
+        <v>3693240000</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A425" s="4">
+        <v>32143</v>
+      </c>
+      <c r="B425" s="7">
+        <v>247.1</v>
+      </c>
+      <c r="C425" s="7">
+        <v>261.77999999999997</v>
+      </c>
+      <c r="D425" s="7">
+        <v>240.17</v>
+      </c>
+      <c r="E425" s="7">
+        <v>257.07</v>
+      </c>
+      <c r="F425" s="7">
+        <v>257.07</v>
+      </c>
+      <c r="G425" s="6">
+        <v>3494700000</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A426" s="4">
+        <v>32112</v>
+      </c>
+      <c r="B426" s="7">
+        <v>230.32</v>
+      </c>
+      <c r="C426" s="7">
+        <v>253.35</v>
+      </c>
+      <c r="D426" s="7">
+        <v>221.24</v>
+      </c>
+      <c r="E426" s="7">
+        <v>247.08</v>
+      </c>
+      <c r="F426" s="7">
+        <v>247.08</v>
+      </c>
+      <c r="G426" s="6">
+        <v>3926750000</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A427" s="4">
+        <v>32082</v>
+      </c>
+      <c r="B427" s="7">
+        <v>251.73</v>
+      </c>
+      <c r="C427" s="7">
+        <v>257.20999999999998</v>
+      </c>
+      <c r="D427" s="7">
+        <v>225.75</v>
+      </c>
+      <c r="E427" s="7">
+        <v>230.3</v>
+      </c>
+      <c r="F427" s="7">
+        <v>230.3</v>
+      </c>
+      <c r="G427" s="6">
+        <v>3589530000</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A428" s="4">
+        <v>32050</v>
+      </c>
+      <c r="B428" s="7">
+        <v>321.83</v>
+      </c>
+      <c r="C428" s="7">
+        <v>328.94</v>
+      </c>
+      <c r="D428" s="7">
+        <v>216.46</v>
+      </c>
+      <c r="E428" s="7">
+        <v>251.79</v>
+      </c>
+      <c r="F428" s="7">
+        <v>251.79</v>
+      </c>
+      <c r="G428" s="6">
+        <v>6094500000</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A429" s="4">
+        <v>32020</v>
+      </c>
+      <c r="B429" s="7">
+        <v>329.81</v>
+      </c>
+      <c r="C429" s="7">
+        <v>332.18</v>
+      </c>
+      <c r="D429" s="7">
+        <v>308.56</v>
+      </c>
+      <c r="E429" s="7">
+        <v>321.83</v>
+      </c>
+      <c r="F429" s="7">
+        <v>321.83</v>
+      </c>
+      <c r="G429" s="6">
+        <v>3723200000</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A430" s="4">
+        <v>31989</v>
+      </c>
+      <c r="B430" s="7">
+        <v>318.62</v>
+      </c>
+      <c r="C430" s="7">
+        <v>337.89</v>
+      </c>
+      <c r="D430" s="7">
+        <v>314.51</v>
+      </c>
+      <c r="E430" s="7">
+        <v>329.8</v>
+      </c>
+      <c r="F430" s="7">
+        <v>329.8</v>
+      </c>
+      <c r="G430" s="6">
+        <v>4062400000</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A431" s="4">
+        <v>31958</v>
+      </c>
+      <c r="B431" s="7">
+        <v>303.99</v>
+      </c>
+      <c r="C431" s="7">
+        <v>318.85000000000002</v>
+      </c>
+      <c r="D431" s="7">
+        <v>302.52999999999997</v>
+      </c>
+      <c r="E431" s="7">
+        <v>318.66000000000003</v>
+      </c>
+      <c r="F431" s="7">
+        <v>318.66000000000003</v>
+      </c>
+      <c r="G431" s="6">
+        <v>3966400000</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A432" s="4">
+        <v>31928</v>
+      </c>
+      <c r="B432" s="7">
+        <v>290.12</v>
+      </c>
+      <c r="C432" s="7">
+        <v>310.27</v>
+      </c>
+      <c r="D432" s="7">
+        <v>286.93</v>
+      </c>
+      <c r="E432" s="7">
+        <v>304</v>
+      </c>
+      <c r="F432" s="7">
+        <v>304</v>
+      </c>
+      <c r="G432" s="6">
+        <v>3595000000</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A433" s="4">
+        <v>31897</v>
+      </c>
+      <c r="B433" s="7">
+        <v>286.99</v>
+      </c>
+      <c r="C433" s="7">
+        <v>298.69</v>
+      </c>
+      <c r="D433" s="7">
+        <v>277.01</v>
+      </c>
+      <c r="E433" s="7">
+        <v>290.10000000000002</v>
+      </c>
+      <c r="F433" s="7">
+        <v>290.10000000000002</v>
+      </c>
+      <c r="G433" s="6">
+        <v>3417700000</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A434" s="4">
+        <v>31868</v>
+      </c>
+      <c r="B434" s="7">
+        <v>291.58999999999997</v>
+      </c>
+      <c r="C434" s="7">
+        <v>303.64999999999998</v>
+      </c>
+      <c r="D434" s="7">
+        <v>275.67</v>
+      </c>
+      <c r="E434" s="7">
+        <v>288.36</v>
+      </c>
+      <c r="F434" s="7">
+        <v>288.36</v>
+      </c>
+      <c r="G434" s="6">
+        <v>3931700000</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A435" s="4">
+        <v>31837</v>
+      </c>
+      <c r="B435" s="7">
+        <v>284.17</v>
+      </c>
+      <c r="C435" s="7">
+        <v>302.72000000000003</v>
+      </c>
+      <c r="D435" s="7">
+        <v>282.3</v>
+      </c>
+      <c r="E435" s="7">
+        <v>291.7</v>
+      </c>
+      <c r="F435" s="7">
+        <v>291.7</v>
+      </c>
+      <c r="G435" s="6">
+        <v>3965100000</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A436" s="4">
+        <v>31809</v>
+      </c>
+      <c r="B436" s="7">
+        <v>274.08</v>
+      </c>
+      <c r="C436" s="7">
+        <v>287.55</v>
+      </c>
+      <c r="D436" s="7">
+        <v>273.16000000000003</v>
+      </c>
+      <c r="E436" s="7">
+        <v>284.2</v>
+      </c>
+      <c r="F436" s="7">
+        <v>284.2</v>
+      </c>
+      <c r="G436" s="6">
+        <v>3485300000</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A437" s="4">
+        <v>31778</v>
+      </c>
+      <c r="B437" s="7">
+        <v>242.17</v>
+      </c>
+      <c r="C437" s="7">
+        <v>280.95999999999998</v>
+      </c>
+      <c r="D437" s="7">
+        <v>242.17</v>
+      </c>
+      <c r="E437" s="7">
+        <v>274.08</v>
+      </c>
+      <c r="F437" s="7">
+        <v>274.08</v>
+      </c>
+      <c r="G437" s="6">
+        <v>4040880000</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A438" s="4">
+        <v>31747</v>
+      </c>
+      <c r="B438" s="7">
+        <v>249.22</v>
+      </c>
+      <c r="C438" s="7">
+        <v>254.87</v>
+      </c>
+      <c r="D438" s="7">
+        <v>241.28</v>
+      </c>
+      <c r="E438" s="7">
+        <v>242.17</v>
+      </c>
+      <c r="F438" s="7">
+        <v>242.17</v>
+      </c>
+      <c r="G438" s="6">
+        <v>3260870000</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A439" s="4">
+        <v>31717</v>
+      </c>
+      <c r="B439" s="7">
+        <v>243.97</v>
+      </c>
+      <c r="C439" s="7">
+        <v>249.22</v>
+      </c>
+      <c r="D439" s="7">
+        <v>235.51</v>
+      </c>
+      <c r="E439" s="7">
+        <v>249.22</v>
+      </c>
+      <c r="F439" s="7">
+        <v>249.22</v>
+      </c>
+      <c r="G439" s="6">
+        <v>2940830000</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A440" s="4">
+        <v>31685</v>
+      </c>
+      <c r="B440" s="7">
+        <v>231.32</v>
+      </c>
+      <c r="C440" s="7">
+        <v>244.51</v>
+      </c>
+      <c r="D440" s="7">
+        <v>231.32</v>
+      </c>
+      <c r="E440" s="7">
+        <v>243.98</v>
+      </c>
+      <c r="F440" s="7">
+        <v>243.98</v>
+      </c>
+      <c r="G440" s="6">
+        <v>3016740000</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A441" s="4">
+        <v>31655</v>
+      </c>
+      <c r="B441" s="7">
+        <v>252.93</v>
+      </c>
+      <c r="C441" s="7">
+        <v>254.13</v>
+      </c>
+      <c r="D441" s="7">
+        <v>228.08</v>
+      </c>
+      <c r="E441" s="7">
+        <v>231.32</v>
+      </c>
+      <c r="F441" s="7">
+        <v>231.32</v>
+      </c>
+      <c r="G441" s="6">
+        <v>3166300000</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A442" s="4">
+        <v>31624</v>
+      </c>
+      <c r="B442" s="7">
+        <v>236.12</v>
+      </c>
+      <c r="C442" s="7">
+        <v>254.24</v>
+      </c>
+      <c r="D442" s="7">
+        <v>231.92</v>
+      </c>
+      <c r="E442" s="7">
+        <v>252.93</v>
+      </c>
+      <c r="F442" s="7">
+        <v>252.93</v>
+      </c>
+      <c r="G442" s="6">
+        <v>2701900000</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A443" s="4">
+        <v>31593</v>
+      </c>
+      <c r="B443" s="7">
+        <v>250.67</v>
+      </c>
+      <c r="C443" s="7">
+        <v>253.2</v>
+      </c>
+      <c r="D443" s="7">
+        <v>233.07</v>
+      </c>
+      <c r="E443" s="7">
+        <v>236.12</v>
+      </c>
+      <c r="F443" s="7">
+        <v>236.12</v>
+      </c>
+      <c r="G443" s="6">
+        <v>3029900000</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A444" s="4">
+        <v>31563</v>
+      </c>
+      <c r="B444" s="7">
+        <v>246.04</v>
+      </c>
+      <c r="C444" s="7">
+        <v>251.81</v>
+      </c>
+      <c r="D444" s="7">
+        <v>238.23</v>
+      </c>
+      <c r="E444" s="7">
+        <v>250.84</v>
+      </c>
+      <c r="F444" s="7">
+        <v>250.84</v>
+      </c>
+      <c r="G444" s="6">
+        <v>2649600000</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A445" s="4">
+        <v>31532</v>
+      </c>
+      <c r="B445" s="7">
+        <v>235.52</v>
+      </c>
+      <c r="C445" s="7">
+        <v>249.19</v>
+      </c>
+      <c r="D445" s="7">
+        <v>232.26</v>
+      </c>
+      <c r="E445" s="7">
+        <v>247.35</v>
+      </c>
+      <c r="F445" s="7">
+        <v>247.35</v>
+      </c>
+      <c r="G445" s="6">
+        <v>2680240000</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A446" s="4">
+        <v>31503</v>
+      </c>
+      <c r="B446" s="7">
+        <v>238.9</v>
+      </c>
+      <c r="C446" s="7">
+        <v>245.47</v>
+      </c>
+      <c r="D446" s="7">
+        <v>226.3</v>
+      </c>
+      <c r="E446" s="7">
+        <v>235.52</v>
+      </c>
+      <c r="F446" s="7">
+        <v>235.52</v>
+      </c>
+      <c r="G446" s="6">
+        <v>3240400000</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A447" s="4">
+        <v>31472</v>
+      </c>
+      <c r="B447" s="7">
+        <v>226.92</v>
+      </c>
+      <c r="C447" s="7">
+        <v>240.11</v>
+      </c>
+      <c r="D447" s="7">
+        <v>222.18</v>
+      </c>
+      <c r="E447" s="7">
+        <v>238.9</v>
+      </c>
+      <c r="F447" s="7">
+        <v>238.9</v>
+      </c>
+      <c r="G447" s="6">
+        <v>3214600000</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A448" s="4">
+        <v>31444</v>
+      </c>
+      <c r="B448" s="7">
+        <v>211.78</v>
+      </c>
+      <c r="C448" s="7">
+        <v>227.92</v>
+      </c>
+      <c r="D448" s="7">
+        <v>210.82</v>
+      </c>
+      <c r="E448" s="7">
+        <v>226.92</v>
+      </c>
+      <c r="F448" s="7">
+        <v>226.92</v>
+      </c>
+      <c r="G448" s="6">
+        <v>2899100000</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A449" s="4">
+        <v>31413</v>
+      </c>
+      <c r="B449" s="7">
+        <v>211.28</v>
+      </c>
+      <c r="C449" s="7">
+        <v>214.57</v>
+      </c>
+      <c r="D449" s="7">
+        <v>202.6</v>
+      </c>
+      <c r="E449" s="7">
+        <v>211.78</v>
+      </c>
+      <c r="F449" s="7">
+        <v>211.78</v>
+      </c>
+      <c r="G449" s="6">
+        <v>2879010000</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A450" s="4">
+        <v>31382</v>
+      </c>
+      <c r="B450" s="7">
+        <v>202.17</v>
+      </c>
+      <c r="C450" s="7">
+        <v>213.08</v>
+      </c>
+      <c r="D450" s="7">
+        <v>200.1</v>
+      </c>
+      <c r="E450" s="7">
+        <v>211.28</v>
+      </c>
+      <c r="F450" s="7">
+        <v>211.28</v>
+      </c>
+      <c r="G450" s="6">
+        <v>2804380000</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A451" s="4">
+        <v>31352</v>
+      </c>
+      <c r="B451" s="7">
+        <v>189.82</v>
+      </c>
+      <c r="C451" s="7">
+        <v>203.4</v>
+      </c>
+      <c r="D451" s="7">
+        <v>189.37</v>
+      </c>
+      <c r="E451" s="7">
+        <v>202.17</v>
+      </c>
+      <c r="F451" s="7">
+        <v>202.17</v>
+      </c>
+      <c r="G451" s="6">
+        <v>2445370000</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A452" s="4">
+        <v>31320</v>
+      </c>
+      <c r="B452" s="7">
+        <v>182.06</v>
+      </c>
+      <c r="C452" s="7">
+        <v>190.15</v>
+      </c>
+      <c r="D452" s="7">
+        <v>181.16</v>
+      </c>
+      <c r="E452" s="7">
+        <v>189.82</v>
+      </c>
+      <c r="F452" s="7">
+        <v>189.82</v>
+      </c>
+      <c r="G452" s="6">
+        <v>2543240000</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A453" s="4">
+        <v>31290</v>
+      </c>
+      <c r="B453" s="7">
+        <v>188.63</v>
+      </c>
+      <c r="C453" s="7">
+        <v>188.8</v>
+      </c>
+      <c r="D453" s="7">
+        <v>179.45</v>
+      </c>
+      <c r="E453" s="7">
+        <v>182.08</v>
+      </c>
+      <c r="F453" s="7">
+        <v>182.08</v>
+      </c>
+      <c r="G453" s="6">
+        <v>1860160000</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A454" s="4">
+        <v>31259</v>
+      </c>
+      <c r="B454" s="7">
+        <v>190.92</v>
+      </c>
+      <c r="C454" s="7">
+        <v>192.17</v>
+      </c>
+      <c r="D454" s="7">
+        <v>186.1</v>
+      </c>
+      <c r="E454" s="7">
+        <v>188.63</v>
+      </c>
+      <c r="F454" s="7">
+        <v>188.63</v>
+      </c>
+      <c r="G454" s="6">
+        <v>1923200000</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A455" s="4">
+        <v>31228</v>
+      </c>
+      <c r="B455" s="7">
+        <v>191.85</v>
+      </c>
+      <c r="C455" s="7">
+        <v>196.07</v>
+      </c>
+      <c r="D455" s="7">
+        <v>189.3</v>
+      </c>
+      <c r="E455" s="7">
+        <v>190.92</v>
+      </c>
+      <c r="F455" s="7">
+        <v>190.92</v>
+      </c>
+      <c r="G455" s="6">
+        <v>2463070000</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A456" s="4">
+        <v>31198</v>
+      </c>
+      <c r="B456" s="7">
+        <v>189.55</v>
+      </c>
+      <c r="C456" s="7">
+        <v>191.85</v>
+      </c>
+      <c r="D456" s="7">
+        <v>185.03</v>
+      </c>
+      <c r="E456" s="7">
+        <v>191.85</v>
+      </c>
+      <c r="F456" s="7">
+        <v>191.85</v>
+      </c>
+      <c r="G456" s="6">
+        <v>2117000000</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A457" s="4">
+        <v>31167</v>
+      </c>
+      <c r="B457" s="7">
+        <v>179.83</v>
+      </c>
+      <c r="C457" s="7">
+        <v>189.98</v>
+      </c>
+      <c r="D457" s="7">
+        <v>178.35</v>
+      </c>
+      <c r="E457" s="7">
+        <v>189.55</v>
+      </c>
+      <c r="F457" s="7">
+        <v>189.55</v>
+      </c>
+      <c r="G457" s="6">
+        <v>2350340000</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A458" s="4">
+        <v>31138</v>
+      </c>
+      <c r="B458" s="7">
+        <v>180.66</v>
+      </c>
+      <c r="C458" s="7">
+        <v>183.61</v>
+      </c>
+      <c r="D458" s="7">
+        <v>177.86</v>
+      </c>
+      <c r="E458" s="7">
+        <v>179.83</v>
+      </c>
+      <c r="F458" s="7">
+        <v>179.83</v>
+      </c>
+      <c r="G458" s="6">
+        <v>1981880000</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A459" s="4">
+        <v>31107</v>
+      </c>
+      <c r="B459" s="7">
+        <v>181.18</v>
+      </c>
+      <c r="C459" s="7">
+        <v>183.89</v>
+      </c>
+      <c r="D459" s="7">
+        <v>176.53</v>
+      </c>
+      <c r="E459" s="7">
+        <v>180.66</v>
+      </c>
+      <c r="F459" s="7">
+        <v>180.66</v>
+      </c>
+      <c r="G459" s="6">
+        <v>2153090000</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A460" s="4">
+        <v>31079</v>
+      </c>
+      <c r="B460" s="7">
+        <v>179.63</v>
+      </c>
+      <c r="C460" s="7">
+        <v>183.95</v>
+      </c>
+      <c r="D460" s="7">
+        <v>177.75</v>
+      </c>
+      <c r="E460" s="7">
+        <v>181.18</v>
+      </c>
+      <c r="F460" s="7">
+        <v>181.18</v>
+      </c>
+      <c r="G460" s="6">
+        <v>2194620000</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A461" s="4">
+        <v>31048</v>
+      </c>
+      <c r="B461" s="7">
+        <v>167.2</v>
+      </c>
+      <c r="C461" s="7">
+        <v>180.27</v>
+      </c>
+      <c r="D461" s="7">
+        <v>163.36000000000001</v>
+      </c>
+      <c r="E461" s="7">
+        <v>179.63</v>
+      </c>
+      <c r="F461" s="7">
+        <v>179.63</v>
+      </c>
+      <c r="G461" s="6">
+        <v>2673710000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
